--- a/dragon-verse/Excels/AnimalEcology_动物生态表.xlsx
+++ b/dragon-verse/Excels/AnimalEcology_动物生态表.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\P12GPark\Project\Edit\DragonVerse\dragon-verse\Excels\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0BF5D1D-95C8-4918-B003-2E810979E467}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="24045" windowHeight="11925"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -31,6 +25,8 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -115,6 +111,9 @@
     <t>运动范围</t>
   </si>
   <si>
+    <t>寻路范围可采样值</t>
+  </si>
+  <si>
     <t>速度可采样值 m/s</t>
   </si>
   <si>
@@ -130,89 +129,81 @@
     <t>TestAnimalName0001</t>
   </si>
   <si>
+    <t>29</t>
+  </si>
+  <si>
+    <t>3|2|5</t>
+  </si>
+  <si>
+    <t>TestAnimalName0002</t>
+  </si>
+  <si>
+    <t>-2461|-11936|480||-2673|-11203|440||-1908|-12482|530</t>
+  </si>
+  <si>
+    <t>2|1|3</t>
+  </si>
+  <si>
+    <t>2|3|1</t>
+  </si>
+  <si>
+    <t>TestAnimalName0003</t>
+  </si>
+  <si>
+    <t>-2673|-11203|440||-2835|-10598|440||-3227|-10666|3400</t>
+  </si>
+  <si>
+    <t>1|2|3</t>
+  </si>
+  <si>
+    <t>TestAnimalName0004</t>
+  </si>
+  <si>
+    <t>-3797|-9219|690||-3811|-8544|908||-1747|-7508|844||-2399|-6110|882</t>
+  </si>
+  <si>
+    <t>3|21</t>
+  </si>
+  <si>
+    <t>-3090|-6200|990||-3533|-5161|1131||-4460|-3301|1337||-4038|-5173|1202</t>
+  </si>
+  <si>
+    <t>-858|-7036|714||-2389|-8190|940||-3963|-7967|1011</t>
+  </si>
+  <si>
+    <t>4092|-1276|647||4951|-226|962||-3373|-9083|731</t>
+  </si>
+  <si>
+    <t>4551|5857|1636||5564|4225|1684||5577|735|1317</t>
+  </si>
+  <si>
+    <t>1731|7838|1564||-66|7976|1553||6303|3548|1691</t>
+  </si>
+  <si>
+    <t>-11272|6585|3358||-9615|9185|3873||5035|5120|1652</t>
+  </si>
+  <si>
+    <t>-10249|441|2078||-8841|-1131|1679||-11098|1544|2448</t>
+  </si>
+  <si>
     <t>MaxLanItemCount</t>
-  </si>
-  <si>
-    <t>TestAnimalName0002</t>
-  </si>
-  <si>
-    <t>TestAnimalName0003</t>
-  </si>
-  <si>
-    <t>TestAnimalName0004</t>
-  </si>
-  <si>
-    <t>-50|-15371|1068||-492|-15953|1130||-471|-14422|1026</t>
-  </si>
-  <si>
-    <t>-2461|-11936|480||-2673|-11203|440||-1908|-12482|530</t>
-  </si>
-  <si>
-    <t>-2673|-11203|440||-2835|-10598|440||-3227|-10666|3400</t>
-  </si>
-  <si>
-    <t>-3797|-9219|690||-3811|-8544|908||-1747|-7508|844||-2399|-6110|882</t>
-  </si>
-  <si>
-    <t>-3090|-6200|990||-3533|-5161|1131||-4460|-3301|1337||-4038|-5173|1202</t>
-  </si>
-  <si>
-    <t>-858|-7036|714||-2389|-8190|940||-3963|-7967|1011</t>
-  </si>
-  <si>
-    <t>4092|-1276|647||4951|-226|962||-3373|-9083|731</t>
-  </si>
-  <si>
-    <t>4551|5857|1636||5564|4225|1684||5577|735|1317</t>
-  </si>
-  <si>
-    <t>1731|7838|1564||-66|7976|1553||6303|3548|1691</t>
-  </si>
-  <si>
-    <t>-11272|6585|3358||-9615|9185|3873||5035|5120|1652</t>
-  </si>
-  <si>
-    <t>-10249|441|2078||-8841|-1131|1679||-11098|1544|2448</t>
-  </si>
-  <si>
-    <t>2|1|3</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>1|2|3</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>3|21</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>3|2|5</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>2|3|1</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>寻路范围可采样值</t>
-    <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <fonts count="5" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
+  <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="24">
     <font>
       <sz val="10"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="微软雅黑"/>
-      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
@@ -220,32 +211,366 @@
       <sz val="10"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
-      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="微软雅黑"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="10"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
-      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <family val="3"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -253,178 +578,389 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
   <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
+    <cellStyle name="货币" xfId="2" builtinId="4"/>
+    <cellStyle name="百分比" xfId="3" builtinId="5"/>
+    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
+    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
+    <cellStyle name="超链接" xfId="6" builtinId="8"/>
+    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
+    <cellStyle name="注释" xfId="8" builtinId="10"/>
+    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
+    <cellStyle name="标题" xfId="10" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
+    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="输入" xfId="16" builtinId="20"/>
+    <cellStyle name="输出" xfId="17" builtinId="21"/>
+    <cellStyle name="计算" xfId="18" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
+    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="好" xfId="22" builtinId="26"/>
+    <cellStyle name="差" xfId="23" builtinId="27"/>
+    <cellStyle name="适中" xfId="24" builtinId="28"/>
+    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
+    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
+    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
+    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
+    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
   <dxfs count="17">
     <dxf>
-      <font>
-        <b/>
-        <color theme="1"/>
-      </font>
       <fill>
         <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.79992065187536243"/>
-          <bgColor theme="4" tint="0.79992065187536243"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="4" tint="0.39991454817346722"/>
-        </top>
-        <bottom style="thin">
-          <color theme="4" tint="0.39991454817346722"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <color theme="1"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.79992065187536243"/>
-          <bgColor theme="4" tint="0.79992065187536243"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom style="thin">
-          <color theme="4" tint="0.39991454817346722"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.79992065187536243"/>
-          <bgColor theme="4" tint="0.79992065187536243"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom style="thin">
-          <color theme="4" tint="0.39991454817346722"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.79992065187536243"/>
-          <bgColor theme="4" tint="0.79992065187536243"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom style="thin">
-          <color theme="4" tint="0.39991454817346722"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <color theme="1"/>
-      </font>
-      <border>
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="4"/>
-        </top>
-        <bottom style="thin">
-          <color theme="4"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom style="thin">
-          <color theme="4" tint="0.39991454817346722"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.79992065187536243"/>
-          <bgColor theme="4" tint="0.79992065187536243"/>
+          <fgColor theme="4" tint="0.799920651875362"/>
+          <bgColor theme="4" tint="0.799920651875362"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <fill>
         <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.79992065187536243"/>
-          <bgColor theme="4" tint="0.79992065187536243"/>
+          <fgColor theme="4" tint="0.799920651875362"/>
+          <bgColor theme="4" tint="0.799920651875362"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="1"/>
+        <color theme="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="1"/>
+        <color theme="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="1"/>
+        <color theme="1"/>
+      </font>
+      <border>
+        <left/>
+        <right/>
+        <top style="double">
+          <color theme="4"/>
+        </top>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="1"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4"/>
+          <bgColor theme="4"/>
         </patternFill>
       </fill>
     </dxf>
@@ -446,105 +982,178 @@
           <color theme="4"/>
         </bottom>
         <horizontal style="thin">
-          <color theme="4" tint="0.39991454817346722"/>
+          <color theme="4" tint="0.399914548173467"/>
         </horizontal>
       </border>
     </dxf>
     <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.799920651875362"/>
+          <bgColor theme="4" tint="0.799920651875362"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom style="thin">
+          <color theme="4" tint="0.399914548173467"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
       <font>
-        <b/>
+        <b val="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.799920651875362"/>
+          <bgColor theme="4" tint="0.799920651875362"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom style="thin">
+          <color theme="4" tint="0.399914548173467"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
         <color theme="1"/>
       </font>
       <border>
         <left/>
         <right/>
-        <top style="double">
-          <color theme="4"/>
-        </top>
-        <bottom/>
+        <top/>
+        <bottom style="thin">
+          <color theme="4" tint="0.399914548173467"/>
+        </bottom>
       </border>
     </dxf>
     <dxf>
       <font>
-        <b/>
+        <b val="1"/>
         <color theme="1"/>
       </font>
     </dxf>
     <dxf>
       <font>
-        <b/>
-        <color theme="0"/>
+        <b val="1"/>
+        <color theme="1"/>
       </font>
+      <border>
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
       <fill>
         <patternFill patternType="solid">
-          <fgColor theme="4"/>
-          <bgColor theme="4"/>
+          <fgColor theme="4" tint="0.799920651875362"/>
+          <bgColor theme="4" tint="0.799920651875362"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <fill>
         <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.79992065187536243"/>
-          <bgColor theme="4" tint="0.79992065187536243"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.79992065187536243"/>
-          <bgColor theme="4" tint="0.79992065187536243"/>
+          <fgColor theme="4" tint="0.799920651875362"/>
+          <bgColor theme="4" tint="0.799920651875362"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <font>
-        <b/>
+        <b val="1"/>
         <color theme="1"/>
       </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.799920651875362"/>
+          <bgColor theme="4" tint="0.799920651875362"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.399914548173467"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.399914548173467"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="1"/>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.799920651875362"/>
+          <bgColor theme="4" tint="0.799920651875362"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom style="thin">
+          <color theme="4" tint="0.399914548173467"/>
+        </bottom>
+      </border>
     </dxf>
   </dxfs>
   <tableStyles count="2" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="TableStylePreset3_Accent1 1" pivot="0" count="7" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
-      <tableStyleElement type="wholeTable" dxfId="10"/>
-      <tableStyleElement type="headerRow" dxfId="13"/>
-      <tableStyleElement type="totalRow" dxfId="11"/>
-      <tableStyleElement type="firstColumn" dxfId="16"/>
-      <tableStyleElement type="lastColumn" dxfId="12"/>
+    <tableStyle name="TableStylePreset3_Accent1 1" pivot="0" count="7" xr9:uid="{C1ED1E7F-1328-4F45-8B04-242A94584F3A}">
+      <tableStyleElement type="wholeTable" dxfId="6"/>
+      <tableStyleElement type="headerRow" dxfId="5"/>
+      <tableStyleElement type="totalRow" dxfId="4"/>
+      <tableStyleElement type="firstColumn" dxfId="3"/>
+      <tableStyleElement type="lastColumn" dxfId="2"/>
+      <tableStyleElement type="firstRowStripe" dxfId="1"/>
+      <tableStyleElement type="firstColumnStripe" dxfId="0"/>
+    </tableStyle>
+    <tableStyle name="PivotStylePreset2_Accent1 1" table="0" count="10" xr9:uid="{8ABCA936-4C85-4150-B856-2DD40DEECE12}">
+      <tableStyleElement type="headerRow" dxfId="16"/>
+      <tableStyleElement type="totalRow" dxfId="15"/>
       <tableStyleElement type="firstRowStripe" dxfId="14"/>
-      <tableStyleElement type="firstColumnStripe" dxfId="15"/>
-    </tableStyle>
-    <tableStyle name="PivotStylePreset2_Accent1 1" table="0" count="10" xr9:uid="{00000000-0011-0000-FFFF-FFFF01000000}">
-      <tableStyleElement type="headerRow" dxfId="5"/>
-      <tableStyleElement type="totalRow" dxfId="0"/>
-      <tableStyleElement type="firstRowStripe" dxfId="8"/>
-      <tableStyleElement type="firstColumnStripe" dxfId="9"/>
-      <tableStyleElement type="firstSubtotalRow" dxfId="6"/>
-      <tableStyleElement type="secondSubtotalRow" dxfId="1"/>
-      <tableStyleElement type="firstRowSubheading" dxfId="7"/>
-      <tableStyleElement type="secondRowSubheading" dxfId="2"/>
-      <tableStyleElement type="pageFieldLabels" dxfId="4"/>
-      <tableStyleElement type="pageFieldValues" dxfId="3"/>
+      <tableStyleElement type="firstColumnStripe" dxfId="13"/>
+      <tableStyleElement type="firstSubtotalRow" dxfId="12"/>
+      <tableStyleElement type="secondSubtotalRow" dxfId="11"/>
+      <tableStyleElement type="firstRowSubheading" dxfId="10"/>
+      <tableStyleElement type="secondRowSubheading" dxfId="9"/>
+      <tableStyleElement type="pageFieldLabels" dxfId="8"/>
+      <tableStyleElement type="pageFieldValues" dxfId="7"/>
     </tableStyle>
   </tableStyles>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <xxl21:alternateUrls>
-      <xxl21:absoluteUrl r:id="rId2"/>
-    </xxl21:alternateUrls>
     <sheetNames>
       <sheetName val="Sheet1"/>
     </sheetNames>
@@ -554,6 +1163,8 @@
           <cell r="B1" t="str">
             <v>string</v>
           </cell>
+        </row>
+        <row r="1">
           <cell r="D1" t="str">
             <v>string</v>
           </cell>
@@ -768,42 +1379,42 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:M301"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="120" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="16.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="16.5"/>
   <cols>
-    <col min="2" max="2" width="25.25" style="1" customWidth="1"/>
-    <col min="3" max="3" width="28.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="67.125" style="6" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="18.625" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="25.25" style="3" customWidth="1"/>
+    <col min="3" max="3" width="28.625" style="3" customWidth="1"/>
+    <col min="4" max="4" width="67.125" style="4" customWidth="1"/>
+    <col min="5" max="5" width="18.625" style="2" customWidth="1"/>
     <col min="6" max="8" width="15.5" customWidth="1"/>
-    <col min="9" max="9" width="15.75" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.75" customWidth="1"/>
     <col min="10" max="10" width="14.125" customWidth="1"/>
-    <col min="11" max="11" width="15.5" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="15.375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="15.5" customWidth="1"/>
+    <col min="12" max="12" width="15.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="3" t="s">
+    <row r="1" s="2" customFormat="1" spans="1:13">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="9" t="s">
+      <c r="D1" s="6" t="s">
         <v>2</v>
       </c>
       <c r="E1" s="2" t="s">
@@ -834,17 +1445,17 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="3" t="s">
+    <row r="2" s="2" customFormat="1" spans="1:13">
+      <c r="A2" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="9" t="s">
+      <c r="D2" s="6" t="s">
         <v>6</v>
       </c>
       <c r="E2" s="2" t="s">
@@ -875,17 +1486,17 @@
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="3" s="2" customFormat="1" spans="1:13">
       <c r="A3" s="2" t="s">
         <v>16</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="D3" s="9" t="s">
+      <c r="D3" s="6" t="s">
         <v>19</v>
       </c>
       <c r="E3" s="2" t="s">
@@ -904,38 +1515,38 @@
         <v>24</v>
       </c>
       <c r="J3" s="11" t="s">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="M3" s="2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B4" s="1" t="s">
         <v>28</v>
+      </c>
+    </row>
+    <row r="4" s="3" customFormat="1" spans="2:7">
+      <c r="B4" s="3" t="s">
+        <v>29</v>
       </c>
       <c r="E4" s="2"/>
       <c r="G4" s="2"/>
     </row>
-    <row r="5" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="1">
+    <row r="5" s="3" customFormat="1" spans="1:13">
+      <c r="A5" s="3">
         <v>1</v>
       </c>
-      <c r="B5" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="C5" s="5" t="str">
+      <c r="B5" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="C5" s="8" t="str">
         <f ca="1">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B5,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
-        <v>粉猪</v>
-      </c>
-      <c r="D5" s="6" t="s">
-        <v>34</v>
+        <v/>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>31</v>
       </c>
       <c r="E5" s="2">
         <v>0</v>
@@ -959,25 +1570,25 @@
         <v>1</v>
       </c>
       <c r="L5" s="11" t="s">
-        <v>48</v>
-      </c>
-      <c r="M5" s="1">
+        <v>32</v>
+      </c>
+      <c r="M5" s="3">
         <v>159590</v>
       </c>
     </row>
-    <row r="6" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="1">
+    <row r="6" s="3" customFormat="1" spans="1:13">
+      <c r="A6" s="3">
         <v>2</v>
       </c>
-      <c r="B6" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="C6" s="5" t="str">
+      <c r="B6" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="C6" s="8" t="str">
         <f ca="1">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B6,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
-        <v>橘猫</v>
-      </c>
-      <c r="D6" s="6" t="s">
-        <v>35</v>
+        <v/>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>34</v>
       </c>
       <c r="E6" s="2">
         <v>0</v>
@@ -998,28 +1609,28 @@
         <v>1</v>
       </c>
       <c r="K6" s="11" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="L6" s="11" t="s">
-        <v>49</v>
-      </c>
-      <c r="M6" s="1">
+        <v>36</v>
+      </c>
+      <c r="M6" s="3">
         <v>159750</v>
       </c>
     </row>
-    <row r="7" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="1">
+    <row r="7" s="3" customFormat="1" spans="1:13">
+      <c r="A7" s="3">
         <v>3</v>
       </c>
-      <c r="B7" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="C7" s="5" t="str">
+      <c r="B7" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="C7" s="8" t="str">
         <f ca="1">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B7,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
-        <v>狗狗</v>
-      </c>
-      <c r="D7" s="6" t="s">
-        <v>36</v>
+        <v/>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>38</v>
       </c>
       <c r="E7" s="2">
         <v>0</v>
@@ -1040,28 +1651,28 @@
         <v>1</v>
       </c>
       <c r="K7" s="11" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="L7" s="11" t="s">
-        <v>46</v>
-      </c>
-      <c r="M7" s="1">
+        <v>39</v>
+      </c>
+      <c r="M7" s="3">
         <v>159842</v>
       </c>
     </row>
-    <row r="8" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="1">
+    <row r="8" s="3" customFormat="1" spans="1:13">
+      <c r="A8" s="3">
         <v>4</v>
       </c>
-      <c r="B8" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="C8" s="5" t="str">
+      <c r="B8" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="C8" s="8" t="str">
         <f ca="1">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B8,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
-        <v>垂耳兔</v>
-      </c>
-      <c r="D8" s="6" t="s">
-        <v>37</v>
+        <v/>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>41</v>
       </c>
       <c r="E8" s="2">
         <v>0</v>
@@ -1082,28 +1693,28 @@
         <v>1</v>
       </c>
       <c r="K8" s="11" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="L8" s="11" t="s">
-        <v>46</v>
-      </c>
-      <c r="M8" s="1">
+        <v>39</v>
+      </c>
+      <c r="M8" s="3">
         <v>160045</v>
       </c>
     </row>
-    <row r="9" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="1">
+    <row r="9" s="3" customFormat="1" spans="1:13">
+      <c r="A9" s="3">
         <v>5</v>
       </c>
-      <c r="B9" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="C9" s="5" t="str">
+      <c r="B9" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="C9" s="8" t="str">
         <f ca="1">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B9,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
-        <v>粉猪</v>
-      </c>
-      <c r="D9" s="6" t="s">
-        <v>38</v>
+        <v/>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>43</v>
       </c>
       <c r="E9" s="2">
         <v>60000</v>
@@ -1127,25 +1738,25 @@
         <v>1</v>
       </c>
       <c r="L9" s="11" t="s">
-        <v>48</v>
-      </c>
-      <c r="M9" s="1">
+        <v>32</v>
+      </c>
+      <c r="M9" s="3">
         <v>159590</v>
       </c>
     </row>
-    <row r="10" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="1">
+    <row r="10" s="3" customFormat="1" spans="1:13">
+      <c r="A10" s="3">
         <v>6</v>
       </c>
-      <c r="B10" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="C10" s="5" t="str">
+      <c r="B10" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="C10" s="8" t="str">
         <f ca="1">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B10,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
-        <v>橘猫</v>
-      </c>
-      <c r="D10" s="6" t="s">
-        <v>39</v>
+        <v/>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>44</v>
       </c>
       <c r="E10" s="2">
         <v>60000</v>
@@ -1166,28 +1777,28 @@
         <v>1</v>
       </c>
       <c r="K10" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="L10" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="M10" s="3">
+        <v>159750</v>
+      </c>
+    </row>
+    <row r="11" s="3" customFormat="1" spans="1:13">
+      <c r="A11" s="3">
+        <v>7</v>
+      </c>
+      <c r="B11" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="C11" s="8" t="str">
+        <f ca="1">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B11,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
+        <v/>
+      </c>
+      <c r="D11" s="4" t="s">
         <v>45</v>
-      </c>
-      <c r="L10" s="11" t="s">
-        <v>49</v>
-      </c>
-      <c r="M10" s="1">
-        <v>159750</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="1">
-        <v>7</v>
-      </c>
-      <c r="B11" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="C11" s="5" t="str">
-        <f ca="1">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B11,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
-        <v>狗狗</v>
-      </c>
-      <c r="D11" s="6" t="s">
-        <v>40</v>
       </c>
       <c r="E11" s="2">
         <v>60000</v>
@@ -1208,28 +1819,28 @@
         <v>1</v>
       </c>
       <c r="K11" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="L11" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="M11" s="3">
+        <v>159842</v>
+      </c>
+    </row>
+    <row r="12" s="3" customFormat="1" spans="1:13">
+      <c r="A12" s="3">
+        <v>8</v>
+      </c>
+      <c r="B12" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="C12" s="8" t="str">
+        <f ca="1">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B12,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
+        <v/>
+      </c>
+      <c r="D12" s="4" t="s">
         <v>46</v>
-      </c>
-      <c r="L11" s="11" t="s">
-        <v>46</v>
-      </c>
-      <c r="M11" s="1">
-        <v>159842</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="1">
-        <v>8</v>
-      </c>
-      <c r="B12" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="C12" s="5" t="str">
-        <f ca="1">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B12,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
-        <v>垂耳兔</v>
-      </c>
-      <c r="D12" s="6" t="s">
-        <v>41</v>
       </c>
       <c r="E12" s="2">
         <v>60000</v>
@@ -1250,28 +1861,28 @@
         <v>1</v>
       </c>
       <c r="K12" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="L12" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="M12" s="3">
+        <v>160045</v>
+      </c>
+    </row>
+    <row r="13" s="3" customFormat="1" spans="1:13">
+      <c r="A13" s="3">
+        <v>9</v>
+      </c>
+      <c r="B13" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="C13" s="8" t="str">
+        <f ca="1">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B13,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
+        <v/>
+      </c>
+      <c r="D13" s="4" t="s">
         <v>47</v>
-      </c>
-      <c r="L12" s="11" t="s">
-        <v>46</v>
-      </c>
-      <c r="M12" s="1">
-        <v>160045</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="1">
-        <v>9</v>
-      </c>
-      <c r="B13" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="C13" s="5" t="str">
-        <f ca="1">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B13,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
-        <v>粉猪</v>
-      </c>
-      <c r="D13" s="6" t="s">
-        <v>42</v>
       </c>
       <c r="E13" s="2">
         <v>120000</v>
@@ -1295,25 +1906,25 @@
         <v>1</v>
       </c>
       <c r="L13" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="M13" s="3">
+        <v>159590</v>
+      </c>
+    </row>
+    <row r="14" s="3" customFormat="1" spans="1:13">
+      <c r="A14" s="3">
+        <v>10</v>
+      </c>
+      <c r="B14" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="C14" s="8" t="str">
+        <f ca="1">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B14,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
+        <v/>
+      </c>
+      <c r="D14" s="4" t="s">
         <v>48</v>
-      </c>
-      <c r="M13" s="1">
-        <v>159590</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="1">
-        <v>10</v>
-      </c>
-      <c r="B14" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="C14" s="5" t="str">
-        <f ca="1">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B14,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
-        <v>橘猫</v>
-      </c>
-      <c r="D14" s="6" t="s">
-        <v>43</v>
       </c>
       <c r="E14" s="2">
         <v>120000</v>
@@ -1334,28 +1945,28 @@
         <v>1</v>
       </c>
       <c r="K14" s="11" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="L14" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="M14" s="3">
+        <v>159750</v>
+      </c>
+    </row>
+    <row r="15" s="3" customFormat="1" spans="1:13">
+      <c r="A15" s="3">
+        <v>11</v>
+      </c>
+      <c r="B15" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="C15" s="8" t="str">
+        <f ca="1">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B15,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
+        <v/>
+      </c>
+      <c r="D15" s="4" t="s">
         <v>49</v>
-      </c>
-      <c r="M14" s="1">
-        <v>159750</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="1">
-        <v>11</v>
-      </c>
-      <c r="B15" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="C15" s="5" t="str">
-        <f ca="1">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B15,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
-        <v>狗狗</v>
-      </c>
-      <c r="D15" s="6" t="s">
-        <v>44</v>
       </c>
       <c r="E15" s="2">
         <v>120000</v>
@@ -1363,7 +1974,7 @@
       <c r="F15" s="2">
         <v>60000</v>
       </c>
-      <c r="G15" s="10">
+      <c r="G15" s="9">
         <v>2</v>
       </c>
       <c r="H15" s="2">
@@ -1376,1871 +1987,1869 @@
         <v>1</v>
       </c>
       <c r="K15" s="11" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="L15" s="11" t="s">
-        <v>46</v>
-      </c>
-      <c r="M15" s="1">
+        <v>39</v>
+      </c>
+      <c r="M15" s="3">
         <v>159842</v>
       </c>
     </row>
-    <row r="16" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B16" s="5"/>
-      <c r="C16" s="5" t="str">
+    <row r="16" s="3" customFormat="1" spans="2:7">
+      <c r="B16" s="8"/>
+      <c r="C16" s="8" t="str">
         <f ca="1">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B16,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
-      <c r="D16" s="6"/>
-      <c r="E16" s="10"/>
-      <c r="F16" s="5"/>
-      <c r="G16" s="5"/>
-    </row>
-    <row r="17" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B17" s="5"/>
-      <c r="C17" s="5" t="str">
+      <c r="D16" s="4"/>
+      <c r="E16" s="9"/>
+      <c r="F16" s="8"/>
+      <c r="G16" s="8"/>
+    </row>
+    <row r="17" s="3" customFormat="1" spans="2:7">
+      <c r="B17" s="8"/>
+      <c r="C17" s="8" t="str">
         <f ca="1">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B17,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
-      <c r="D17" s="6"/>
-      <c r="E17" s="10"/>
-      <c r="F17" s="5"/>
-      <c r="G17" s="5"/>
-    </row>
-    <row r="18" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="7"/>
-      <c r="B18" s="5"/>
-      <c r="C18" s="5" t="str">
+      <c r="D17" s="4"/>
+      <c r="E17" s="9"/>
+      <c r="F17" s="8"/>
+      <c r="G17" s="8"/>
+    </row>
+    <row r="18" s="3" customFormat="1" spans="1:7">
+      <c r="A18" s="10"/>
+      <c r="B18" s="8"/>
+      <c r="C18" s="8" t="str">
         <f ca="1">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B18,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
-      <c r="D18" s="6"/>
-      <c r="E18" s="10"/>
-      <c r="F18" s="5"/>
-      <c r="G18" s="5"/>
-    </row>
-    <row r="19" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="7"/>
-      <c r="B19" s="5"/>
-      <c r="C19" s="5" t="str">
+      <c r="D18" s="4"/>
+      <c r="E18" s="9"/>
+      <c r="F18" s="8"/>
+      <c r="G18" s="8"/>
+    </row>
+    <row r="19" s="3" customFormat="1" spans="1:7">
+      <c r="A19" s="10"/>
+      <c r="B19" s="8"/>
+      <c r="C19" s="8" t="str">
         <f ca="1">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B19,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
-      <c r="D19" s="6"/>
-      <c r="E19" s="10"/>
-      <c r="F19" s="5"/>
-      <c r="G19" s="5"/>
-    </row>
-    <row r="20" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="7"/>
-      <c r="B20" s="5"/>
-      <c r="C20" s="5" t="str">
+      <c r="D19" s="4"/>
+      <c r="E19" s="9"/>
+      <c r="F19" s="8"/>
+      <c r="G19" s="8"/>
+    </row>
+    <row r="20" s="3" customFormat="1" spans="1:5">
+      <c r="A20" s="10"/>
+      <c r="B20" s="8"/>
+      <c r="C20" s="8" t="str">
         <f ca="1">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B20,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
-      <c r="D20" s="6"/>
+      <c r="D20" s="4"/>
       <c r="E20" s="2"/>
     </row>
-    <row r="21" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="7"/>
-      <c r="B21" s="5"/>
-      <c r="C21" s="5" t="str">
+    <row r="21" s="3" customFormat="1" spans="1:5">
+      <c r="A21" s="10"/>
+      <c r="B21" s="8"/>
+      <c r="C21" s="8" t="str">
         <f ca="1">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B21,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
-      <c r="D21" s="6"/>
+      <c r="D21" s="4"/>
       <c r="E21" s="2"/>
     </row>
-    <row r="22" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="7"/>
-      <c r="B22" s="5"/>
-      <c r="C22" s="5" t="str">
+    <row r="22" s="3" customFormat="1" spans="1:5">
+      <c r="A22" s="10"/>
+      <c r="B22" s="8"/>
+      <c r="C22" s="8" t="str">
         <f ca="1">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B22,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
-      <c r="D22" s="6"/>
+      <c r="D22" s="4"/>
       <c r="E22" s="2"/>
     </row>
-    <row r="23" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="7"/>
-      <c r="B23" s="5"/>
-      <c r="C23" s="5" t="str">
+    <row r="23" s="3" customFormat="1" spans="1:5">
+      <c r="A23" s="10"/>
+      <c r="B23" s="8"/>
+      <c r="C23" s="8" t="str">
         <f ca="1">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B23,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
-      <c r="D23" s="6"/>
+      <c r="D23" s="4"/>
       <c r="E23" s="2"/>
     </row>
-    <row r="24" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="7"/>
-      <c r="B24" s="5"/>
-      <c r="C24" s="5" t="str">
+    <row r="24" s="3" customFormat="1" spans="1:5">
+      <c r="A24" s="10"/>
+      <c r="B24" s="8"/>
+      <c r="C24" s="8" t="str">
         <f ca="1">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B24,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
-      <c r="D24" s="6"/>
+      <c r="D24" s="4"/>
       <c r="E24" s="2"/>
     </row>
-    <row r="25" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="7"/>
-      <c r="B25" s="5"/>
-      <c r="C25" s="5" t="str">
+    <row r="25" s="3" customFormat="1" spans="1:5">
+      <c r="A25" s="10"/>
+      <c r="B25" s="8"/>
+      <c r="C25" s="8" t="str">
         <f ca="1">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B25,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
-      <c r="D25" s="6"/>
+      <c r="D25" s="4"/>
       <c r="E25" s="2"/>
     </row>
-    <row r="26" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="7"/>
-      <c r="B26" s="5"/>
-      <c r="C26" s="5" t="str">
+    <row r="26" s="3" customFormat="1" spans="1:5">
+      <c r="A26" s="10"/>
+      <c r="B26" s="8"/>
+      <c r="C26" s="8" t="str">
         <f ca="1">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B26,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
-      <c r="D26" s="6"/>
+      <c r="D26" s="4"/>
       <c r="E26" s="2"/>
     </row>
-    <row r="27" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A27" s="7"/>
-      <c r="C27" s="5" t="str">
+    <row r="27" s="3" customFormat="1" spans="1:5">
+      <c r="A27" s="10"/>
+      <c r="C27" s="8" t="str">
         <f ca="1">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B27,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
-      <c r="D27" s="6"/>
+      <c r="D27" s="4"/>
       <c r="E27" s="2"/>
     </row>
-    <row r="28" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="7"/>
-      <c r="C28" s="5" t="str">
+    <row r="28" s="3" customFormat="1" spans="1:5">
+      <c r="A28" s="10"/>
+      <c r="C28" s="8" t="str">
         <f ca="1">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B28,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
-      <c r="D28" s="6"/>
+      <c r="D28" s="4"/>
       <c r="E28" s="2"/>
     </row>
-    <row r="29" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A29" s="7"/>
-      <c r="C29" s="5" t="str">
+    <row r="29" s="3" customFormat="1" spans="1:5">
+      <c r="A29" s="10"/>
+      <c r="C29" s="8" t="str">
         <f ca="1">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B29,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
-      <c r="D29" s="6"/>
+      <c r="D29" s="4"/>
       <c r="E29" s="2"/>
     </row>
-    <row r="30" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A30" s="7"/>
-      <c r="C30" s="5" t="str">
+    <row r="30" s="3" customFormat="1" spans="1:5">
+      <c r="A30" s="10"/>
+      <c r="C30" s="8" t="str">
         <f ca="1">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B30,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
-      <c r="D30" s="6"/>
+      <c r="D30" s="4"/>
       <c r="E30" s="2"/>
     </row>
-    <row r="31" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A31" s="7"/>
-      <c r="C31" s="5" t="str">
+    <row r="31" s="3" customFormat="1" spans="1:5">
+      <c r="A31" s="10"/>
+      <c r="C31" s="8" t="str">
         <f ca="1">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B31,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
-      <c r="D31" s="6"/>
+      <c r="D31" s="4"/>
       <c r="E31" s="2"/>
     </row>
-    <row r="32" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A32" s="7"/>
-      <c r="C32" s="5" t="str">
+    <row r="32" s="3" customFormat="1" spans="1:5">
+      <c r="A32" s="10"/>
+      <c r="C32" s="8" t="str">
         <f ca="1">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B32,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
-      <c r="D32" s="6"/>
+      <c r="D32" s="4"/>
       <c r="E32" s="2"/>
     </row>
-    <row r="33" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A33" s="7"/>
-      <c r="C33" s="5" t="str">
+    <row r="33" s="3" customFormat="1" spans="1:5">
+      <c r="A33" s="10"/>
+      <c r="C33" s="8" t="str">
         <f ca="1">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B33,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
-      <c r="D33" s="6"/>
+      <c r="D33" s="4"/>
       <c r="E33" s="2"/>
     </row>
-    <row r="34" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A34" s="7"/>
-      <c r="C34" s="5" t="str">
+    <row r="34" s="3" customFormat="1" spans="1:5">
+      <c r="A34" s="10"/>
+      <c r="C34" s="8" t="str">
         <f ca="1">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B34,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
-      <c r="D34" s="6"/>
+      <c r="D34" s="4"/>
       <c r="E34" s="2"/>
     </row>
-    <row r="35" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A35" s="7"/>
-      <c r="C35" s="5" t="str">
+    <row r="35" s="3" customFormat="1" spans="1:5">
+      <c r="A35" s="10"/>
+      <c r="C35" s="8" t="str">
         <f ca="1">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B35,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
-      <c r="D35" s="6"/>
+      <c r="D35" s="4"/>
       <c r="E35" s="2"/>
     </row>
-    <row r="36" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A36" s="7"/>
-      <c r="C36" s="5" t="str">
+    <row r="36" s="3" customFormat="1" spans="1:5">
+      <c r="A36" s="10"/>
+      <c r="C36" s="8" t="str">
         <f ca="1">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B36,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
-      <c r="D36" s="6"/>
+      <c r="D36" s="4"/>
       <c r="E36" s="2"/>
     </row>
-    <row r="37" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A37" s="7"/>
-      <c r="C37" s="5" t="str">
+    <row r="37" s="3" customFormat="1" spans="1:5">
+      <c r="A37" s="10"/>
+      <c r="C37" s="8" t="str">
         <f ca="1">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B37,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
-      <c r="D37" s="6"/>
+      <c r="D37" s="4"/>
       <c r="E37" s="2"/>
     </row>
-    <row r="38" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A38" s="7"/>
-      <c r="C38" s="5" t="str">
+    <row r="38" s="3" customFormat="1" spans="1:5">
+      <c r="A38" s="10"/>
+      <c r="C38" s="8" t="str">
         <f ca="1">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B38,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
-      <c r="D38" s="6"/>
+      <c r="D38" s="4"/>
       <c r="E38" s="2"/>
     </row>
-    <row r="39" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A39" s="7"/>
-      <c r="C39" s="5" t="str">
+    <row r="39" s="3" customFormat="1" spans="1:5">
+      <c r="A39" s="10"/>
+      <c r="C39" s="8" t="str">
         <f ca="1">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B39,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
-      <c r="D39" s="6"/>
+      <c r="D39" s="4"/>
       <c r="E39" s="2"/>
     </row>
-    <row r="40" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A40" s="7"/>
-      <c r="C40" s="5" t="str">
+    <row r="40" s="3" customFormat="1" spans="1:5">
+      <c r="A40" s="10"/>
+      <c r="C40" s="8" t="str">
         <f ca="1">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B40,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
-      <c r="D40" s="6"/>
+      <c r="D40" s="4"/>
       <c r="E40" s="2"/>
     </row>
-    <row r="41" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A41" s="7"/>
-      <c r="C41" s="5" t="str">
+    <row r="41" s="3" customFormat="1" spans="1:5">
+      <c r="A41" s="10"/>
+      <c r="C41" s="8" t="str">
         <f ca="1">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B41,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
-      <c r="D41" s="6"/>
+      <c r="D41" s="4"/>
       <c r="E41" s="2"/>
     </row>
-    <row r="42" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A42" s="7"/>
-      <c r="C42" s="5" t="str">
+    <row r="42" s="3" customFormat="1" spans="1:5">
+      <c r="A42" s="10"/>
+      <c r="C42" s="8" t="str">
         <f ca="1">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B42,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
-      <c r="D42" s="6"/>
+      <c r="D42" s="4"/>
       <c r="E42" s="2"/>
     </row>
-    <row r="43" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A43" s="7"/>
-      <c r="C43" s="5" t="str">
+    <row r="43" s="3" customFormat="1" spans="1:5">
+      <c r="A43" s="10"/>
+      <c r="C43" s="8" t="str">
         <f ca="1">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B43,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
-      <c r="D43" s="6"/>
+      <c r="D43" s="4"/>
       <c r="E43" s="2"/>
     </row>
-    <row r="44" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="C44" s="5" t="str">
+    <row r="44" s="3" customFormat="1" spans="3:5">
+      <c r="C44" s="8" t="str">
         <f ca="1">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B44,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
-      <c r="D44" s="6"/>
+      <c r="D44" s="4"/>
       <c r="E44" s="2"/>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="C45" s="5" t="str">
+    <row r="45" spans="3:3">
+      <c r="C45" s="8" t="str">
         <f ca="1">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B45,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="C46" s="5" t="str">
+    <row r="46" spans="3:3">
+      <c r="C46" s="8" t="str">
         <f ca="1">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B46,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="C47" s="5" t="str">
+    <row r="47" spans="3:3">
+      <c r="C47" s="8" t="str">
         <f ca="1">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B47,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="C48" s="1" t="str">
+    <row r="48" spans="3:3">
+      <c r="C48" s="3" t="str">
         <f ca="1">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B48,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
     </row>
-    <row r="49" spans="3:3" x14ac:dyDescent="0.35">
-      <c r="C49" s="1" t="str">
+    <row r="49" spans="3:3">
+      <c r="C49" s="3" t="str">
         <f ca="1">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B49,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
     </row>
-    <row r="50" spans="3:3" x14ac:dyDescent="0.35">
-      <c r="C50" s="1" t="str">
+    <row r="50" spans="3:3">
+      <c r="C50" s="3" t="str">
         <f ca="1">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B50,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
     </row>
-    <row r="51" spans="3:3" x14ac:dyDescent="0.35">
-      <c r="C51" s="1" t="str">
+    <row r="51" spans="3:3">
+      <c r="C51" s="3" t="str">
         <f ca="1">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B51,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
     </row>
-    <row r="52" spans="3:3" x14ac:dyDescent="0.35">
-      <c r="C52" s="1" t="str">
+    <row r="52" spans="3:3">
+      <c r="C52" s="3" t="str">
         <f ca="1">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B52,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
     </row>
-    <row r="53" spans="3:3" x14ac:dyDescent="0.35">
-      <c r="C53" s="1" t="str">
+    <row r="53" spans="3:3">
+      <c r="C53" s="3" t="str">
         <f ca="1">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B53,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
     </row>
-    <row r="54" spans="3:3" x14ac:dyDescent="0.35">
-      <c r="C54" s="1" t="str">
+    <row r="54" spans="3:3">
+      <c r="C54" s="3" t="str">
         <f ca="1">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B54,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
     </row>
-    <row r="55" spans="3:3" x14ac:dyDescent="0.35">
-      <c r="C55" s="1" t="str">
+    <row r="55" spans="3:3">
+      <c r="C55" s="3" t="str">
         <f ca="1">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B55,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
     </row>
-    <row r="56" spans="3:3" x14ac:dyDescent="0.35">
-      <c r="C56" s="1" t="str">
+    <row r="56" spans="3:3">
+      <c r="C56" s="3" t="str">
         <f ca="1">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B56,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
     </row>
-    <row r="57" spans="3:3" x14ac:dyDescent="0.35">
-      <c r="C57" s="1" t="str">
+    <row r="57" spans="3:3">
+      <c r="C57" s="3" t="str">
         <f ca="1">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B57,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
     </row>
-    <row r="58" spans="3:3" x14ac:dyDescent="0.35">
-      <c r="C58" s="1" t="str">
+    <row r="58" spans="3:3">
+      <c r="C58" s="3" t="str">
         <f ca="1">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B58,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
     </row>
-    <row r="59" spans="3:3" x14ac:dyDescent="0.35">
-      <c r="C59" s="1" t="str">
+    <row r="59" spans="3:3">
+      <c r="C59" s="3" t="str">
         <f ca="1">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B59,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
     </row>
-    <row r="60" spans="3:3" x14ac:dyDescent="0.35">
-      <c r="C60" s="1" t="str">
+    <row r="60" spans="3:3">
+      <c r="C60" s="3" t="str">
         <f ca="1">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B60,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
     </row>
-    <row r="61" spans="3:3" x14ac:dyDescent="0.35">
-      <c r="C61" s="1" t="str">
+    <row r="61" spans="3:3">
+      <c r="C61" s="3" t="str">
         <f ca="1">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B61,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
     </row>
-    <row r="62" spans="3:3" x14ac:dyDescent="0.35">
-      <c r="C62" s="1" t="str">
+    <row r="62" spans="3:3">
+      <c r="C62" s="3" t="str">
         <f ca="1">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B62,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
     </row>
-    <row r="63" spans="3:3" x14ac:dyDescent="0.35">
-      <c r="C63" s="1" t="str">
+    <row r="63" spans="3:3">
+      <c r="C63" s="3" t="str">
         <f ca="1">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B63,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
     </row>
-    <row r="64" spans="3:3" x14ac:dyDescent="0.35">
-      <c r="C64" s="1" t="str">
+    <row r="64" spans="3:3">
+      <c r="C64" s="3" t="str">
         <f ca="1">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B64,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
     </row>
-    <row r="65" spans="3:3" x14ac:dyDescent="0.35">
-      <c r="C65" s="1" t="str">
+    <row r="65" spans="3:3">
+      <c r="C65" s="3" t="str">
         <f ca="1">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B65,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
     </row>
-    <row r="66" spans="3:3" x14ac:dyDescent="0.35">
-      <c r="C66" s="1" t="str">
+    <row r="66" spans="3:3">
+      <c r="C66" s="3" t="str">
         <f ca="1">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B66,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
     </row>
-    <row r="67" spans="3:3" x14ac:dyDescent="0.35">
-      <c r="C67" s="1" t="str">
+    <row r="67" spans="3:3">
+      <c r="C67" s="3" t="str">
         <f ca="1">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B67,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
     </row>
-    <row r="68" spans="3:3" x14ac:dyDescent="0.35">
-      <c r="C68" s="1" t="str">
+    <row r="68" spans="3:3">
+      <c r="C68" s="3" t="str">
         <f ca="1">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B68,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
     </row>
-    <row r="69" spans="3:3" x14ac:dyDescent="0.35">
-      <c r="C69" s="1" t="str">
+    <row r="69" spans="3:3">
+      <c r="C69" s="3" t="str">
         <f ca="1">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B69,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
     </row>
-    <row r="70" spans="3:3" x14ac:dyDescent="0.35">
-      <c r="C70" s="1" t="str">
+    <row r="70" spans="3:3">
+      <c r="C70" s="3" t="str">
         <f ca="1">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B70,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
     </row>
-    <row r="71" spans="3:3" x14ac:dyDescent="0.35">
-      <c r="C71" s="1" t="str">
+    <row r="71" spans="3:3">
+      <c r="C71" s="3" t="str">
         <f ca="1">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B71,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
     </row>
-    <row r="72" spans="3:3" x14ac:dyDescent="0.35">
-      <c r="C72" s="1" t="str">
+    <row r="72" spans="3:3">
+      <c r="C72" s="3" t="str">
         <f ca="1">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B72,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
     </row>
-    <row r="73" spans="3:3" x14ac:dyDescent="0.35">
-      <c r="C73" s="1" t="str">
+    <row r="73" spans="3:3">
+      <c r="C73" s="3" t="str">
         <f ca="1">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B73,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
     </row>
-    <row r="74" spans="3:3" x14ac:dyDescent="0.35">
-      <c r="C74" s="1" t="str">
+    <row r="74" spans="3:3">
+      <c r="C74" s="3" t="str">
         <f ca="1">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B74,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
     </row>
-    <row r="75" spans="3:3" x14ac:dyDescent="0.35">
-      <c r="C75" s="1" t="str">
+    <row r="75" spans="3:3">
+      <c r="C75" s="3" t="str">
         <f ca="1">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B75,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
     </row>
-    <row r="76" spans="3:3" x14ac:dyDescent="0.35">
-      <c r="C76" s="1" t="str">
+    <row r="76" spans="3:3">
+      <c r="C76" s="3" t="str">
         <f ca="1">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B76,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
     </row>
-    <row r="77" spans="3:3" x14ac:dyDescent="0.35">
-      <c r="C77" s="1" t="str">
+    <row r="77" spans="3:3">
+      <c r="C77" s="3" t="str">
         <f ca="1">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B77,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
     </row>
-    <row r="78" spans="3:3" x14ac:dyDescent="0.35">
-      <c r="C78" s="1" t="str">
+    <row r="78" spans="3:3">
+      <c r="C78" s="3" t="str">
         <f ca="1">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B78,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
     </row>
-    <row r="79" spans="3:3" x14ac:dyDescent="0.35">
-      <c r="C79" s="1" t="str">
+    <row r="79" spans="3:3">
+      <c r="C79" s="3" t="str">
         <f ca="1">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B79,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
     </row>
-    <row r="80" spans="3:3" x14ac:dyDescent="0.35">
-      <c r="C80" s="1" t="str">
+    <row r="80" spans="3:3">
+      <c r="C80" s="3" t="str">
         <f ca="1">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B80,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
     </row>
-    <row r="81" spans="3:3" x14ac:dyDescent="0.35">
-      <c r="C81" s="1" t="str">
+    <row r="81" spans="3:3">
+      <c r="C81" s="3" t="str">
         <f ca="1">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B81,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
     </row>
-    <row r="82" spans="3:3" x14ac:dyDescent="0.35">
-      <c r="C82" s="1" t="str">
+    <row r="82" spans="3:3">
+      <c r="C82" s="3" t="str">
         <f ca="1">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B82,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
     </row>
-    <row r="83" spans="3:3" x14ac:dyDescent="0.35">
-      <c r="C83" s="1" t="str">
+    <row r="83" spans="3:3">
+      <c r="C83" s="3" t="str">
         <f ca="1">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B83,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
     </row>
-    <row r="84" spans="3:3" x14ac:dyDescent="0.35">
-      <c r="C84" s="1" t="str">
+    <row r="84" spans="3:3">
+      <c r="C84" s="3" t="str">
         <f ca="1">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B84,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
     </row>
-    <row r="85" spans="3:3" x14ac:dyDescent="0.35">
-      <c r="C85" s="1" t="str">
+    <row r="85" spans="3:3">
+      <c r="C85" s="3" t="str">
         <f ca="1">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B85,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
     </row>
-    <row r="86" spans="3:3" x14ac:dyDescent="0.35">
-      <c r="C86" s="1" t="str">
+    <row r="86" spans="3:3">
+      <c r="C86" s="3" t="str">
         <f ca="1">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B86,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
     </row>
-    <row r="87" spans="3:3" x14ac:dyDescent="0.35">
-      <c r="C87" s="1" t="str">
+    <row r="87" spans="3:3">
+      <c r="C87" s="3" t="str">
         <f ca="1">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B87,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
     </row>
-    <row r="88" spans="3:3" x14ac:dyDescent="0.35">
-      <c r="C88" s="1" t="str">
+    <row r="88" spans="3:3">
+      <c r="C88" s="3" t="str">
         <f ca="1">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B88,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
     </row>
-    <row r="89" spans="3:3" x14ac:dyDescent="0.35">
-      <c r="C89" s="1" t="str">
+    <row r="89" spans="3:3">
+      <c r="C89" s="3" t="str">
         <f ca="1">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B89,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
     </row>
-    <row r="90" spans="3:3" x14ac:dyDescent="0.35">
-      <c r="C90" s="1" t="str">
+    <row r="90" spans="3:3">
+      <c r="C90" s="3" t="str">
         <f ca="1">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B90,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
     </row>
-    <row r="91" spans="3:3" x14ac:dyDescent="0.35">
-      <c r="C91" s="1" t="str">
+    <row r="91" spans="3:3">
+      <c r="C91" s="3" t="str">
         <f ca="1">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B91,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
     </row>
-    <row r="92" spans="3:3" x14ac:dyDescent="0.35">
-      <c r="C92" s="1" t="str">
+    <row r="92" spans="3:3">
+      <c r="C92" s="3" t="str">
         <f ca="1">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B92,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
     </row>
-    <row r="93" spans="3:3" x14ac:dyDescent="0.35">
-      <c r="C93" s="1" t="str">
+    <row r="93" spans="3:3">
+      <c r="C93" s="3" t="str">
         <f ca="1">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B93,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
     </row>
-    <row r="94" spans="3:3" x14ac:dyDescent="0.35">
-      <c r="C94" s="1" t="str">
+    <row r="94" spans="3:3">
+      <c r="C94" s="3" t="str">
         <f ca="1">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B94,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
     </row>
-    <row r="95" spans="3:3" x14ac:dyDescent="0.35">
-      <c r="C95" s="1" t="str">
+    <row r="95" spans="3:3">
+      <c r="C95" s="3" t="str">
         <f ca="1">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B95,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
     </row>
-    <row r="96" spans="3:3" x14ac:dyDescent="0.35">
-      <c r="C96" s="1" t="str">
+    <row r="96" spans="3:3">
+      <c r="C96" s="3" t="str">
         <f ca="1">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B96,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
     </row>
-    <row r="97" spans="3:3" x14ac:dyDescent="0.35">
-      <c r="C97" s="1" t="str">
+    <row r="97" spans="3:3">
+      <c r="C97" s="3" t="str">
         <f ca="1">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B97,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
     </row>
-    <row r="98" spans="3:3" x14ac:dyDescent="0.35">
-      <c r="C98" s="1" t="str">
+    <row r="98" spans="3:3">
+      <c r="C98" s="3" t="str">
         <f ca="1">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B98,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
     </row>
-    <row r="99" spans="3:3" x14ac:dyDescent="0.35">
-      <c r="C99" s="1" t="str">
+    <row r="99" spans="3:3">
+      <c r="C99" s="3" t="str">
         <f ca="1">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B99,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
     </row>
-    <row r="100" spans="3:3" x14ac:dyDescent="0.35">
-      <c r="C100" s="1" t="str">
+    <row r="100" spans="3:3">
+      <c r="C100" s="3" t="str">
         <f ca="1">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B100,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
     </row>
-    <row r="101" spans="3:3" x14ac:dyDescent="0.35">
-      <c r="C101" s="1" t="str">
+    <row r="101" spans="3:3">
+      <c r="C101" s="3" t="str">
         <f ca="1">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B101,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
     </row>
-    <row r="102" spans="3:3" x14ac:dyDescent="0.35">
-      <c r="C102" s="1" t="str">
+    <row r="102" spans="3:3">
+      <c r="C102" s="3" t="str">
         <f ca="1">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B102,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
     </row>
-    <row r="103" spans="3:3" x14ac:dyDescent="0.35">
-      <c r="C103" s="1" t="str">
+    <row r="103" spans="3:3">
+      <c r="C103" s="3" t="str">
         <f ca="1">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B103,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
     </row>
-    <row r="104" spans="3:3" x14ac:dyDescent="0.35">
-      <c r="C104" s="1" t="str">
+    <row r="104" spans="3:3">
+      <c r="C104" s="3" t="str">
         <f ca="1">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B104,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
     </row>
-    <row r="105" spans="3:3" x14ac:dyDescent="0.35">
-      <c r="C105" s="1" t="str">
+    <row r="105" spans="3:3">
+      <c r="C105" s="3" t="str">
         <f ca="1">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B105,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
     </row>
-    <row r="106" spans="3:3" x14ac:dyDescent="0.35">
-      <c r="C106" s="1" t="str">
+    <row r="106" spans="3:3">
+      <c r="C106" s="3" t="str">
         <f ca="1">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B106,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
     </row>
-    <row r="107" spans="3:3" x14ac:dyDescent="0.35">
-      <c r="C107" s="1" t="str">
+    <row r="107" spans="3:3">
+      <c r="C107" s="3" t="str">
         <f ca="1">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B107,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
     </row>
-    <row r="108" spans="3:3" x14ac:dyDescent="0.35">
-      <c r="C108" s="1" t="str">
+    <row r="108" spans="3:3">
+      <c r="C108" s="3" t="str">
         <f ca="1">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B108,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
     </row>
-    <row r="109" spans="3:3" x14ac:dyDescent="0.35">
-      <c r="C109" s="1" t="str">
+    <row r="109" spans="3:3">
+      <c r="C109" s="3" t="str">
         <f ca="1">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B109,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
     </row>
-    <row r="110" spans="3:3" x14ac:dyDescent="0.35">
-      <c r="C110" s="1" t="str">
+    <row r="110" spans="3:3">
+      <c r="C110" s="3" t="str">
         <f ca="1">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B110,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
     </row>
-    <row r="111" spans="3:3" x14ac:dyDescent="0.35">
-      <c r="C111" s="1" t="str">
+    <row r="111" spans="3:3">
+      <c r="C111" s="3" t="str">
         <f ca="1">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B111,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
     </row>
-    <row r="112" spans="3:3" x14ac:dyDescent="0.35">
-      <c r="C112" s="1" t="str">
+    <row r="112" spans="3:3">
+      <c r="C112" s="3" t="str">
         <f ca="1">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B112,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
     </row>
-    <row r="113" spans="3:3" x14ac:dyDescent="0.35">
-      <c r="C113" s="1" t="str">
+    <row r="113" spans="3:3">
+      <c r="C113" s="3" t="str">
         <f ca="1">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B113,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
     </row>
-    <row r="114" spans="3:3" x14ac:dyDescent="0.35">
-      <c r="C114" s="1" t="str">
+    <row r="114" spans="3:3">
+      <c r="C114" s="3" t="str">
         <f ca="1">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B114,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
     </row>
-    <row r="115" spans="3:3" x14ac:dyDescent="0.35">
-      <c r="C115" s="1" t="str">
+    <row r="115" spans="3:3">
+      <c r="C115" s="3" t="str">
         <f ca="1">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B115,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
     </row>
-    <row r="116" spans="3:3" x14ac:dyDescent="0.35">
-      <c r="C116" s="1" t="str">
+    <row r="116" spans="3:3">
+      <c r="C116" s="3" t="str">
         <f ca="1">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B116,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
     </row>
-    <row r="117" spans="3:3" x14ac:dyDescent="0.35">
-      <c r="C117" s="1" t="str">
+    <row r="117" spans="3:3">
+      <c r="C117" s="3" t="str">
         <f ca="1">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B117,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
     </row>
-    <row r="118" spans="3:3" x14ac:dyDescent="0.35">
-      <c r="C118" s="1" t="str">
+    <row r="118" spans="3:3">
+      <c r="C118" s="3" t="str">
         <f ca="1">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B118,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
     </row>
-    <row r="119" spans="3:3" x14ac:dyDescent="0.35">
-      <c r="C119" s="1" t="str">
+    <row r="119" spans="3:3">
+      <c r="C119" s="3" t="str">
         <f ca="1">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B119,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
     </row>
-    <row r="120" spans="3:3" x14ac:dyDescent="0.35">
-      <c r="C120" s="1" t="str">
+    <row r="120" spans="3:3">
+      <c r="C120" s="3" t="str">
         <f ca="1">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B120,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
     </row>
-    <row r="121" spans="3:3" x14ac:dyDescent="0.35">
-      <c r="C121" s="1" t="str">
+    <row r="121" spans="3:3">
+      <c r="C121" s="3" t="str">
         <f ca="1">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B121,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
     </row>
-    <row r="122" spans="3:3" x14ac:dyDescent="0.35">
-      <c r="C122" s="1" t="str">
+    <row r="122" spans="3:3">
+      <c r="C122" s="3" t="str">
         <f ca="1">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B122,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
     </row>
-    <row r="123" spans="3:3" x14ac:dyDescent="0.35">
-      <c r="C123" s="1" t="str">
+    <row r="123" spans="3:3">
+      <c r="C123" s="3" t="str">
         <f ca="1">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B123,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
     </row>
-    <row r="124" spans="3:3" x14ac:dyDescent="0.35">
-      <c r="C124" s="1" t="str">
+    <row r="124" spans="3:3">
+      <c r="C124" s="3" t="str">
         <f ca="1">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B124,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
     </row>
-    <row r="125" spans="3:3" x14ac:dyDescent="0.35">
-      <c r="C125" s="1" t="str">
+    <row r="125" spans="3:3">
+      <c r="C125" s="3" t="str">
         <f ca="1">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B125,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
     </row>
-    <row r="126" spans="3:3" x14ac:dyDescent="0.35">
-      <c r="C126" s="1" t="str">
+    <row r="126" spans="3:3">
+      <c r="C126" s="3" t="str">
         <f ca="1">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B126,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
     </row>
-    <row r="127" spans="3:3" x14ac:dyDescent="0.35">
-      <c r="C127" s="1" t="str">
+    <row r="127" spans="3:3">
+      <c r="C127" s="3" t="str">
         <f ca="1">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B127,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
     </row>
-    <row r="128" spans="3:3" x14ac:dyDescent="0.35">
-      <c r="C128" s="1" t="str">
+    <row r="128" spans="3:3">
+      <c r="C128" s="3" t="str">
         <f ca="1">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B128,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
     </row>
-    <row r="129" spans="3:3" x14ac:dyDescent="0.35">
-      <c r="C129" s="1" t="str">
+    <row r="129" spans="3:3">
+      <c r="C129" s="3" t="str">
         <f ca="1">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B129,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
     </row>
-    <row r="130" spans="3:3" x14ac:dyDescent="0.35">
-      <c r="C130" s="1" t="str">
+    <row r="130" spans="3:3">
+      <c r="C130" s="3" t="str">
         <f ca="1">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B130,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
     </row>
-    <row r="131" spans="3:3" x14ac:dyDescent="0.35">
-      <c r="C131" s="1" t="str">
+    <row r="131" spans="3:3">
+      <c r="C131" s="3" t="str">
         <f ca="1">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B131,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
     </row>
-    <row r="132" spans="3:3" x14ac:dyDescent="0.35">
-      <c r="C132" s="1" t="str">
+    <row r="132" spans="3:3">
+      <c r="C132" s="3" t="str">
         <f ca="1">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B132,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
     </row>
-    <row r="133" spans="3:3" x14ac:dyDescent="0.35">
-      <c r="C133" s="1" t="str">
+    <row r="133" spans="3:3">
+      <c r="C133" s="3" t="str">
         <f ca="1">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B133,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
     </row>
-    <row r="134" spans="3:3" x14ac:dyDescent="0.35">
-      <c r="C134" s="1" t="str">
+    <row r="134" spans="3:3">
+      <c r="C134" s="3" t="str">
         <f ca="1">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B134,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
     </row>
-    <row r="135" spans="3:3" x14ac:dyDescent="0.35">
-      <c r="C135" s="1" t="str">
+    <row r="135" spans="3:3">
+      <c r="C135" s="3" t="str">
         <f ca="1">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B135,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
     </row>
-    <row r="136" spans="3:3" x14ac:dyDescent="0.35">
-      <c r="C136" s="1" t="str">
+    <row r="136" spans="3:3">
+      <c r="C136" s="3" t="str">
         <f ca="1">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B136,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
     </row>
-    <row r="137" spans="3:3" x14ac:dyDescent="0.35">
-      <c r="C137" s="1" t="str">
+    <row r="137" spans="3:3">
+      <c r="C137" s="3" t="str">
         <f ca="1">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B137,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
     </row>
-    <row r="138" spans="3:3" x14ac:dyDescent="0.35">
-      <c r="C138" s="1" t="str">
+    <row r="138" spans="3:3">
+      <c r="C138" s="3" t="str">
         <f ca="1">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B138,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
     </row>
-    <row r="139" spans="3:3" x14ac:dyDescent="0.35">
-      <c r="C139" s="1" t="str">
+    <row r="139" spans="3:3">
+      <c r="C139" s="3" t="str">
         <f ca="1">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B139,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
     </row>
-    <row r="140" spans="3:3" x14ac:dyDescent="0.35">
-      <c r="C140" s="1" t="str">
+    <row r="140" spans="3:3">
+      <c r="C140" s="3" t="str">
         <f ca="1">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B140,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
     </row>
-    <row r="141" spans="3:3" x14ac:dyDescent="0.35">
-      <c r="C141" s="1" t="str">
+    <row r="141" spans="3:3">
+      <c r="C141" s="3" t="str">
         <f ca="1">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B141,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
     </row>
-    <row r="142" spans="3:3" x14ac:dyDescent="0.35">
-      <c r="C142" s="1" t="str">
+    <row r="142" spans="3:3">
+      <c r="C142" s="3" t="str">
         <f ca="1">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B142,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
     </row>
-    <row r="143" spans="3:3" x14ac:dyDescent="0.35">
-      <c r="C143" s="1" t="str">
+    <row r="143" spans="3:3">
+      <c r="C143" s="3" t="str">
         <f ca="1">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B143,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
     </row>
-    <row r="144" spans="3:3" x14ac:dyDescent="0.35">
-      <c r="C144" s="1" t="str">
+    <row r="144" spans="3:3">
+      <c r="C144" s="3" t="str">
         <f ca="1">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B144,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
     </row>
-    <row r="145" spans="3:3" x14ac:dyDescent="0.35">
-      <c r="C145" s="1" t="str">
+    <row r="145" spans="3:3">
+      <c r="C145" s="3" t="str">
         <f ca="1">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B145,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
     </row>
-    <row r="146" spans="3:3" x14ac:dyDescent="0.35">
-      <c r="C146" s="1" t="str">
+    <row r="146" spans="3:3">
+      <c r="C146" s="3" t="str">
         <f ca="1">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B146,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
     </row>
-    <row r="147" spans="3:3" x14ac:dyDescent="0.35">
-      <c r="C147" s="1" t="str">
+    <row r="147" spans="3:3">
+      <c r="C147" s="3" t="str">
         <f ca="1">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B147,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
     </row>
-    <row r="148" spans="3:3" x14ac:dyDescent="0.35">
-      <c r="C148" s="1" t="str">
+    <row r="148" spans="3:3">
+      <c r="C148" s="3" t="str">
         <f ca="1">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B148,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
     </row>
-    <row r="149" spans="3:3" x14ac:dyDescent="0.35">
-      <c r="C149" s="1" t="str">
+    <row r="149" spans="3:3">
+      <c r="C149" s="3" t="str">
         <f ca="1">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B149,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
     </row>
-    <row r="150" spans="3:3" x14ac:dyDescent="0.35">
-      <c r="C150" s="1" t="str">
+    <row r="150" spans="3:3">
+      <c r="C150" s="3" t="str">
         <f ca="1">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B150,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
     </row>
-    <row r="151" spans="3:3" x14ac:dyDescent="0.35">
-      <c r="C151" s="1" t="str">
+    <row r="151" spans="3:3">
+      <c r="C151" s="3" t="str">
         <f ca="1">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B151,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
     </row>
-    <row r="152" spans="3:3" x14ac:dyDescent="0.35">
-      <c r="C152" s="1" t="str">
+    <row r="152" spans="3:3">
+      <c r="C152" s="3" t="str">
         <f ca="1">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B152,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
     </row>
-    <row r="153" spans="3:3" x14ac:dyDescent="0.35">
-      <c r="C153" s="1" t="str">
+    <row r="153" spans="3:3">
+      <c r="C153" s="3" t="str">
         <f ca="1">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B153,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
     </row>
-    <row r="154" spans="3:3" x14ac:dyDescent="0.35">
-      <c r="C154" s="1" t="str">
+    <row r="154" spans="3:3">
+      <c r="C154" s="3" t="str">
         <f ca="1">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B154,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
     </row>
-    <row r="155" spans="3:3" x14ac:dyDescent="0.35">
-      <c r="C155" s="1" t="str">
+    <row r="155" spans="3:3">
+      <c r="C155" s="3" t="str">
         <f ca="1">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B155,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
     </row>
-    <row r="156" spans="3:3" x14ac:dyDescent="0.35">
-      <c r="C156" s="1" t="str">
+    <row r="156" spans="3:3">
+      <c r="C156" s="3" t="str">
         <f ca="1">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B156,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
     </row>
-    <row r="157" spans="3:3" x14ac:dyDescent="0.35">
-      <c r="C157" s="1" t="str">
+    <row r="157" spans="3:3">
+      <c r="C157" s="3" t="str">
         <f ca="1">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B157,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
     </row>
-    <row r="158" spans="3:3" x14ac:dyDescent="0.35">
-      <c r="C158" s="1" t="str">
+    <row r="158" spans="3:3">
+      <c r="C158" s="3" t="str">
         <f ca="1">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B158,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
     </row>
-    <row r="159" spans="3:3" x14ac:dyDescent="0.35">
-      <c r="C159" s="1" t="str">
+    <row r="159" spans="3:3">
+      <c r="C159" s="3" t="str">
         <f ca="1">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B159,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
     </row>
-    <row r="160" spans="3:3" x14ac:dyDescent="0.35">
-      <c r="C160" s="1" t="str">
+    <row r="160" spans="3:3">
+      <c r="C160" s="3" t="str">
         <f ca="1">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B160,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
     </row>
-    <row r="161" spans="3:3" x14ac:dyDescent="0.35">
-      <c r="C161" s="1" t="str">
+    <row r="161" spans="3:3">
+      <c r="C161" s="3" t="str">
         <f ca="1">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B161,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
     </row>
-    <row r="162" spans="3:3" x14ac:dyDescent="0.35">
-      <c r="C162" s="1" t="str">
+    <row r="162" spans="3:3">
+      <c r="C162" s="3" t="str">
         <f ca="1">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B162,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
     </row>
-    <row r="163" spans="3:3" x14ac:dyDescent="0.35">
-      <c r="C163" s="1" t="str">
+    <row r="163" spans="3:3">
+      <c r="C163" s="3" t="str">
         <f ca="1">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B163,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
     </row>
-    <row r="164" spans="3:3" x14ac:dyDescent="0.35">
-      <c r="C164" s="1" t="str">
+    <row r="164" spans="3:3">
+      <c r="C164" s="3" t="str">
         <f ca="1">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B164,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
     </row>
-    <row r="165" spans="3:3" x14ac:dyDescent="0.35">
-      <c r="C165" s="1" t="str">
+    <row r="165" spans="3:3">
+      <c r="C165" s="3" t="str">
         <f ca="1">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B165,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
     </row>
-    <row r="166" spans="3:3" x14ac:dyDescent="0.35">
-      <c r="C166" s="1" t="str">
+    <row r="166" spans="3:3">
+      <c r="C166" s="3" t="str">
         <f ca="1">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B166,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
     </row>
-    <row r="167" spans="3:3" x14ac:dyDescent="0.35">
-      <c r="C167" s="1" t="str">
+    <row r="167" spans="3:3">
+      <c r="C167" s="3" t="str">
         <f ca="1">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B167,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
     </row>
-    <row r="168" spans="3:3" x14ac:dyDescent="0.35">
-      <c r="C168" s="1" t="str">
+    <row r="168" spans="3:3">
+      <c r="C168" s="3" t="str">
         <f ca="1">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B168,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
     </row>
-    <row r="169" spans="3:3" x14ac:dyDescent="0.35">
-      <c r="C169" s="1" t="str">
+    <row r="169" spans="3:3">
+      <c r="C169" s="3" t="str">
         <f ca="1">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B169,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
     </row>
-    <row r="170" spans="3:3" x14ac:dyDescent="0.35">
-      <c r="C170" s="1" t="str">
+    <row r="170" spans="3:3">
+      <c r="C170" s="3" t="str">
         <f ca="1">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B170,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
     </row>
-    <row r="171" spans="3:3" x14ac:dyDescent="0.35">
-      <c r="C171" s="1" t="str">
+    <row r="171" spans="3:3">
+      <c r="C171" s="3" t="str">
         <f ca="1">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B171,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
     </row>
-    <row r="172" spans="3:3" x14ac:dyDescent="0.35">
-      <c r="C172" s="1" t="str">
+    <row r="172" spans="3:3">
+      <c r="C172" s="3" t="str">
         <f ca="1">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B172,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
     </row>
-    <row r="173" spans="3:3" x14ac:dyDescent="0.35">
-      <c r="C173" s="1" t="str">
+    <row r="173" spans="3:3">
+      <c r="C173" s="3" t="str">
         <f ca="1">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B173,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
     </row>
-    <row r="174" spans="3:3" x14ac:dyDescent="0.35">
-      <c r="C174" s="1" t="str">
+    <row r="174" spans="3:3">
+      <c r="C174" s="3" t="str">
         <f ca="1">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B174,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
     </row>
-    <row r="175" spans="3:3" x14ac:dyDescent="0.35">
-      <c r="C175" s="1" t="str">
+    <row r="175" spans="3:3">
+      <c r="C175" s="3" t="str">
         <f ca="1">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B175,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
     </row>
-    <row r="176" spans="3:3" x14ac:dyDescent="0.35">
-      <c r="C176" s="1" t="str">
+    <row r="176" spans="3:3">
+      <c r="C176" s="3" t="str">
         <f ca="1">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B176,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
     </row>
-    <row r="177" spans="3:3" x14ac:dyDescent="0.35">
-      <c r="C177" s="1" t="str">
+    <row r="177" spans="3:3">
+      <c r="C177" s="3" t="str">
         <f ca="1">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B177,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
     </row>
-    <row r="178" spans="3:3" x14ac:dyDescent="0.35">
-      <c r="C178" s="1" t="str">
+    <row r="178" spans="3:3">
+      <c r="C178" s="3" t="str">
         <f ca="1">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B178,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
     </row>
-    <row r="179" spans="3:3" x14ac:dyDescent="0.35">
-      <c r="C179" s="1" t="str">
+    <row r="179" spans="3:3">
+      <c r="C179" s="3" t="str">
         <f ca="1">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B179,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
     </row>
-    <row r="180" spans="3:3" x14ac:dyDescent="0.35">
-      <c r="C180" s="1" t="str">
+    <row r="180" spans="3:3">
+      <c r="C180" s="3" t="str">
         <f ca="1">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B180,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
     </row>
-    <row r="181" spans="3:3" x14ac:dyDescent="0.35">
-      <c r="C181" s="1" t="str">
+    <row r="181" spans="3:3">
+      <c r="C181" s="3" t="str">
         <f ca="1">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B181,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
     </row>
-    <row r="182" spans="3:3" x14ac:dyDescent="0.35">
-      <c r="C182" s="1" t="str">
+    <row r="182" spans="3:3">
+      <c r="C182" s="3" t="str">
         <f ca="1">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B182,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
     </row>
-    <row r="183" spans="3:3" x14ac:dyDescent="0.35">
-      <c r="C183" s="1" t="str">
+    <row r="183" spans="3:3">
+      <c r="C183" s="3" t="str">
         <f ca="1">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B183,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
     </row>
-    <row r="184" spans="3:3" x14ac:dyDescent="0.35">
-      <c r="C184" s="1" t="str">
+    <row r="184" spans="3:3">
+      <c r="C184" s="3" t="str">
         <f ca="1">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B184,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
     </row>
-    <row r="185" spans="3:3" x14ac:dyDescent="0.35">
-      <c r="C185" s="1" t="str">
+    <row r="185" spans="3:3">
+      <c r="C185" s="3" t="str">
         <f ca="1">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B185,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
     </row>
-    <row r="186" spans="3:3" x14ac:dyDescent="0.35">
-      <c r="C186" s="1" t="str">
+    <row r="186" spans="3:3">
+      <c r="C186" s="3" t="str">
         <f ca="1">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B186,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
     </row>
-    <row r="187" spans="3:3" x14ac:dyDescent="0.35">
-      <c r="C187" s="1" t="str">
+    <row r="187" spans="3:3">
+      <c r="C187" s="3" t="str">
         <f ca="1">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B187,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
     </row>
-    <row r="188" spans="3:3" x14ac:dyDescent="0.35">
-      <c r="C188" s="1" t="str">
+    <row r="188" spans="3:3">
+      <c r="C188" s="3" t="str">
         <f ca="1">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B188,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
     </row>
-    <row r="189" spans="3:3" x14ac:dyDescent="0.35">
-      <c r="C189" s="1" t="str">
+    <row r="189" spans="3:3">
+      <c r="C189" s="3" t="str">
         <f ca="1">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B189,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
     </row>
-    <row r="190" spans="3:3" x14ac:dyDescent="0.35">
-      <c r="C190" s="1" t="str">
+    <row r="190" spans="3:3">
+      <c r="C190" s="3" t="str">
         <f ca="1">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B190,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
     </row>
-    <row r="191" spans="3:3" x14ac:dyDescent="0.35">
-      <c r="C191" s="1" t="str">
+    <row r="191" spans="3:3">
+      <c r="C191" s="3" t="str">
         <f ca="1">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B191,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
     </row>
-    <row r="192" spans="3:3" x14ac:dyDescent="0.35">
-      <c r="C192" s="1" t="str">
+    <row r="192" spans="3:3">
+      <c r="C192" s="3" t="str">
         <f ca="1">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B192,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
     </row>
-    <row r="193" spans="3:3" x14ac:dyDescent="0.35">
-      <c r="C193" s="1" t="str">
+    <row r="193" spans="3:3">
+      <c r="C193" s="3" t="str">
         <f ca="1">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B193,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
     </row>
-    <row r="194" spans="3:3" x14ac:dyDescent="0.35">
-      <c r="C194" s="1" t="str">
+    <row r="194" spans="3:3">
+      <c r="C194" s="3" t="str">
         <f ca="1">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B194,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
     </row>
-    <row r="195" spans="3:3" x14ac:dyDescent="0.35">
-      <c r="C195" s="1" t="str">
+    <row r="195" spans="3:3">
+      <c r="C195" s="3" t="str">
         <f ca="1">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B195,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
     </row>
-    <row r="196" spans="3:3" x14ac:dyDescent="0.35">
-      <c r="C196" s="1" t="str">
+    <row r="196" spans="3:3">
+      <c r="C196" s="3" t="str">
         <f ca="1">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B196,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
     </row>
-    <row r="197" spans="3:3" x14ac:dyDescent="0.35">
-      <c r="C197" s="1" t="str">
+    <row r="197" spans="3:3">
+      <c r="C197" s="3" t="str">
         <f ca="1">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B197,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
     </row>
-    <row r="198" spans="3:3" x14ac:dyDescent="0.35">
-      <c r="C198" s="1" t="str">
+    <row r="198" spans="3:3">
+      <c r="C198" s="3" t="str">
         <f ca="1">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B198,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
     </row>
-    <row r="199" spans="3:3" x14ac:dyDescent="0.35">
-      <c r="C199" s="1" t="str">
+    <row r="199" spans="3:3">
+      <c r="C199" s="3" t="str">
         <f ca="1">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B199,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
     </row>
-    <row r="200" spans="3:3" x14ac:dyDescent="0.35">
-      <c r="C200" s="1" t="str">
+    <row r="200" spans="3:3">
+      <c r="C200" s="3" t="str">
         <f ca="1">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B200,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
     </row>
-    <row r="201" spans="3:3" x14ac:dyDescent="0.35">
-      <c r="C201" s="1" t="str">
+    <row r="201" spans="3:3">
+      <c r="C201" s="3" t="str">
         <f ca="1">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B201,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
     </row>
-    <row r="202" spans="3:3" x14ac:dyDescent="0.35">
-      <c r="C202" s="1" t="str">
+    <row r="202" spans="3:3">
+      <c r="C202" s="3" t="str">
         <f ca="1">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B202,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
     </row>
-    <row r="203" spans="3:3" x14ac:dyDescent="0.35">
-      <c r="C203" s="1" t="str">
+    <row r="203" spans="3:3">
+      <c r="C203" s="3" t="str">
         <f ca="1">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B203,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
     </row>
-    <row r="204" spans="3:3" x14ac:dyDescent="0.35">
-      <c r="C204" s="1" t="str">
+    <row r="204" spans="3:3">
+      <c r="C204" s="3" t="str">
         <f ca="1">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B204,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
     </row>
-    <row r="205" spans="3:3" x14ac:dyDescent="0.35">
-      <c r="C205" s="1" t="str">
+    <row r="205" spans="3:3">
+      <c r="C205" s="3" t="str">
         <f ca="1">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B205,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
     </row>
-    <row r="206" spans="3:3" x14ac:dyDescent="0.35">
-      <c r="C206" s="1" t="str">
+    <row r="206" spans="3:3">
+      <c r="C206" s="3" t="str">
         <f ca="1">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B206,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
     </row>
-    <row r="207" spans="3:3" x14ac:dyDescent="0.35">
-      <c r="C207" s="1" t="str">
+    <row r="207" spans="3:3">
+      <c r="C207" s="3" t="str">
         <f ca="1">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B207,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
     </row>
-    <row r="208" spans="3:3" x14ac:dyDescent="0.35">
-      <c r="C208" s="1" t="str">
+    <row r="208" spans="3:3">
+      <c r="C208" s="3" t="str">
         <f ca="1">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B208,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
     </row>
-    <row r="209" spans="3:3" x14ac:dyDescent="0.35">
-      <c r="C209" s="1" t="str">
+    <row r="209" spans="3:3">
+      <c r="C209" s="3" t="str">
         <f ca="1">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B209,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
     </row>
-    <row r="210" spans="3:3" x14ac:dyDescent="0.35">
-      <c r="C210" s="1" t="str">
+    <row r="210" spans="3:3">
+      <c r="C210" s="3" t="str">
         <f ca="1">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B210,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
     </row>
-    <row r="211" spans="3:3" x14ac:dyDescent="0.35">
-      <c r="C211" s="1" t="str">
+    <row r="211" spans="3:3">
+      <c r="C211" s="3" t="str">
         <f ca="1">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B211,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
     </row>
-    <row r="212" spans="3:3" x14ac:dyDescent="0.35">
-      <c r="C212" s="1" t="str">
+    <row r="212" spans="3:3">
+      <c r="C212" s="3" t="str">
         <f ca="1">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B212,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
     </row>
-    <row r="213" spans="3:3" x14ac:dyDescent="0.35">
-      <c r="C213" s="1" t="str">
+    <row r="213" spans="3:3">
+      <c r="C213" s="3" t="str">
         <f ca="1">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B213,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
     </row>
-    <row r="214" spans="3:3" x14ac:dyDescent="0.35">
-      <c r="C214" s="1" t="str">
+    <row r="214" spans="3:3">
+      <c r="C214" s="3" t="str">
         <f ca="1">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B214,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
     </row>
-    <row r="215" spans="3:3" x14ac:dyDescent="0.35">
-      <c r="C215" s="1" t="str">
+    <row r="215" spans="3:3">
+      <c r="C215" s="3" t="str">
         <f ca="1">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B215,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
     </row>
-    <row r="216" spans="3:3" x14ac:dyDescent="0.35">
-      <c r="C216" s="1" t="str">
+    <row r="216" spans="3:3">
+      <c r="C216" s="3" t="str">
         <f ca="1">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B216,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
     </row>
-    <row r="217" spans="3:3" x14ac:dyDescent="0.35">
-      <c r="C217" s="1" t="str">
+    <row r="217" spans="3:3">
+      <c r="C217" s="3" t="str">
         <f ca="1">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B217,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
     </row>
-    <row r="218" spans="3:3" x14ac:dyDescent="0.35">
-      <c r="C218" s="1" t="str">
+    <row r="218" spans="3:3">
+      <c r="C218" s="3" t="str">
         <f ca="1">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B218,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
     </row>
-    <row r="219" spans="3:3" x14ac:dyDescent="0.35">
-      <c r="C219" s="1" t="str">
+    <row r="219" spans="3:3">
+      <c r="C219" s="3" t="str">
         <f ca="1">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B219,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
     </row>
-    <row r="220" spans="3:3" x14ac:dyDescent="0.35">
-      <c r="C220" s="1" t="str">
+    <row r="220" spans="3:3">
+      <c r="C220" s="3" t="str">
         <f ca="1">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B220,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
     </row>
-    <row r="221" spans="3:3" x14ac:dyDescent="0.35">
-      <c r="C221" s="1" t="str">
+    <row r="221" spans="3:3">
+      <c r="C221" s="3" t="str">
         <f ca="1">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B221,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
     </row>
-    <row r="222" spans="3:3" x14ac:dyDescent="0.35">
-      <c r="C222" s="1" t="str">
+    <row r="222" spans="3:3">
+      <c r="C222" s="3" t="str">
         <f ca="1">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B222,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
     </row>
-    <row r="223" spans="3:3" x14ac:dyDescent="0.35">
-      <c r="C223" s="1" t="str">
+    <row r="223" spans="3:3">
+      <c r="C223" s="3" t="str">
         <f ca="1">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B223,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
     </row>
-    <row r="224" spans="3:3" x14ac:dyDescent="0.35">
-      <c r="C224" s="1" t="str">
+    <row r="224" spans="3:3">
+      <c r="C224" s="3" t="str">
         <f ca="1">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B224,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
     </row>
-    <row r="225" spans="3:3" x14ac:dyDescent="0.35">
-      <c r="C225" s="1" t="str">
+    <row r="225" spans="3:3">
+      <c r="C225" s="3" t="str">
         <f ca="1">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B225,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
     </row>
-    <row r="226" spans="3:3" x14ac:dyDescent="0.35">
-      <c r="C226" s="1" t="str">
+    <row r="226" spans="3:3">
+      <c r="C226" s="3" t="str">
         <f ca="1">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B226,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
     </row>
-    <row r="227" spans="3:3" x14ac:dyDescent="0.35">
-      <c r="C227" s="1" t="str">
+    <row r="227" spans="3:3">
+      <c r="C227" s="3" t="str">
         <f ca="1">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B227,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
     </row>
-    <row r="228" spans="3:3" x14ac:dyDescent="0.35">
-      <c r="C228" s="1" t="str">
+    <row r="228" spans="3:3">
+      <c r="C228" s="3" t="str">
         <f ca="1">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B228,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
     </row>
-    <row r="229" spans="3:3" x14ac:dyDescent="0.35">
-      <c r="C229" s="1" t="str">
+    <row r="229" spans="3:3">
+      <c r="C229" s="3" t="str">
         <f ca="1">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B229,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
     </row>
-    <row r="230" spans="3:3" x14ac:dyDescent="0.35">
-      <c r="C230" s="1" t="str">
+    <row r="230" spans="3:3">
+      <c r="C230" s="3" t="str">
         <f ca="1">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B230,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
     </row>
-    <row r="231" spans="3:3" x14ac:dyDescent="0.35">
-      <c r="C231" s="1" t="str">
+    <row r="231" spans="3:3">
+      <c r="C231" s="3" t="str">
         <f ca="1">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B231,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
     </row>
-    <row r="232" spans="3:3" x14ac:dyDescent="0.35">
-      <c r="C232" s="1" t="str">
+    <row r="232" spans="3:3">
+      <c r="C232" s="3" t="str">
         <f ca="1">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B232,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
     </row>
-    <row r="233" spans="3:3" x14ac:dyDescent="0.35">
-      <c r="C233" s="1" t="str">
+    <row r="233" spans="3:3">
+      <c r="C233" s="3" t="str">
         <f ca="1">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B233,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
     </row>
-    <row r="234" spans="3:3" x14ac:dyDescent="0.35">
-      <c r="C234" s="1" t="str">
+    <row r="234" spans="3:3">
+      <c r="C234" s="3" t="str">
         <f ca="1">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B234,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
     </row>
-    <row r="235" spans="3:3" x14ac:dyDescent="0.35">
-      <c r="C235" s="1" t="str">
+    <row r="235" spans="3:3">
+      <c r="C235" s="3" t="str">
         <f ca="1">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B235,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
     </row>
-    <row r="236" spans="3:3" x14ac:dyDescent="0.35">
-      <c r="C236" s="1" t="str">
+    <row r="236" spans="3:3">
+      <c r="C236" s="3" t="str">
         <f ca="1">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B236,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
     </row>
-    <row r="237" spans="3:3" x14ac:dyDescent="0.35">
-      <c r="C237" s="1" t="str">
+    <row r="237" spans="3:3">
+      <c r="C237" s="3" t="str">
         <f ca="1">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B237,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
     </row>
-    <row r="238" spans="3:3" x14ac:dyDescent="0.35">
-      <c r="C238" s="1" t="str">
+    <row r="238" spans="3:3">
+      <c r="C238" s="3" t="str">
         <f ca="1">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B238,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
     </row>
-    <row r="239" spans="3:3" x14ac:dyDescent="0.35">
-      <c r="C239" s="1" t="str">
+    <row r="239" spans="3:3">
+      <c r="C239" s="3" t="str">
         <f ca="1">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B239,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
     </row>
-    <row r="240" spans="3:3" x14ac:dyDescent="0.35">
-      <c r="C240" s="1" t="str">
+    <row r="240" spans="3:3">
+      <c r="C240" s="3" t="str">
         <f ca="1">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B240,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
     </row>
-    <row r="241" spans="3:3" x14ac:dyDescent="0.35">
-      <c r="C241" s="1" t="str">
+    <row r="241" spans="3:3">
+      <c r="C241" s="3" t="str">
         <f ca="1">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B241,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
     </row>
-    <row r="242" spans="3:3" x14ac:dyDescent="0.35">
-      <c r="C242" s="1" t="str">
+    <row r="242" spans="3:3">
+      <c r="C242" s="3" t="str">
         <f ca="1">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B242,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
     </row>
-    <row r="243" spans="3:3" x14ac:dyDescent="0.35">
-      <c r="C243" s="1" t="str">
+    <row r="243" spans="3:3">
+      <c r="C243" s="3" t="str">
         <f ca="1">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B243,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
     </row>
-    <row r="244" spans="3:3" x14ac:dyDescent="0.35">
-      <c r="C244" s="1" t="str">
+    <row r="244" spans="3:3">
+      <c r="C244" s="3" t="str">
         <f ca="1">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B244,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
     </row>
-    <row r="245" spans="3:3" x14ac:dyDescent="0.35">
-      <c r="C245" s="1" t="str">
+    <row r="245" spans="3:3">
+      <c r="C245" s="3" t="str">
         <f ca="1">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B245,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
     </row>
-    <row r="246" spans="3:3" x14ac:dyDescent="0.35">
-      <c r="C246" s="1" t="str">
+    <row r="246" spans="3:3">
+      <c r="C246" s="3" t="str">
         <f ca="1">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B246,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
     </row>
-    <row r="247" spans="3:3" x14ac:dyDescent="0.35">
-      <c r="C247" s="1" t="str">
+    <row r="247" spans="3:3">
+      <c r="C247" s="3" t="str">
         <f ca="1">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B247,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
     </row>
-    <row r="248" spans="3:3" x14ac:dyDescent="0.35">
-      <c r="C248" s="1" t="str">
+    <row r="248" spans="3:3">
+      <c r="C248" s="3" t="str">
         <f ca="1">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B248,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
     </row>
-    <row r="249" spans="3:3" x14ac:dyDescent="0.35">
-      <c r="C249" s="1" t="str">
+    <row r="249" spans="3:3">
+      <c r="C249" s="3" t="str">
         <f ca="1">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B249,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
     </row>
-    <row r="250" spans="3:3" x14ac:dyDescent="0.35">
-      <c r="C250" s="1" t="str">
+    <row r="250" spans="3:3">
+      <c r="C250" s="3" t="str">
         <f ca="1">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B250,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
     </row>
-    <row r="251" spans="3:3" x14ac:dyDescent="0.35">
-      <c r="C251" s="1" t="str">
+    <row r="251" spans="3:3">
+      <c r="C251" s="3" t="str">
         <f ca="1">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B251,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
     </row>
-    <row r="252" spans="3:3" x14ac:dyDescent="0.35">
-      <c r="C252" s="1" t="str">
+    <row r="252" spans="3:3">
+      <c r="C252" s="3" t="str">
         <f ca="1">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B252,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
     </row>
-    <row r="253" spans="3:3" x14ac:dyDescent="0.35">
-      <c r="C253" s="1" t="str">
+    <row r="253" spans="3:3">
+      <c r="C253" s="3" t="str">
         <f ca="1">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B253,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
     </row>
-    <row r="254" spans="3:3" x14ac:dyDescent="0.35">
-      <c r="C254" s="1" t="str">
+    <row r="254" spans="3:3">
+      <c r="C254" s="3" t="str">
         <f ca="1">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B254,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
     </row>
-    <row r="255" spans="3:3" x14ac:dyDescent="0.35">
-      <c r="C255" s="1" t="str">
+    <row r="255" spans="3:3">
+      <c r="C255" s="3" t="str">
         <f ca="1">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B255,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
     </row>
-    <row r="256" spans="3:3" x14ac:dyDescent="0.35">
-      <c r="C256" s="1" t="str">
+    <row r="256" spans="3:3">
+      <c r="C256" s="3" t="str">
         <f ca="1">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B256,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
     </row>
-    <row r="257" spans="3:3" x14ac:dyDescent="0.35">
-      <c r="C257" s="1" t="str">
+    <row r="257" spans="3:3">
+      <c r="C257" s="3" t="str">
         <f ca="1">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B257,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
     </row>
-    <row r="258" spans="3:3" x14ac:dyDescent="0.35">
-      <c r="C258" s="1" t="str">
+    <row r="258" spans="3:3">
+      <c r="C258" s="3" t="str">
         <f ca="1">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B258,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
     </row>
-    <row r="259" spans="3:3" x14ac:dyDescent="0.35">
-      <c r="C259" s="1" t="str">
+    <row r="259" spans="3:3">
+      <c r="C259" s="3" t="str">
         <f ca="1">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B259,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
     </row>
-    <row r="260" spans="3:3" x14ac:dyDescent="0.35">
-      <c r="C260" s="1" t="str">
+    <row r="260" spans="3:3">
+      <c r="C260" s="3" t="str">
         <f ca="1">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B260,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
     </row>
-    <row r="261" spans="3:3" x14ac:dyDescent="0.35">
-      <c r="C261" s="1" t="str">
+    <row r="261" spans="3:3">
+      <c r="C261" s="3" t="str">
         <f ca="1">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B261,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
     </row>
-    <row r="262" spans="3:3" x14ac:dyDescent="0.35">
-      <c r="C262" s="1" t="str">
+    <row r="262" spans="3:3">
+      <c r="C262" s="3" t="str">
         <f ca="1">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B262,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
     </row>
-    <row r="263" spans="3:3" x14ac:dyDescent="0.35">
-      <c r="C263" s="1" t="str">
+    <row r="263" spans="3:3">
+      <c r="C263" s="3" t="str">
         <f ca="1">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B263,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
     </row>
-    <row r="264" spans="3:3" x14ac:dyDescent="0.35">
-      <c r="C264" s="1" t="str">
+    <row r="264" spans="3:3">
+      <c r="C264" s="3" t="str">
         <f ca="1">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B264,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
     </row>
-    <row r="265" spans="3:3" x14ac:dyDescent="0.35">
-      <c r="C265" s="1" t="str">
+    <row r="265" spans="3:3">
+      <c r="C265" s="3" t="str">
         <f ca="1">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B265,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
     </row>
-    <row r="266" spans="3:3" x14ac:dyDescent="0.35">
-      <c r="C266" s="1" t="str">
+    <row r="266" spans="3:3">
+      <c r="C266" s="3" t="str">
         <f ca="1">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B266,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
     </row>
-    <row r="267" spans="3:3" x14ac:dyDescent="0.35">
-      <c r="C267" s="1" t="str">
+    <row r="267" spans="3:3">
+      <c r="C267" s="3" t="str">
         <f ca="1">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B267,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
     </row>
-    <row r="268" spans="3:3" x14ac:dyDescent="0.35">
-      <c r="C268" s="1" t="str">
+    <row r="268" spans="3:3">
+      <c r="C268" s="3" t="str">
         <f ca="1">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B268,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
     </row>
-    <row r="269" spans="3:3" x14ac:dyDescent="0.35">
-      <c r="C269" s="1" t="str">
+    <row r="269" spans="3:3">
+      <c r="C269" s="3" t="str">
         <f ca="1">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B269,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
     </row>
-    <row r="270" spans="3:3" x14ac:dyDescent="0.35">
-      <c r="C270" s="1" t="str">
+    <row r="270" spans="3:3">
+      <c r="C270" s="3" t="str">
         <f ca="1">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B270,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
     </row>
-    <row r="271" spans="3:3" x14ac:dyDescent="0.35">
-      <c r="C271" s="1" t="str">
+    <row r="271" spans="3:3">
+      <c r="C271" s="3" t="str">
         <f ca="1">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B271,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
     </row>
-    <row r="272" spans="3:3" x14ac:dyDescent="0.35">
-      <c r="C272" s="1" t="str">
+    <row r="272" spans="3:3">
+      <c r="C272" s="3" t="str">
         <f ca="1">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B272,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
     </row>
-    <row r="273" spans="3:3" x14ac:dyDescent="0.35">
-      <c r="C273" s="1" t="str">
+    <row r="273" spans="3:3">
+      <c r="C273" s="3" t="str">
         <f ca="1">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B273,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
     </row>
-    <row r="274" spans="3:3" x14ac:dyDescent="0.35">
-      <c r="C274" s="1" t="str">
+    <row r="274" spans="3:3">
+      <c r="C274" s="3" t="str">
         <f ca="1">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B274,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
     </row>
-    <row r="275" spans="3:3" x14ac:dyDescent="0.35">
-      <c r="C275" s="1" t="str">
+    <row r="275" spans="3:3">
+      <c r="C275" s="3" t="str">
         <f ca="1">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B275,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
     </row>
-    <row r="276" spans="3:3" x14ac:dyDescent="0.35">
-      <c r="C276" s="1" t="str">
+    <row r="276" spans="3:3">
+      <c r="C276" s="3" t="str">
         <f ca="1">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B276,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
     </row>
-    <row r="277" spans="3:3" x14ac:dyDescent="0.35">
-      <c r="C277" s="1" t="str">
+    <row r="277" spans="3:3">
+      <c r="C277" s="3" t="str">
         <f ca="1">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B277,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
     </row>
-    <row r="278" spans="3:3" x14ac:dyDescent="0.35">
-      <c r="C278" s="1" t="str">
+    <row r="278" spans="3:3">
+      <c r="C278" s="3" t="str">
         <f ca="1">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B278,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
     </row>
-    <row r="279" spans="3:3" x14ac:dyDescent="0.35">
-      <c r="C279" s="1" t="str">
+    <row r="279" spans="3:3">
+      <c r="C279" s="3" t="str">
         <f ca="1">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B279,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
     </row>
-    <row r="280" spans="3:3" x14ac:dyDescent="0.35">
-      <c r="C280" s="1" t="str">
+    <row r="280" spans="3:3">
+      <c r="C280" s="3" t="str">
         <f ca="1">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B280,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
     </row>
-    <row r="281" spans="3:3" x14ac:dyDescent="0.35">
-      <c r="C281" s="1" t="str">
+    <row r="281" spans="3:3">
+      <c r="C281" s="3" t="str">
         <f ca="1">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B281,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
     </row>
-    <row r="282" spans="3:3" x14ac:dyDescent="0.35">
-      <c r="C282" s="1" t="str">
+    <row r="282" spans="3:3">
+      <c r="C282" s="3" t="str">
         <f ca="1">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B282,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
     </row>
-    <row r="283" spans="3:3" x14ac:dyDescent="0.35">
-      <c r="C283" s="1" t="str">
+    <row r="283" spans="3:3">
+      <c r="C283" s="3" t="str">
         <f ca="1">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B283,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
     </row>
-    <row r="284" spans="3:3" x14ac:dyDescent="0.35">
-      <c r="C284" s="1" t="str">
+    <row r="284" spans="3:3">
+      <c r="C284" s="3" t="str">
         <f ca="1">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B284,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
     </row>
-    <row r="285" spans="3:3" x14ac:dyDescent="0.35">
-      <c r="C285" s="1" t="str">
+    <row r="285" spans="3:3">
+      <c r="C285" s="3" t="str">
         <f ca="1">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B285,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
     </row>
-    <row r="286" spans="3:3" x14ac:dyDescent="0.35">
-      <c r="C286" s="1" t="str">
+    <row r="286" spans="3:3">
+      <c r="C286" s="3" t="str">
         <f ca="1">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B286,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
     </row>
-    <row r="287" spans="3:3" x14ac:dyDescent="0.35">
-      <c r="C287" s="1" t="str">
+    <row r="287" spans="3:3">
+      <c r="C287" s="3" t="str">
         <f ca="1">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B287,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
     </row>
-    <row r="288" spans="3:3" x14ac:dyDescent="0.35">
-      <c r="C288" s="1" t="str">
+    <row r="288" spans="3:3">
+      <c r="C288" s="3" t="str">
         <f ca="1">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B288,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
     </row>
-    <row r="289" spans="3:3" x14ac:dyDescent="0.35">
-      <c r="C289" s="1" t="str">
+    <row r="289" spans="3:3">
+      <c r="C289" s="3" t="str">
         <f ca="1">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B289,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
     </row>
-    <row r="290" spans="3:3" x14ac:dyDescent="0.35">
-      <c r="C290" s="1" t="str">
+    <row r="290" spans="3:3">
+      <c r="C290" s="3" t="str">
         <f ca="1">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B290,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
     </row>
-    <row r="291" spans="3:3" x14ac:dyDescent="0.35">
-      <c r="C291" s="1" t="str">
+    <row r="291" spans="3:3">
+      <c r="C291" s="3" t="str">
         <f ca="1">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B291,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
     </row>
-    <row r="292" spans="3:3" x14ac:dyDescent="0.35">
-      <c r="C292" s="1" t="str">
+    <row r="292" spans="3:3">
+      <c r="C292" s="3" t="str">
         <f ca="1">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B292,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
     </row>
-    <row r="293" spans="3:3" x14ac:dyDescent="0.35">
-      <c r="C293" s="1" t="str">
+    <row r="293" spans="3:3">
+      <c r="C293" s="3" t="str">
         <f ca="1">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B293,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
     </row>
-    <row r="294" spans="3:3" x14ac:dyDescent="0.35">
-      <c r="C294" s="1" t="str">
+    <row r="294" spans="3:3">
+      <c r="C294" s="3" t="str">
         <f ca="1">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B294,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
     </row>
-    <row r="295" spans="3:3" x14ac:dyDescent="0.35">
-      <c r="C295" s="1" t="str">
+    <row r="295" spans="3:3">
+      <c r="C295" s="3" t="str">
         <f ca="1">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B295,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
     </row>
-    <row r="296" spans="3:3" x14ac:dyDescent="0.35">
-      <c r="C296" s="1" t="str">
+    <row r="296" spans="3:3">
+      <c r="C296" s="3" t="str">
         <f ca="1">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B296,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
     </row>
-    <row r="297" spans="3:3" x14ac:dyDescent="0.35">
-      <c r="C297" s="1" t="str">
+    <row r="297" spans="3:3">
+      <c r="C297" s="3" t="str">
         <f ca="1">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B297,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
     </row>
-    <row r="298" spans="3:3" x14ac:dyDescent="0.35">
-      <c r="C298" s="1" t="str">
+    <row r="298" spans="3:3">
+      <c r="C298" s="3" t="str">
         <f ca="1">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B298,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
     </row>
-    <row r="299" spans="3:3" x14ac:dyDescent="0.35">
-      <c r="C299" s="1" t="str">
+    <row r="299" spans="3:3">
+      <c r="C299" s="3" t="str">
         <f ca="1">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B299,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
     </row>
-    <row r="300" spans="3:3" x14ac:dyDescent="0.35">
-      <c r="C300" s="1" t="str">
+    <row r="300" spans="3:3">
+      <c r="C300" s="3" t="str">
         <f ca="1">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B300,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
     </row>
-    <row r="301" spans="3:3" x14ac:dyDescent="0.35">
-      <c r="C301" s="1" t="str">
+    <row r="301" spans="3:3">
+      <c r="C301" s="3" t="str">
         <f ca="1">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B301,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="4" type="noConversion"/>
-  <pageMargins left="0.78750000000000009" right="0.78750000000000009" top="1.0249999999999997" bottom="1.0249999999999997" header="0.78750000000000009" footer="0.78750000000000009"/>
-  <pageSetup paperSize="9" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.025" bottom="1.025" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;"Arial,标准"&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Arial,标准"页 &amp;P</oddFooter>
   </headerFooter>
-  <cellWatches>
-    <cellWatch r="C6"/>
-    <cellWatch r="C8"/>
-  </cellWatches>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:B1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" outlineLevelCol="1"/>
   <cols>
     <col min="1" max="1" width="23.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" s="8" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="B1" s="8">
+    <row r="1" s="1" customFormat="1" spans="1:2">
+      <c r="A1" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B1" s="1">
         <v>1000</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="4" type="noConversion"/>
-  <pageMargins left="0.70078740157480324" right="0.70078740157480324" top="0.75196850393700787" bottom="0.75196850393700787" header="0.3" footer="0.3"/>
+  <pageMargins left="0.700787401574803" right="0.700787401574803" top="0.751968503937008" bottom="0.751968503937008" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/dragon-verse/Excels/AnimalEcology_动物生态表.xlsx
+++ b/dragon-verse/Excels/AnimalEcology_动物生态表.xlsx
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="55">
   <si>
     <t>int</t>
   </si>
@@ -135,10 +135,13 @@
     <t>3|2|5</t>
   </si>
   <si>
+    <t>4F89DF024353D4AAA93987A8FF8B9FBD</t>
+  </si>
+  <si>
     <t>TestAnimalName0002</t>
   </si>
   <si>
-    <t>-2461|-11936|480||-2673|-11203|440||-1908|-12482|530</t>
+    <t>30</t>
   </si>
   <si>
     <t>2|1|3</t>
@@ -147,15 +150,21 @@
     <t>2|3|1</t>
   </si>
   <si>
+    <t>FAE2BD3F428A66CF8E0A88802492AD8A</t>
+  </si>
+  <si>
     <t>TestAnimalName0003</t>
   </si>
   <si>
-    <t>-2673|-11203|440||-2835|-10598|440||-3227|-10666|3400</t>
+    <t>31</t>
   </si>
   <si>
     <t>1|2|3</t>
   </si>
   <si>
+    <t>B434BF4A4218D8FE2B4536BEFA893AA9</t>
+  </si>
+  <si>
     <t>TestAnimalName0004</t>
   </si>
   <si>
@@ -163,6 +172,9 @@
   </si>
   <si>
     <t>3|21</t>
+  </si>
+  <si>
+    <t>4C46C84046B0E75EF1A2CC91B0298D40</t>
   </si>
   <si>
     <t>-3090|-6200|990||-3533|-5161|1131||-4460|-3301|1337||-4038|-5173|1202</t>
@@ -199,7 +211,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="24">
+  <fonts count="23">
     <font>
       <sz val="10"/>
       <color theme="1"/>
@@ -215,12 +227,6 @@
     </font>
     <font>
       <sz val="10"/>
-      <name val="微软雅黑"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color theme="1"/>
       <name val="微软雅黑"/>
       <charset val="134"/>
     </font>
@@ -679,148 +685,148 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -854,7 +860,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1121,7 +1127,7 @@
     </dxf>
   </dxfs>
   <tableStyles count="2" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="TableStylePreset3_Accent1 1" pivot="0" count="7" xr9:uid="{C1ED1E7F-1328-4F45-8B04-242A94584F3A}">
+    <tableStyle name="TableStylePreset3_Accent1 1" pivot="0" count="7" xr9:uid="{02F1B5A0-7F7B-4998-9C58-EB10EC2C5EDB}">
       <tableStyleElement type="wholeTable" dxfId="6"/>
       <tableStyleElement type="headerRow" dxfId="5"/>
       <tableStyleElement type="totalRow" dxfId="4"/>
@@ -1130,7 +1136,7 @@
       <tableStyleElement type="firstRowStripe" dxfId="1"/>
       <tableStyleElement type="firstColumnStripe" dxfId="0"/>
     </tableStyle>
-    <tableStyle name="PivotStylePreset2_Accent1 1" table="0" count="10" xr9:uid="{8ABCA936-4C85-4150-B856-2DD40DEECE12}">
+    <tableStyle name="PivotStylePreset2_Accent1 1" table="0" count="10" xr9:uid="{5741DD11-347B-4095-91D9-DD1BA9A4F3B5}">
       <tableStyleElement type="headerRow" dxfId="16"/>
       <tableStyleElement type="totalRow" dxfId="15"/>
       <tableStyleElement type="firstRowStripe" dxfId="14"/>
@@ -1388,7 +1394,7 @@
   <dimension ref="A1:M301"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="16.5"/>
@@ -1572,8 +1578,8 @@
       <c r="L5" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="M5" s="3">
-        <v>159590</v>
+      <c r="M5" s="3" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="6" s="3" customFormat="1" spans="1:13">
@@ -1581,14 +1587,14 @@
         <v>2</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C6" s="8" t="str">
         <f ca="1">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B6,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
       <c r="D6" s="4" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E6" s="2">
         <v>0</v>
@@ -1609,13 +1615,13 @@
         <v>1</v>
       </c>
       <c r="K6" s="11" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="L6" s="11" t="s">
-        <v>36</v>
-      </c>
-      <c r="M6" s="3">
-        <v>159750</v>
+        <v>37</v>
+      </c>
+      <c r="M6" s="3" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="7" s="3" customFormat="1" spans="1:13">
@@ -1623,14 +1629,14 @@
         <v>3</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C7" s="8" t="str">
         <f ca="1">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B7,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
       <c r="D7" s="4" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="E7" s="2">
         <v>0</v>
@@ -1651,13 +1657,13 @@
         <v>1</v>
       </c>
       <c r="K7" s="11" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="L7" s="11" t="s">
-        <v>39</v>
-      </c>
-      <c r="M7" s="3">
-        <v>159842</v>
+        <v>41</v>
+      </c>
+      <c r="M7" s="3" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="8" s="3" customFormat="1" spans="1:13">
@@ -1665,14 +1671,14 @@
         <v>4</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="C8" s="8" t="str">
         <f ca="1">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B8,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
       <c r="D8" s="4" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="E8" s="2">
         <v>0</v>
@@ -1693,13 +1699,13 @@
         <v>1</v>
       </c>
       <c r="K8" s="11" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="L8" s="11" t="s">
-        <v>39</v>
-      </c>
-      <c r="M8" s="3">
-        <v>160045</v>
+        <v>41</v>
+      </c>
+      <c r="M8" s="3" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="9" s="3" customFormat="1" spans="1:13">
@@ -1714,7 +1720,7 @@
         <v/>
       </c>
       <c r="D9" s="4" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="E9" s="2">
         <v>60000</v>
@@ -1740,8 +1746,8 @@
       <c r="L9" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="M9" s="3">
-        <v>159590</v>
+      <c r="M9" s="3" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="10" s="3" customFormat="1" spans="1:13">
@@ -1749,14 +1755,14 @@
         <v>6</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C10" s="8" t="str">
         <f ca="1">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B10,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
       <c r="D10" s="4" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="E10" s="2">
         <v>60000</v>
@@ -1777,13 +1783,13 @@
         <v>1</v>
       </c>
       <c r="K10" s="11" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="L10" s="11" t="s">
-        <v>36</v>
-      </c>
-      <c r="M10" s="3">
-        <v>159750</v>
+        <v>37</v>
+      </c>
+      <c r="M10" s="3" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="11" s="3" customFormat="1" spans="1:13">
@@ -1791,14 +1797,14 @@
         <v>7</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C11" s="8" t="str">
         <f ca="1">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B11,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
       <c r="D11" s="4" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="E11" s="2">
         <v>60000</v>
@@ -1819,13 +1825,13 @@
         <v>1</v>
       </c>
       <c r="K11" s="11" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="L11" s="11" t="s">
-        <v>39</v>
-      </c>
-      <c r="M11" s="3">
-        <v>159842</v>
+        <v>41</v>
+      </c>
+      <c r="M11" s="3" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="12" s="3" customFormat="1" spans="1:13">
@@ -1833,14 +1839,14 @@
         <v>8</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="C12" s="8" t="str">
         <f ca="1">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B12,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
       <c r="D12" s="4" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="E12" s="2">
         <v>60000</v>
@@ -1861,13 +1867,13 @@
         <v>1</v>
       </c>
       <c r="K12" s="11" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="L12" s="11" t="s">
-        <v>39</v>
-      </c>
-      <c r="M12" s="3">
-        <v>160045</v>
+        <v>41</v>
+      </c>
+      <c r="M12" s="3" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="13" s="3" customFormat="1" spans="1:13">
@@ -1882,7 +1888,7 @@
         <v/>
       </c>
       <c r="D13" s="4" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="E13" s="2">
         <v>120000</v>
@@ -1908,8 +1914,8 @@
       <c r="L13" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="M13" s="3">
-        <v>159590</v>
+      <c r="M13" s="3" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="14" s="3" customFormat="1" spans="1:13">
@@ -1917,14 +1923,14 @@
         <v>10</v>
       </c>
       <c r="B14" s="8" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C14" s="8" t="str">
         <f ca="1">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B14,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
       <c r="D14" s="4" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="E14" s="2">
         <v>120000</v>
@@ -1945,13 +1951,13 @@
         <v>1</v>
       </c>
       <c r="K14" s="11" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="L14" s="11" t="s">
-        <v>36</v>
-      </c>
-      <c r="M14" s="3">
-        <v>159750</v>
+        <v>37</v>
+      </c>
+      <c r="M14" s="3" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="15" s="3" customFormat="1" spans="1:13">
@@ -1959,14 +1965,14 @@
         <v>11</v>
       </c>
       <c r="B15" s="8" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C15" s="8" t="str">
         <f ca="1">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B15,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
       <c r="D15" s="4" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="E15" s="2">
         <v>120000</v>
@@ -1987,13 +1993,13 @@
         <v>1</v>
       </c>
       <c r="K15" s="11" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="L15" s="11" t="s">
-        <v>39</v>
-      </c>
-      <c r="M15" s="3">
-        <v>159842</v>
+        <v>41</v>
+      </c>
+      <c r="M15" s="3" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="16" s="3" customFormat="1" spans="2:7">
@@ -3841,7 +3847,7 @@
   <sheetData>
     <row r="1" s="1" customFormat="1" spans="1:2">
       <c r="A1" s="1" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="B1" s="1">
         <v>1000</v>

--- a/dragon-verse/Excels/AnimalEcology_动物生态表.xlsx
+++ b/dragon-verse/Excels/AnimalEcology_动物生态表.xlsx
@@ -168,7 +168,7 @@
     <t>TestAnimalName0004</t>
   </si>
   <si>
-    <t>-3797|-9219|690||-3811|-8544|908||-1747|-7508|844||-2399|-6110|882</t>
+    <t>32</t>
   </si>
   <si>
     <t>3|21</t>
@@ -1127,7 +1127,7 @@
     </dxf>
   </dxfs>
   <tableStyles count="2" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="TableStylePreset3_Accent1 1" pivot="0" count="7" xr9:uid="{02F1B5A0-7F7B-4998-9C58-EB10EC2C5EDB}">
+    <tableStyle name="TableStylePreset3_Accent1 1" pivot="0" count="7" xr9:uid="{E592AEDA-A341-4765-8277-CC8DB018BBD4}">
       <tableStyleElement type="wholeTable" dxfId="6"/>
       <tableStyleElement type="headerRow" dxfId="5"/>
       <tableStyleElement type="totalRow" dxfId="4"/>
@@ -1136,7 +1136,7 @@
       <tableStyleElement type="firstRowStripe" dxfId="1"/>
       <tableStyleElement type="firstColumnStripe" dxfId="0"/>
     </tableStyle>
-    <tableStyle name="PivotStylePreset2_Accent1 1" table="0" count="10" xr9:uid="{5741DD11-347B-4095-91D9-DD1BA9A4F3B5}">
+    <tableStyle name="PivotStylePreset2_Accent1 1" table="0" count="10" xr9:uid="{D411F081-E5C7-464D-A04D-36BAD90D6E57}">
       <tableStyleElement type="headerRow" dxfId="16"/>
       <tableStyleElement type="totalRow" dxfId="15"/>
       <tableStyleElement type="firstRowStripe" dxfId="14"/>
@@ -1394,7 +1394,7 @@
   <dimension ref="A1:M301"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="16.5"/>

--- a/dragon-verse/Excels/AnimalEcology_动物生态表.xlsx
+++ b/dragon-verse/Excels/AnimalEcology_动物生态表.xlsx
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="51">
   <si>
     <t>int</t>
   </si>
@@ -135,9 +135,6 @@
     <t>3|2|5</t>
   </si>
   <si>
-    <t>4F89DF024353D4AAA93987A8FF8B9FBD</t>
-  </si>
-  <si>
     <t>TestAnimalName0002</t>
   </si>
   <si>
@@ -150,9 +147,6 @@
     <t>2|3|1</t>
   </si>
   <si>
-    <t>FAE2BD3F428A66CF8E0A88802492AD8A</t>
-  </si>
-  <si>
     <t>TestAnimalName0003</t>
   </si>
   <si>
@@ -162,9 +156,6 @@
     <t>1|2|3</t>
   </si>
   <si>
-    <t>B434BF4A4218D8FE2B4536BEFA893AA9</t>
-  </si>
-  <si>
     <t>TestAnimalName0004</t>
   </si>
   <si>
@@ -172,9 +163,6 @@
   </si>
   <si>
     <t>3|21</t>
-  </si>
-  <si>
-    <t>4C46C84046B0E75EF1A2CC91B0298D40</t>
   </si>
   <si>
     <t>-3090|-6200|990||-3533|-5161|1131||-4460|-3301|1337||-4038|-5173|1202</t>
@@ -1127,7 +1115,7 @@
     </dxf>
   </dxfs>
   <tableStyles count="2" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="TableStylePreset3_Accent1 1" pivot="0" count="7" xr9:uid="{E592AEDA-A341-4765-8277-CC8DB018BBD4}">
+    <tableStyle name="TableStylePreset3_Accent1 1" pivot="0" count="7" xr9:uid="{F133A59C-9EC5-4852-8DFC-6C60BF004223}">
       <tableStyleElement type="wholeTable" dxfId="6"/>
       <tableStyleElement type="headerRow" dxfId="5"/>
       <tableStyleElement type="totalRow" dxfId="4"/>
@@ -1136,7 +1124,7 @@
       <tableStyleElement type="firstRowStripe" dxfId="1"/>
       <tableStyleElement type="firstColumnStripe" dxfId="0"/>
     </tableStyle>
-    <tableStyle name="PivotStylePreset2_Accent1 1" table="0" count="10" xr9:uid="{D411F081-E5C7-464D-A04D-36BAD90D6E57}">
+    <tableStyle name="PivotStylePreset2_Accent1 1" table="0" count="10" xr9:uid="{704AE7F2-5DB9-4ED7-BB11-0A9FF04E69F2}">
       <tableStyleElement type="headerRow" dxfId="16"/>
       <tableStyleElement type="totalRow" dxfId="15"/>
       <tableStyleElement type="firstRowStripe" dxfId="14"/>
@@ -1393,8 +1381,8 @@
   <sheetPr/>
   <dimension ref="A1:M301"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="L18" sqref="L18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="16.5"/>
@@ -1578,8 +1566,8 @@
       <c r="L5" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="M5" s="3" t="s">
-        <v>33</v>
+      <c r="M5" s="3">
+        <v>159590</v>
       </c>
     </row>
     <row r="6" s="3" customFormat="1" spans="1:13">
@@ -1587,14 +1575,14 @@
         <v>2</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C6" s="8" t="str">
         <f ca="1">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B6,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
       <c r="D6" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E6" s="2">
         <v>0</v>
@@ -1615,13 +1603,13 @@
         <v>1</v>
       </c>
       <c r="K6" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="L6" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="L6" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="M6" s="3" t="s">
-        <v>38</v>
+      <c r="M6" s="3">
+        <v>159750</v>
       </c>
     </row>
     <row r="7" s="3" customFormat="1" spans="1:13">
@@ -1629,14 +1617,14 @@
         <v>3</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C7" s="8" t="str">
         <f ca="1">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B7,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
       <c r="D7" s="4" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="E7" s="2">
         <v>0</v>
@@ -1657,13 +1645,13 @@
         <v>1</v>
       </c>
       <c r="K7" s="11" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="L7" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="M7" s="3" t="s">
-        <v>42</v>
+        <v>39</v>
+      </c>
+      <c r="M7" s="3">
+        <v>159842</v>
       </c>
     </row>
     <row r="8" s="3" customFormat="1" spans="1:13">
@@ -1671,14 +1659,14 @@
         <v>4</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C8" s="8" t="str">
         <f ca="1">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B8,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
       <c r="D8" s="4" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="E8" s="2">
         <v>0</v>
@@ -1699,13 +1687,13 @@
         <v>1</v>
       </c>
       <c r="K8" s="11" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="L8" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="M8" s="3" t="s">
-        <v>46</v>
+        <v>39</v>
+      </c>
+      <c r="M8" s="3">
+        <v>160045</v>
       </c>
     </row>
     <row r="9" s="3" customFormat="1" spans="1:13">
@@ -1720,7 +1708,7 @@
         <v/>
       </c>
       <c r="D9" s="4" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="E9" s="2">
         <v>60000</v>
@@ -1746,8 +1734,8 @@
       <c r="L9" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="M9" s="3" t="s">
-        <v>33</v>
+      <c r="M9" s="3">
+        <v>159590</v>
       </c>
     </row>
     <row r="10" s="3" customFormat="1" spans="1:13">
@@ -1755,14 +1743,14 @@
         <v>6</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C10" s="8" t="str">
         <f ca="1">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B10,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
       <c r="D10" s="4" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="E10" s="2">
         <v>60000</v>
@@ -1783,13 +1771,13 @@
         <v>1</v>
       </c>
       <c r="K10" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="L10" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="L10" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="M10" s="3" t="s">
-        <v>38</v>
+      <c r="M10" s="3">
+        <v>159750</v>
       </c>
     </row>
     <row r="11" s="3" customFormat="1" spans="1:13">
@@ -1797,14 +1785,14 @@
         <v>7</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C11" s="8" t="str">
         <f ca="1">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B11,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
       <c r="D11" s="4" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="E11" s="2">
         <v>60000</v>
@@ -1825,13 +1813,13 @@
         <v>1</v>
       </c>
       <c r="K11" s="11" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="L11" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="M11" s="3" t="s">
-        <v>42</v>
+        <v>39</v>
+      </c>
+      <c r="M11" s="3">
+        <v>159842</v>
       </c>
     </row>
     <row r="12" s="3" customFormat="1" spans="1:13">
@@ -1839,14 +1827,14 @@
         <v>8</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C12" s="8" t="str">
         <f ca="1">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B12,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
       <c r="D12" s="4" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="E12" s="2">
         <v>60000</v>
@@ -1867,13 +1855,13 @@
         <v>1</v>
       </c>
       <c r="K12" s="11" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="L12" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="M12" s="3" t="s">
-        <v>46</v>
+        <v>39</v>
+      </c>
+      <c r="M12" s="3">
+        <v>160045</v>
       </c>
     </row>
     <row r="13" s="3" customFormat="1" spans="1:13">
@@ -1888,7 +1876,7 @@
         <v/>
       </c>
       <c r="D13" s="4" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="E13" s="2">
         <v>120000</v>
@@ -1914,8 +1902,8 @@
       <c r="L13" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="M13" s="3" t="s">
-        <v>33</v>
+      <c r="M13" s="3">
+        <v>159590</v>
       </c>
     </row>
     <row r="14" s="3" customFormat="1" spans="1:13">
@@ -1923,14 +1911,14 @@
         <v>10</v>
       </c>
       <c r="B14" s="8" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C14" s="8" t="str">
         <f ca="1">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B14,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
       <c r="D14" s="4" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="E14" s="2">
         <v>120000</v>
@@ -1951,13 +1939,13 @@
         <v>1</v>
       </c>
       <c r="K14" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="L14" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="L14" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="M14" s="3" t="s">
-        <v>38</v>
+      <c r="M14" s="3">
+        <v>159750</v>
       </c>
     </row>
     <row r="15" s="3" customFormat="1" spans="1:13">
@@ -1965,14 +1953,14 @@
         <v>11</v>
       </c>
       <c r="B15" s="8" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C15" s="8" t="str">
         <f ca="1">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B15,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
       <c r="D15" s="4" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="E15" s="2">
         <v>120000</v>
@@ -1993,13 +1981,13 @@
         <v>1</v>
       </c>
       <c r="K15" s="11" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="L15" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="M15" s="3" t="s">
-        <v>42</v>
+        <v>39</v>
+      </c>
+      <c r="M15" s="3">
+        <v>159842</v>
       </c>
     </row>
     <row r="16" s="3" customFormat="1" spans="2:7">
@@ -3847,7 +3835,7 @@
   <sheetData>
     <row r="1" s="1" customFormat="1" spans="1:2">
       <c r="A1" s="1" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="B1" s="1">
         <v>1000</v>

--- a/dragon-verse/Excels/AnimalEcology_动物生态表.xlsx
+++ b/dragon-verse/Excels/AnimalEcology_动物生态表.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="55">
   <si>
     <t>int</t>
   </si>
@@ -133,43 +133,46 @@
     <t>30</t>
   </si>
   <si>
+    <t>200|400|600</t>
+  </si>
+  <si>
+    <t>2|3|1</t>
+  </si>
+  <si>
+    <t>181301|181390|235648</t>
+  </si>
+  <si>
+    <t>TestAnimalName0003</t>
+  </si>
+  <si>
+    <t>31</t>
+  </si>
+  <si>
+    <t>1|2|3</t>
+  </si>
+  <si>
+    <t>TestAnimalName0004</t>
+  </si>
+  <si>
+    <t>32</t>
+  </si>
+  <si>
+    <t>-3090|-6200|990||-3533|-5161|1131||-4460|-3301|1337||-4038|-5173|1202</t>
+  </si>
+  <si>
+    <t>-858|-7036|714||-2389|-8190|940||-3963|-7967|1011</t>
+  </si>
+  <si>
     <t>2|1|3</t>
   </si>
   <si>
-    <t>2|3|1</t>
-  </si>
-  <si>
-    <t>181301|181390|235648</t>
-  </si>
-  <si>
-    <t>TestAnimalName0003</t>
-  </si>
-  <si>
-    <t>31</t>
-  </si>
-  <si>
-    <t>1|2|3</t>
-  </si>
-  <si>
-    <t>TestAnimalName0004</t>
-  </si>
-  <si>
-    <t>32</t>
+    <t>4092|-1276|647||4951|-226|962||-3373|-9083|731</t>
+  </si>
+  <si>
+    <t>4551|5857|1636||5564|4225|1684||5577|735|1317</t>
   </si>
   <si>
     <t>3|21</t>
-  </si>
-  <si>
-    <t>-3090|-6200|990||-3533|-5161|1131||-4460|-3301|1337||-4038|-5173|1202</t>
-  </si>
-  <si>
-    <t>-858|-7036|714||-2389|-8190|940||-3963|-7967|1011</t>
-  </si>
-  <si>
-    <t>4092|-1276|647||4951|-226|962||-3373|-9083|731</t>
-  </si>
-  <si>
-    <t>4551|5857|1636||5564|4225|1684||5577|735|1317</t>
   </si>
   <si>
     <t>1731|7838|1564||-66|7976|1553||6303|3548|1691</t>
@@ -784,7 +787,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -801,14 +804,17 @@
     <xf fontId="0" fillId="0" borderId="0" numFmtId="49" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf fontId="21" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf fontId="21" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -922,7 +928,7 @@
           <color theme="4"/>
         </top>
         <bottom style="none"/>
-        <diagonal/>
+        <diagonal style="none"/>
       </border>
     </dxf>
     <dxf>
@@ -942,7 +948,7 @@
         <bottom style="thin">
           <color theme="4"/>
         </bottom>
-        <diagonal/>
+        <diagonal style="none"/>
         <horizontal style="thin">
           <color theme="4" tint="0.399914548173467"/>
         </horizontal>
@@ -975,7 +981,7 @@
         <bottom style="thin">
           <color theme="4" tint="0.399914548173467"/>
         </bottom>
-        <diagonal/>
+        <diagonal style="none"/>
       </border>
     </dxf>
     <dxf>
@@ -992,7 +998,7 @@
         <bottom style="thin">
           <color theme="4"/>
         </bottom>
-        <diagonal/>
+        <diagonal style="none"/>
       </border>
     </dxf>
     <dxf>
@@ -1013,7 +1019,7 @@
         <bottom style="thin">
           <color theme="4" tint="0.399914548173467"/>
         </bottom>
-        <diagonal/>
+        <diagonal style="none"/>
       </border>
     </dxf>
     <dxf>
@@ -1033,7 +1039,7 @@
         <bottom style="thin">
           <color theme="4" tint="0.399914548173467"/>
         </bottom>
-        <diagonal/>
+        <diagonal style="none"/>
       </border>
     </dxf>
     <dxf>
@@ -1050,7 +1056,7 @@
         <bottom style="thin">
           <color theme="4" tint="0.399914548173467"/>
         </bottom>
-        <diagonal/>
+        <diagonal style="none"/>
       </border>
     </dxf>
     <dxf>
@@ -1084,7 +1090,7 @@
         <bottom style="thin">
           <color theme="4" tint="0.399914548173467"/>
         </bottom>
-        <diagonal/>
+        <diagonal style="none"/>
       </border>
     </dxf>
   </dxfs>
@@ -1127,12 +1133,12 @@
     </sheetNames>
     <sheetDataSet>
       <sheetData sheetId="0">
-        <row r="2">
+        <row r="3">
           <cell r="B1" t="str">
             <v>string</v>
           </cell>
         </row>
-        <row r="2">
+        <row r="3">
           <cell r="D1" t="str">
             <v>string</v>
           </cell>
@@ -1640,7 +1646,7 @@
     <pageSetUpPr autoPageBreaks="1" fitToPage="0"/>
   </sheetPr>
   <sheetViews>
-    <sheetView topLeftCell="D1" zoomScale="120" workbookViewId="0">
+    <sheetView topLeftCell="C1" zoomScale="120" workbookViewId="0">
       <selection activeCell="L18" activeCellId="0" sqref="L18"/>
     </sheetView>
   </sheetViews>
@@ -1694,7 +1700,7 @@
       <c r="L1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="M1" s="6" t="s">
+      <c r="M1" s="3" t="s">
         <v>3</v>
       </c>
     </row>
@@ -1732,10 +1738,10 @@
       <c r="K2" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="L2" s="6" t="s">
+      <c r="L2" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="M2" s="6" t="s">
+      <c r="M2" s="3" t="s">
         <v>16</v>
       </c>
     </row>
@@ -1746,7 +1752,7 @@
       <c r="B3" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="C3" s="7" t="s">
+      <c r="C3" s="6" t="s">
         <v>19</v>
       </c>
       <c r="D3" s="5" t="s">
@@ -1770,18 +1776,18 @@
       <c r="J3" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="K3" s="6" t="s">
+      <c r="K3" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="L3" s="6" t="s">
+      <c r="L3" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="M3" s="6" t="s">
+      <c r="M3" s="3" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="4" s="1" customFormat="1">
-      <c r="B4" s="1" t="s">
+      <c r="B4" s="7" t="s">
         <v>30</v>
       </c>
       <c r="E4" s="3"/>
@@ -1814,10 +1820,10 @@
         <v>60000</v>
       </c>
       <c r="I5" s="3">
-        <v>500</v>
+        <v>2000</v>
       </c>
       <c r="J5" s="3">
-        <v>1</v>
+        <v>200</v>
       </c>
       <c r="K5" s="3" t="s">
         <v>33</v>
@@ -1856,9 +1862,9 @@
         <v>60000</v>
       </c>
       <c r="I6" s="3">
-        <v>500</v>
-      </c>
-      <c r="J6" s="3" t="s">
+        <v>2000</v>
+      </c>
+      <c r="J6" s="9" t="s">
         <v>37</v>
       </c>
       <c r="K6" s="3" t="s">
@@ -1898,10 +1904,10 @@
         <v>60000</v>
       </c>
       <c r="I7" s="3">
-        <v>500</v>
+        <v>2000</v>
       </c>
       <c r="J7" s="3" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="K7" s="3" t="s">
         <v>42</v>
@@ -1937,10 +1943,10 @@
         <v>60000</v>
       </c>
       <c r="I8" s="3">
-        <v>500</v>
+        <v>2000</v>
       </c>
       <c r="J8" s="3" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="K8" s="3" t="s">
         <v>42</v>
@@ -1961,7 +1967,7 @@
         <v/>
       </c>
       <c r="D9" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E9" s="3">
         <v>60000</v>
@@ -1976,10 +1982,10 @@
         <v>60000</v>
       </c>
       <c r="I9" s="3">
-        <v>500</v>
+        <v>2000</v>
       </c>
       <c r="J9" s="3">
-        <v>1</v>
+        <v>200</v>
       </c>
       <c r="K9" s="3" t="s">
         <v>33</v>
@@ -2000,7 +2006,7 @@
         <v/>
       </c>
       <c r="D10" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E10" s="3">
         <v>60000</v>
@@ -2018,7 +2024,7 @@
         <v>500</v>
       </c>
       <c r="J10" s="3" t="s">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="K10" s="3" t="s">
         <v>38</v>
@@ -2096,7 +2102,7 @@
         <v>500</v>
       </c>
       <c r="J12" s="3" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="K12" s="3" t="s">
         <v>42</v>
@@ -2117,7 +2123,7 @@
         <v/>
       </c>
       <c r="D13" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E13" s="3">
         <v>120000</v>
@@ -2156,7 +2162,7 @@
         <v/>
       </c>
       <c r="D14" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E14" s="3">
         <v>120000</v>
@@ -2174,7 +2180,7 @@
         <v>500</v>
       </c>
       <c r="J14" s="3" t="s">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="K14" s="3" t="s">
         <v>38</v>
@@ -2195,7 +2201,7 @@
         <v/>
       </c>
       <c r="D15" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E15" s="3">
         <v>120000</v>
@@ -2203,7 +2209,7 @@
       <c r="F15" s="3">
         <v>60000</v>
       </c>
-      <c r="G15" s="9">
+      <c r="G15" s="10">
         <v>2</v>
       </c>
       <c r="H15" s="3">
@@ -2229,7 +2235,7 @@
         <v/>
       </c>
       <c r="D16" s="2"/>
-      <c r="E16" s="9"/>
+      <c r="E16" s="10"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
     </row>
@@ -2240,36 +2246,36 @@
         <v/>
       </c>
       <c r="D17" s="2"/>
-      <c r="E17" s="9"/>
+      <c r="E17" s="10"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
     </row>
     <row r="18" s="1" customFormat="1">
-      <c r="A18" s="10"/>
+      <c r="A18" s="11"/>
       <c r="B18" s="8"/>
       <c r="C18" s="8" t="str">
         <f ca="1">IFERROR(INDEX(OFFSET('[1]Sheet1'!$D$1,0,0,MaxCount),MATCH($B18,OFFSET('[1]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
       <c r="D18" s="2"/>
-      <c r="E18" s="9"/>
+      <c r="E18" s="10"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
     </row>
     <row r="19" s="1" customFormat="1">
-      <c r="A19" s="10"/>
+      <c r="A19" s="11"/>
       <c r="B19" s="8"/>
       <c r="C19" s="8" t="str">
         <f ca="1">IFERROR(INDEX(OFFSET('[1]Sheet1'!$D$1,0,0,MaxCount),MATCH($B19,OFFSET('[1]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
       <c r="D19" s="2"/>
-      <c r="E19" s="9"/>
+      <c r="E19" s="10"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
     </row>
     <row r="20" s="1" customFormat="1">
-      <c r="A20" s="10"/>
+      <c r="A20" s="11"/>
       <c r="B20" s="8"/>
       <c r="C20" s="8" t="str">
         <f ca="1">IFERROR(INDEX(OFFSET('[1]Sheet1'!$D$1,0,0,MaxCount),MATCH($B20,OFFSET('[1]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
@@ -2279,7 +2285,7 @@
       <c r="E20" s="3"/>
     </row>
     <row r="21" s="1" customFormat="1">
-      <c r="A21" s="10"/>
+      <c r="A21" s="11"/>
       <c r="B21" s="8"/>
       <c r="C21" s="8" t="str">
         <f ca="1">IFERROR(INDEX(OFFSET('[1]Sheet1'!$D$1,0,0,MaxCount),MATCH($B21,OFFSET('[1]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
@@ -2289,7 +2295,7 @@
       <c r="E21" s="3"/>
     </row>
     <row r="22" s="1" customFormat="1">
-      <c r="A22" s="10"/>
+      <c r="A22" s="11"/>
       <c r="B22" s="8"/>
       <c r="C22" s="8" t="str">
         <f ca="1">IFERROR(INDEX(OFFSET('[1]Sheet1'!$D$1,0,0,MaxCount),MATCH($B22,OFFSET('[1]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
@@ -2299,7 +2305,7 @@
       <c r="E22" s="3"/>
     </row>
     <row r="23" s="1" customFormat="1">
-      <c r="A23" s="10"/>
+      <c r="A23" s="11"/>
       <c r="B23" s="8"/>
       <c r="C23" s="8" t="str">
         <f ca="1">IFERROR(INDEX(OFFSET('[1]Sheet1'!$D$1,0,0,MaxCount),MATCH($B23,OFFSET('[1]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
@@ -2309,7 +2315,7 @@
       <c r="E23" s="3"/>
     </row>
     <row r="24" s="1" customFormat="1">
-      <c r="A24" s="10"/>
+      <c r="A24" s="11"/>
       <c r="B24" s="8"/>
       <c r="C24" s="8" t="str">
         <f ca="1">IFERROR(INDEX(OFFSET('[1]Sheet1'!$D$1,0,0,MaxCount),MATCH($B24,OFFSET('[1]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
@@ -2319,7 +2325,7 @@
       <c r="E24" s="3"/>
     </row>
     <row r="25" s="1" customFormat="1">
-      <c r="A25" s="10"/>
+      <c r="A25" s="11"/>
       <c r="B25" s="8"/>
       <c r="C25" s="8" t="str">
         <f ca="1">IFERROR(INDEX(OFFSET('[1]Sheet1'!$D$1,0,0,MaxCount),MATCH($B25,OFFSET('[1]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
@@ -2329,7 +2335,7 @@
       <c r="E25" s="3"/>
     </row>
     <row r="26" s="1" customFormat="1">
-      <c r="A26" s="10"/>
+      <c r="A26" s="11"/>
       <c r="B26" s="8"/>
       <c r="C26" s="8" t="str">
         <f ca="1">IFERROR(INDEX(OFFSET('[1]Sheet1'!$D$1,0,0,MaxCount),MATCH($B26,OFFSET('[1]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
@@ -2339,7 +2345,7 @@
       <c r="E26" s="3"/>
     </row>
     <row r="27" s="1" customFormat="1">
-      <c r="A27" s="10"/>
+      <c r="A27" s="11"/>
       <c r="C27" s="8" t="str">
         <f ca="1">IFERROR(INDEX(OFFSET('[1]Sheet1'!$D$1,0,0,MaxCount),MATCH($B27,OFFSET('[1]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
@@ -2348,7 +2354,7 @@
       <c r="E27" s="3"/>
     </row>
     <row r="28" s="1" customFormat="1">
-      <c r="A28" s="10"/>
+      <c r="A28" s="11"/>
       <c r="C28" s="8" t="str">
         <f ca="1">IFERROR(INDEX(OFFSET('[1]Sheet1'!$D$1,0,0,MaxCount),MATCH($B28,OFFSET('[1]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
@@ -2357,7 +2363,7 @@
       <c r="E28" s="3"/>
     </row>
     <row r="29" s="1" customFormat="1">
-      <c r="A29" s="10"/>
+      <c r="A29" s="11"/>
       <c r="C29" s="8" t="str">
         <f ca="1">IFERROR(INDEX(OFFSET('[1]Sheet1'!$D$1,0,0,MaxCount),MATCH($B29,OFFSET('[1]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
@@ -2366,7 +2372,7 @@
       <c r="E29" s="3"/>
     </row>
     <row r="30" s="1" customFormat="1">
-      <c r="A30" s="10"/>
+      <c r="A30" s="11"/>
       <c r="C30" s="8" t="str">
         <f ca="1">IFERROR(INDEX(OFFSET('[1]Sheet1'!$D$1,0,0,MaxCount),MATCH($B30,OFFSET('[1]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
@@ -2375,7 +2381,7 @@
       <c r="E30" s="3"/>
     </row>
     <row r="31" s="1" customFormat="1">
-      <c r="A31" s="10"/>
+      <c r="A31" s="11"/>
       <c r="C31" s="8" t="str">
         <f ca="1">IFERROR(INDEX(OFFSET('[1]Sheet1'!$D$1,0,0,MaxCount),MATCH($B31,OFFSET('[1]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
@@ -2384,7 +2390,7 @@
       <c r="E31" s="3"/>
     </row>
     <row r="32" s="1" customFormat="1">
-      <c r="A32" s="10"/>
+      <c r="A32" s="11"/>
       <c r="C32" s="8" t="str">
         <f ca="1">IFERROR(INDEX(OFFSET('[1]Sheet1'!$D$1,0,0,MaxCount),MATCH($B32,OFFSET('[1]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
@@ -2393,7 +2399,7 @@
       <c r="E32" s="3"/>
     </row>
     <row r="33" s="1" customFormat="1">
-      <c r="A33" s="10"/>
+      <c r="A33" s="11"/>
       <c r="C33" s="8" t="str">
         <f ca="1">IFERROR(INDEX(OFFSET('[1]Sheet1'!$D$1,0,0,MaxCount),MATCH($B33,OFFSET('[1]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
@@ -2402,7 +2408,7 @@
       <c r="E33" s="3"/>
     </row>
     <row r="34" s="1" customFormat="1">
-      <c r="A34" s="10"/>
+      <c r="A34" s="11"/>
       <c r="C34" s="8" t="str">
         <f ca="1">IFERROR(INDEX(OFFSET('[1]Sheet1'!$D$1,0,0,MaxCount),MATCH($B34,OFFSET('[1]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
@@ -2411,7 +2417,7 @@
       <c r="E34" s="3"/>
     </row>
     <row r="35" s="1" customFormat="1">
-      <c r="A35" s="10"/>
+      <c r="A35" s="11"/>
       <c r="C35" s="8" t="str">
         <f ca="1">IFERROR(INDEX(OFFSET('[1]Sheet1'!$D$1,0,0,MaxCount),MATCH($B35,OFFSET('[1]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
@@ -2420,7 +2426,7 @@
       <c r="E35" s="3"/>
     </row>
     <row r="36" s="1" customFormat="1">
-      <c r="A36" s="10"/>
+      <c r="A36" s="11"/>
       <c r="C36" s="8" t="str">
         <f ca="1">IFERROR(INDEX(OFFSET('[1]Sheet1'!$D$1,0,0,MaxCount),MATCH($B36,OFFSET('[1]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
@@ -2429,7 +2435,7 @@
       <c r="E36" s="3"/>
     </row>
     <row r="37" s="1" customFormat="1">
-      <c r="A37" s="10"/>
+      <c r="A37" s="11"/>
       <c r="C37" s="8" t="str">
         <f ca="1">IFERROR(INDEX(OFFSET('[1]Sheet1'!$D$1,0,0,MaxCount),MATCH($B37,OFFSET('[1]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
@@ -2438,7 +2444,7 @@
       <c r="E37" s="3"/>
     </row>
     <row r="38" s="1" customFormat="1">
-      <c r="A38" s="10"/>
+      <c r="A38" s="11"/>
       <c r="C38" s="8" t="str">
         <f ca="1">IFERROR(INDEX(OFFSET('[1]Sheet1'!$D$1,0,0,MaxCount),MATCH($B38,OFFSET('[1]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
@@ -2447,7 +2453,7 @@
       <c r="E38" s="3"/>
     </row>
     <row r="39" s="1" customFormat="1">
-      <c r="A39" s="10"/>
+      <c r="A39" s="11"/>
       <c r="C39" s="8" t="str">
         <f ca="1">IFERROR(INDEX(OFFSET('[1]Sheet1'!$D$1,0,0,MaxCount),MATCH($B39,OFFSET('[1]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
@@ -2456,7 +2462,7 @@
       <c r="E39" s="3"/>
     </row>
     <row r="40" s="1" customFormat="1">
-      <c r="A40" s="10"/>
+      <c r="A40" s="11"/>
       <c r="C40" s="8" t="str">
         <f ca="1">IFERROR(INDEX(OFFSET('[1]Sheet1'!$D$1,0,0,MaxCount),MATCH($B40,OFFSET('[1]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
@@ -2465,7 +2471,7 @@
       <c r="E40" s="3"/>
     </row>
     <row r="41" s="1" customFormat="1">
-      <c r="A41" s="10"/>
+      <c r="A41" s="11"/>
       <c r="C41" s="8" t="str">
         <f ca="1">IFERROR(INDEX(OFFSET('[1]Sheet1'!$D$1,0,0,MaxCount),MATCH($B41,OFFSET('[1]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
@@ -2474,7 +2480,7 @@
       <c r="E41" s="3"/>
     </row>
     <row r="42" s="1" customFormat="1">
-      <c r="A42" s="10"/>
+      <c r="A42" s="11"/>
       <c r="C42" s="8" t="str">
         <f ca="1">IFERROR(INDEX(OFFSET('[1]Sheet1'!$D$1,0,0,MaxCount),MATCH($B42,OFFSET('[1]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
@@ -2483,7 +2489,7 @@
       <c r="E42" s="3"/>
     </row>
     <row r="43" s="1" customFormat="1">
-      <c r="A43" s="10"/>
+      <c r="A43" s="11"/>
       <c r="C43" s="8" t="str">
         <f ca="1">IFERROR(INDEX(OFFSET('[1]Sheet1'!$D$1,0,0,MaxCount),MATCH($B43,OFFSET('[1]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
@@ -4068,11 +4074,11 @@
     <col customWidth="1" min="1" max="1" width="23.375"/>
   </cols>
   <sheetData>
-    <row r="1" s="11" customFormat="1">
-      <c r="A1" s="11" t="s">
-        <v>53</v>
-      </c>
-      <c r="B1" s="11">
+    <row r="1" s="12" customFormat="1">
+      <c r="A1" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="B1" s="12">
         <v>1000</v>
       </c>
     </row>

--- a/dragon-verse/Excels/AnimalEcology_动物生态表.xlsx
+++ b/dragon-verse/Excels/AnimalEcology_动物生态表.xlsx
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="47">
   <si>
     <t>int</t>
   </si>
@@ -132,10 +132,10 @@
     <t>TestAnimalName0001</t>
   </si>
   <si>
-    <t>29|33</t>
-  </si>
-  <si>
-    <t>3|2|5</t>
+    <t>29|33|39</t>
+  </si>
+  <si>
+    <t>5|3|6</t>
   </si>
   <si>
     <t>150833|150830|150834</t>
@@ -144,13 +144,13 @@
     <t>TestAnimalName0002</t>
   </si>
   <si>
-    <t>30|34</t>
-  </si>
-  <si>
-    <t>2|1|3</t>
-  </si>
-  <si>
-    <t>2|3|1</t>
+    <t>30|34|40</t>
+  </si>
+  <si>
+    <t>100|300|500</t>
+  </si>
+  <si>
+    <t>3|4|5</t>
   </si>
   <si>
     <t>181301|181390|235648</t>
@@ -159,10 +159,10 @@
     <t>TestAnimalName0003</t>
   </si>
   <si>
-    <t>31|35</t>
-  </si>
-  <si>
-    <t>1|2|3</t>
+    <t>31|35|41</t>
+  </si>
+  <si>
+    <t>3|2|4</t>
   </si>
   <si>
     <t>TestAnimalName0004</t>
@@ -171,16 +171,7 @@
     <t>32|38</t>
   </si>
   <si>
-    <t>3|21</t>
-  </si>
-  <si>
-    <t>1731|7838|1564||-66|7976|1553||6303|3548|1691</t>
-  </si>
-  <si>
-    <t>-11272|6585|3358||-9615|9185|3873||5035|5120|1652</t>
-  </si>
-  <si>
-    <t>-10249|441|2078||-8841|-1131|1679||-11098|1544|2448</t>
+    <t>2|3|4</t>
   </si>
   <si>
     <t>MaxLanItemCount</t>
@@ -1102,7 +1093,7 @@
     </dxf>
   </dxfs>
   <tableStyles count="2" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="TableStylePreset3_Accent1 1" pivot="0" count="7" xr9:uid="{FC8FE73F-2AD6-4A42-9FB7-C3913E977C61}">
+    <tableStyle name="TableStylePreset3_Accent1 1" pivot="0" count="7" xr9:uid="{972126A5-96AD-4B8C-A428-6E94522F919A}">
       <tableStyleElement type="wholeTable" dxfId="6"/>
       <tableStyleElement type="headerRow" dxfId="5"/>
       <tableStyleElement type="totalRow" dxfId="4"/>
@@ -1111,7 +1102,7 @@
       <tableStyleElement type="firstRowStripe" dxfId="1"/>
       <tableStyleElement type="firstColumnStripe" dxfId="0"/>
     </tableStyle>
-    <tableStyle name="PivotStylePreset2_Accent1 1" table="0" count="10" xr9:uid="{A8CE8836-D93D-4677-A432-BD6980C157C5}">
+    <tableStyle name="PivotStylePreset2_Accent1 1" table="0" count="10" xr9:uid="{DB1E98DD-09C4-430F-80C3-6A4334D0CBDE}">
       <tableStyleElement type="headerRow" dxfId="16"/>
       <tableStyleElement type="totalRow" dxfId="15"/>
       <tableStyleElement type="firstRowStripe" dxfId="14"/>
@@ -1355,10 +1346,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:M301"/>
+  <dimension ref="A1:M294"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="M7" sqref="M7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="16.5"/>
@@ -1522,19 +1513,19 @@
         <v>0</v>
       </c>
       <c r="F5" s="2">
-        <v>60000</v>
+        <v>300000</v>
       </c>
       <c r="G5" s="2">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="H5" s="2">
-        <v>60000</v>
+        <v>300000</v>
       </c>
       <c r="I5" s="2">
-        <v>500</v>
+        <v>5000</v>
       </c>
       <c r="J5" s="2">
-        <v>1</v>
+        <v>200</v>
       </c>
       <c r="K5" s="2" t="s">
         <v>33</v>
@@ -1564,16 +1555,16 @@
         <v>0</v>
       </c>
       <c r="F6" s="2">
-        <v>60000</v>
+        <v>300000</v>
       </c>
       <c r="G6" s="2">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="H6" s="2">
-        <v>60000</v>
+        <v>300000</v>
       </c>
       <c r="I6" s="2">
-        <v>500</v>
+        <v>5000</v>
       </c>
       <c r="J6" s="2" t="s">
         <v>37</v>
@@ -1606,19 +1597,19 @@
         <v>0</v>
       </c>
       <c r="F7" s="2">
-        <v>60000</v>
+        <v>300000</v>
       </c>
       <c r="G7" s="2">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="H7" s="2">
-        <v>60000</v>
+        <v>300000</v>
       </c>
       <c r="I7" s="2">
-        <v>500</v>
+        <v>5000</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="K7" s="2" t="s">
         <v>42</v>
@@ -1645,315 +1636,124 @@
         <v>0</v>
       </c>
       <c r="F8" s="2">
-        <v>60000</v>
+        <v>300000</v>
       </c>
       <c r="G8" s="2">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="H8" s="2">
-        <v>60000</v>
+        <v>300000</v>
       </c>
       <c r="I8" s="2">
-        <v>500</v>
+        <v>5000</v>
       </c>
       <c r="J8" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="K8" s="2" t="s">
         <v>45</v>
-      </c>
-      <c r="K8" s="2" t="s">
-        <v>42</v>
       </c>
       <c r="L8" s="3">
         <v>160045</v>
       </c>
     </row>
-    <row r="9" s="3" customFormat="1" spans="1:12">
-      <c r="A9" s="3">
-        <v>5</v>
-      </c>
-      <c r="B9" s="8" t="s">
-        <v>31</v>
-      </c>
+    <row r="9" s="3" customFormat="1" spans="2:7">
+      <c r="B9" s="8"/>
       <c r="C9" s="8" t="str">
         <f ca="1">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B9,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
       <c r="D9" s="4"/>
-      <c r="E9" s="2">
-        <v>60000</v>
-      </c>
-      <c r="F9" s="2">
-        <v>60000</v>
-      </c>
-      <c r="G9" s="2">
-        <v>1</v>
-      </c>
-      <c r="H9" s="2">
-        <v>60000</v>
-      </c>
-      <c r="I9" s="2">
-        <v>500</v>
-      </c>
-      <c r="J9" s="2">
-        <v>1</v>
-      </c>
-      <c r="K9" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="L9" s="3">
-        <v>159590</v>
-      </c>
-    </row>
-    <row r="10" s="3" customFormat="1" spans="1:12">
-      <c r="A10" s="3">
-        <v>6</v>
-      </c>
-      <c r="B10" s="8" t="s">
-        <v>35</v>
-      </c>
+      <c r="E9" s="9"/>
+      <c r="F9" s="8"/>
+      <c r="G9" s="8"/>
+    </row>
+    <row r="10" s="3" customFormat="1" spans="2:7">
+      <c r="B10" s="8"/>
       <c r="C10" s="8" t="str">
         <f ca="1">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B10,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
       <c r="D10" s="4"/>
-      <c r="E10" s="2">
-        <v>60000</v>
-      </c>
-      <c r="F10" s="2">
-        <v>60000</v>
-      </c>
-      <c r="G10" s="2">
-        <v>2</v>
-      </c>
-      <c r="H10" s="2">
-        <v>60000</v>
-      </c>
-      <c r="I10" s="2">
-        <v>500</v>
-      </c>
-      <c r="J10" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="K10" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="L10" s="3">
-        <v>159750</v>
-      </c>
-    </row>
-    <row r="11" s="3" customFormat="1" spans="1:12">
-      <c r="A11" s="3">
-        <v>7</v>
-      </c>
-      <c r="B11" s="8" t="s">
-        <v>40</v>
-      </c>
+      <c r="E10" s="9"/>
+      <c r="F10" s="8"/>
+      <c r="G10" s="8"/>
+    </row>
+    <row r="11" s="3" customFormat="1" spans="1:7">
+      <c r="A11" s="10"/>
+      <c r="B11" s="8"/>
       <c r="C11" s="8" t="str">
         <f ca="1">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B11,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
       <c r="D11" s="4"/>
-      <c r="E11" s="2">
-        <v>60000</v>
-      </c>
-      <c r="F11" s="2">
-        <v>60000</v>
-      </c>
-      <c r="G11" s="2">
-        <v>2</v>
-      </c>
-      <c r="H11" s="2">
-        <v>60000</v>
-      </c>
-      <c r="I11" s="2">
-        <v>500</v>
-      </c>
-      <c r="J11" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="K11" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="L11" s="3">
-        <v>159842</v>
-      </c>
-    </row>
-    <row r="12" s="3" customFormat="1" spans="1:12">
-      <c r="A12" s="3">
-        <v>8</v>
-      </c>
-      <c r="B12" s="8" t="s">
-        <v>43</v>
-      </c>
+      <c r="E11" s="9"/>
+      <c r="F11" s="8"/>
+      <c r="G11" s="8"/>
+    </row>
+    <row r="12" s="3" customFormat="1" spans="1:7">
+      <c r="A12" s="10"/>
+      <c r="B12" s="8"/>
       <c r="C12" s="8" t="str">
         <f ca="1">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B12,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
       <c r="D12" s="4"/>
-      <c r="E12" s="2">
-        <v>60000</v>
-      </c>
-      <c r="F12" s="2">
-        <v>60000</v>
-      </c>
-      <c r="G12" s="2">
-        <v>1</v>
-      </c>
-      <c r="H12" s="2">
-        <v>60000</v>
-      </c>
-      <c r="I12" s="2">
-        <v>500</v>
-      </c>
-      <c r="J12" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="K12" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="L12" s="3">
-        <v>160045</v>
-      </c>
-    </row>
-    <row r="13" s="3" customFormat="1" spans="1:12">
-      <c r="A13" s="3">
-        <v>9</v>
-      </c>
-      <c r="B13" s="8" t="s">
-        <v>31</v>
-      </c>
+      <c r="E12" s="9"/>
+      <c r="F12" s="8"/>
+      <c r="G12" s="8"/>
+    </row>
+    <row r="13" s="3" customFormat="1" spans="1:5">
+      <c r="A13" s="10"/>
+      <c r="B13" s="8"/>
       <c r="C13" s="8" t="str">
         <f ca="1">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B13,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
-      <c r="D13" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="E13" s="2">
-        <v>120000</v>
-      </c>
-      <c r="F13" s="2">
-        <v>60000</v>
-      </c>
-      <c r="G13" s="2">
-        <v>2</v>
-      </c>
-      <c r="H13" s="2">
-        <v>60000</v>
-      </c>
-      <c r="I13" s="2">
-        <v>500</v>
-      </c>
-      <c r="J13" s="2">
-        <v>1</v>
-      </c>
-      <c r="K13" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="L13" s="3">
-        <v>159590</v>
-      </c>
-    </row>
-    <row r="14" s="3" customFormat="1" spans="1:12">
-      <c r="A14" s="3">
-        <v>10</v>
-      </c>
-      <c r="B14" s="8" t="s">
-        <v>35</v>
-      </c>
+      <c r="D13" s="4"/>
+      <c r="E13" s="2"/>
+    </row>
+    <row r="14" s="3" customFormat="1" spans="1:5">
+      <c r="A14" s="10"/>
+      <c r="B14" s="8"/>
       <c r="C14" s="8" t="str">
         <f ca="1">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B14,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
-      <c r="D14" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="E14" s="2">
-        <v>120000</v>
-      </c>
-      <c r="F14" s="2">
-        <v>60000</v>
-      </c>
-      <c r="G14" s="2">
-        <v>2</v>
-      </c>
-      <c r="H14" s="2">
-        <v>60000</v>
-      </c>
-      <c r="I14" s="2">
-        <v>500</v>
-      </c>
-      <c r="J14" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="K14" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="L14" s="3">
-        <v>159750</v>
-      </c>
-    </row>
-    <row r="15" s="3" customFormat="1" spans="1:12">
-      <c r="A15" s="3">
-        <v>11</v>
-      </c>
-      <c r="B15" s="8" t="s">
-        <v>40</v>
-      </c>
+      <c r="D14" s="4"/>
+      <c r="E14" s="2"/>
+    </row>
+    <row r="15" s="3" customFormat="1" spans="1:5">
+      <c r="A15" s="10"/>
+      <c r="B15" s="8"/>
       <c r="C15" s="8" t="str">
         <f ca="1">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B15,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
-      <c r="D15" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="E15" s="2">
-        <v>120000</v>
-      </c>
-      <c r="F15" s="2">
-        <v>60000</v>
-      </c>
-      <c r="G15" s="9">
-        <v>2</v>
-      </c>
-      <c r="H15" s="2">
-        <v>60000</v>
-      </c>
-      <c r="I15" s="2">
-        <v>500</v>
-      </c>
-      <c r="J15" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="K15" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="L15" s="3">
-        <v>159842</v>
-      </c>
-    </row>
-    <row r="16" s="3" customFormat="1" spans="2:7">
+      <c r="D15" s="4"/>
+      <c r="E15" s="2"/>
+    </row>
+    <row r="16" s="3" customFormat="1" spans="1:5">
+      <c r="A16" s="10"/>
       <c r="B16" s="8"/>
       <c r="C16" s="8" t="str">
         <f ca="1">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B16,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
       <c r="D16" s="4"/>
-      <c r="E16" s="9"/>
-      <c r="F16" s="8"/>
-      <c r="G16" s="8"/>
-    </row>
-    <row r="17" s="3" customFormat="1" spans="2:7">
+      <c r="E16" s="2"/>
+    </row>
+    <row r="17" s="3" customFormat="1" spans="1:5">
+      <c r="A17" s="10"/>
       <c r="B17" s="8"/>
       <c r="C17" s="8" t="str">
         <f ca="1">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B17,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
       <c r="D17" s="4"/>
-      <c r="E17" s="9"/>
-      <c r="F17" s="8"/>
-      <c r="G17" s="8"/>
-    </row>
-    <row r="18" s="3" customFormat="1" spans="1:7">
+      <c r="E17" s="2"/>
+    </row>
+    <row r="18" s="3" customFormat="1" spans="1:5">
       <c r="A18" s="10"/>
       <c r="B18" s="8"/>
       <c r="C18" s="8" t="str">
@@ -1961,11 +1761,9 @@
         <v/>
       </c>
       <c r="D18" s="4"/>
-      <c r="E18" s="9"/>
-      <c r="F18" s="8"/>
-      <c r="G18" s="8"/>
-    </row>
-    <row r="19" s="3" customFormat="1" spans="1:7">
+      <c r="E18" s="2"/>
+    </row>
+    <row r="19" s="3" customFormat="1" spans="1:5">
       <c r="A19" s="10"/>
       <c r="B19" s="8"/>
       <c r="C19" s="8" t="str">
@@ -1973,13 +1771,10 @@
         <v/>
       </c>
       <c r="D19" s="4"/>
-      <c r="E19" s="9"/>
-      <c r="F19" s="8"/>
-      <c r="G19" s="8"/>
+      <c r="E19" s="2"/>
     </row>
     <row r="20" s="3" customFormat="1" spans="1:5">
       <c r="A20" s="10"/>
-      <c r="B20" s="8"/>
       <c r="C20" s="8" t="str">
         <f ca="1">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B20,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
@@ -1989,7 +1784,6 @@
     </row>
     <row r="21" s="3" customFormat="1" spans="1:5">
       <c r="A21" s="10"/>
-      <c r="B21" s="8"/>
       <c r="C21" s="8" t="str">
         <f ca="1">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B21,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
@@ -1999,7 +1793,6 @@
     </row>
     <row r="22" s="3" customFormat="1" spans="1:5">
       <c r="A22" s="10"/>
-      <c r="B22" s="8"/>
       <c r="C22" s="8" t="str">
         <f ca="1">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B22,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
@@ -2009,7 +1802,6 @@
     </row>
     <row r="23" s="3" customFormat="1" spans="1:5">
       <c r="A23" s="10"/>
-      <c r="B23" s="8"/>
       <c r="C23" s="8" t="str">
         <f ca="1">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B23,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
@@ -2019,7 +1811,6 @@
     </row>
     <row r="24" s="3" customFormat="1" spans="1:5">
       <c r="A24" s="10"/>
-      <c r="B24" s="8"/>
       <c r="C24" s="8" t="str">
         <f ca="1">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B24,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
@@ -2029,7 +1820,6 @@
     </row>
     <row r="25" s="3" customFormat="1" spans="1:5">
       <c r="A25" s="10"/>
-      <c r="B25" s="8"/>
       <c r="C25" s="8" t="str">
         <f ca="1">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B25,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
@@ -2039,7 +1829,6 @@
     </row>
     <row r="26" s="3" customFormat="1" spans="1:5">
       <c r="A26" s="10"/>
-      <c r="B26" s="8"/>
       <c r="C26" s="8" t="str">
         <f ca="1">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B26,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
@@ -2137,8 +1926,7 @@
       <c r="D36" s="4"/>
       <c r="E36" s="2"/>
     </row>
-    <row r="37" s="3" customFormat="1" spans="1:5">
-      <c r="A37" s="10"/>
+    <row r="37" s="3" customFormat="1" spans="3:5">
       <c r="C37" s="8" t="str">
         <f ca="1">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B37,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
@@ -2146,82 +1934,62 @@
       <c r="D37" s="4"/>
       <c r="E37" s="2"/>
     </row>
-    <row r="38" s="3" customFormat="1" spans="1:5">
-      <c r="A38" s="10"/>
+    <row r="38" spans="3:3">
       <c r="C38" s="8" t="str">
         <f ca="1">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B38,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
-      <c r="D38" s="4"/>
-      <c r="E38" s="2"/>
-    </row>
-    <row r="39" s="3" customFormat="1" spans="1:5">
-      <c r="A39" s="10"/>
+    </row>
+    <row r="39" spans="3:3">
       <c r="C39" s="8" t="str">
         <f ca="1">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B39,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
-      <c r="D39" s="4"/>
-      <c r="E39" s="2"/>
-    </row>
-    <row r="40" s="3" customFormat="1" spans="1:5">
-      <c r="A40" s="10"/>
+    </row>
+    <row r="40" spans="3:3">
       <c r="C40" s="8" t="str">
         <f ca="1">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B40,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
-      <c r="D40" s="4"/>
-      <c r="E40" s="2"/>
-    </row>
-    <row r="41" s="3" customFormat="1" spans="1:5">
-      <c r="A41" s="10"/>
-      <c r="C41" s="8" t="str">
+    </row>
+    <row r="41" spans="3:3">
+      <c r="C41" s="3" t="str">
         <f ca="1">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B41,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
-      <c r="D41" s="4"/>
-      <c r="E41" s="2"/>
-    </row>
-    <row r="42" s="3" customFormat="1" spans="1:5">
-      <c r="A42" s="10"/>
-      <c r="C42" s="8" t="str">
+    </row>
+    <row r="42" spans="3:3">
+      <c r="C42" s="3" t="str">
         <f ca="1">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B42,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
-      <c r="D42" s="4"/>
-      <c r="E42" s="2"/>
-    </row>
-    <row r="43" s="3" customFormat="1" spans="1:5">
-      <c r="A43" s="10"/>
-      <c r="C43" s="8" t="str">
+    </row>
+    <row r="43" spans="3:3">
+      <c r="C43" s="3" t="str">
         <f ca="1">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B43,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
-      <c r="D43" s="4"/>
-      <c r="E43" s="2"/>
-    </row>
-    <row r="44" s="3" customFormat="1" spans="3:5">
-      <c r="C44" s="8" t="str">
+    </row>
+    <row r="44" spans="3:3">
+      <c r="C44" s="3" t="str">
         <f ca="1">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B44,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
-      <c r="D44" s="4"/>
-      <c r="E44" s="2"/>
     </row>
     <row r="45" spans="3:3">
-      <c r="C45" s="8" t="str">
+      <c r="C45" s="3" t="str">
         <f ca="1">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B45,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
     </row>
     <row r="46" spans="3:3">
-      <c r="C46" s="8" t="str">
+      <c r="C46" s="3" t="str">
         <f ca="1">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B46,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
     </row>
     <row r="47" spans="3:3">
-      <c r="C47" s="8" t="str">
+      <c r="C47" s="3" t="str">
         <f ca="1">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B47,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
@@ -3705,48 +3473,6 @@
     <row r="294" spans="3:3">
       <c r="C294" s="3" t="str">
         <f ca="1">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B294,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="295" spans="3:3">
-      <c r="C295" s="3" t="str">
-        <f ca="1">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B295,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="296" spans="3:3">
-      <c r="C296" s="3" t="str">
-        <f ca="1">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B296,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="297" spans="3:3">
-      <c r="C297" s="3" t="str">
-        <f ca="1">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B297,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="298" spans="3:3">
-      <c r="C298" s="3" t="str">
-        <f ca="1">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B298,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="299" spans="3:3">
-      <c r="C299" s="3" t="str">
-        <f ca="1">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B299,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="300" spans="3:3">
-      <c r="C300" s="3" t="str">
-        <f ca="1">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B300,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="301" spans="3:3">
-      <c r="C301" s="3" t="str">
-        <f ca="1">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B301,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
     </row>
@@ -3776,7 +3502,7 @@
   <sheetData>
     <row r="1" s="1" customFormat="1" spans="1:2">
       <c r="A1" s="1" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="B1" s="1">
         <v>1000</v>

--- a/dragon-verse/Excels/AnimalEcology_动物生态表.xlsx
+++ b/dragon-verse/Excels/AnimalEcology_动物生态表.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27531"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\P12GPark\Project\Edit\DragonVerse\dragon-verse\Excels\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49EE33E5-E293-4328-8308-520FE68A0DC7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="24045" windowHeight="11925"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -25,8 +31,6 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -195,14 +199,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
-  <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="22">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color theme="1"/>
@@ -222,345 +220,21 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Arial"/>
+      <sz val="9"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color indexed="4"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color indexed="20"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="2"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color indexed="65"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="26"/>
-        <bgColor indexed="26"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="47"/>
-        <bgColor indexed="47"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor rgb="FFF2F2F2"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor rgb="FFA5A5A5"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor rgb="FFC6EFCE"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor rgb="FFFFC7CE"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor rgb="FFFFEB9C"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor theme="4"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor theme="4" tint="0.799981688894314"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor theme="4" tint="0.599993896298105"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor theme="4" tint="0.399975585192419"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor theme="5"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor theme="5" tint="0.799981688894314"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor theme="5" tint="0.599993896298105"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor theme="5" tint="0.399975585192419"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor theme="6"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor theme="6" tint="0.799981688894314"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor theme="6" tint="0.599993896298105"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor theme="6" tint="0.399975585192419"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor theme="7"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor theme="7" tint="0.799981688894314"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor theme="7" tint="0.599993896298105"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor theme="7" tint="0.399975585192419"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor theme="8"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor theme="8" tint="0.799981688894314"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor theme="8" tint="0.599993896298105"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor theme="8" tint="0.399975585192419"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor theme="9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor theme="9" tint="0.799981688894314"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor theme="9" tint="0.599993896298105"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor theme="9" tint="0.399975585192419"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="9">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -568,251 +242,9 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="4" applyNumberFormat="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="5" applyNumberFormat="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="4" applyNumberFormat="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="6" applyNumberFormat="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
   <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -845,89 +277,174 @@
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
-    <cellStyle name="货币" xfId="2" builtinId="4"/>
-    <cellStyle name="百分比" xfId="3" builtinId="5"/>
-    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
-    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
-    <cellStyle name="超链接" xfId="6" builtinId="8"/>
-    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
-    <cellStyle name="注释" xfId="8" builtinId="10"/>
-    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
-    <cellStyle name="标题" xfId="10" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
-    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="输入" xfId="16" builtinId="20"/>
-    <cellStyle name="输出" xfId="17" builtinId="21"/>
-    <cellStyle name="计算" xfId="18" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
-    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
-    <cellStyle name="汇总" xfId="21" builtinId="25"/>
-    <cellStyle name="好" xfId="22" builtinId="26"/>
-    <cellStyle name="差" xfId="23" builtinId="27"/>
-    <cellStyle name="适中" xfId="24" builtinId="28"/>
-    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
-    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
-    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
-    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
-    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
   <dxfs count="17">
     <dxf>
       <fill>
         <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.799920651875362"/>
-          <bgColor theme="4" tint="0.799920651875362"/>
+          <fgColor theme="4" tint="0.79989013336588644"/>
+          <bgColor theme="4" tint="0.79989013336588644"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom style="thin">
+          <color theme="4" tint="0.39988402966399123"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79989013336588644"/>
+          <bgColor theme="4" tint="0.79989013336588644"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom style="thin">
+          <color theme="4" tint="0.39988402966399123"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom style="thin">
+          <color theme="4" tint="0.39988402966399123"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <color theme="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <color theme="1"/>
+      </font>
+      <border>
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79989013336588644"/>
+          <bgColor theme="4" tint="0.79989013336588644"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <fill>
         <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.799920651875362"/>
-          <bgColor theme="4" tint="0.799920651875362"/>
+          <fgColor theme="4" tint="0.79989013336588644"/>
+          <bgColor theme="4" tint="0.79989013336588644"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <font>
-        <b val="1"/>
+        <b/>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79989013336588644"/>
+          <bgColor theme="4" tint="0.79989013336588644"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39988402966399123"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.39988402966399123"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79989013336588644"/>
+          <bgColor theme="4" tint="0.79989013336588644"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom style="thin">
+          <color theme="4" tint="0.39988402966399123"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79989013336588644"/>
+          <bgColor theme="4" tint="0.79989013336588644"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79989013336588644"/>
+          <bgColor theme="4" tint="0.79989013336588644"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
         <color theme="1"/>
       </font>
     </dxf>
     <dxf>
       <font>
-        <b val="1"/>
+        <b/>
         <color theme="1"/>
       </font>
     </dxf>
     <dxf>
       <font>
-        <b val="1"/>
+        <b/>
         <color theme="1"/>
       </font>
       <border>
@@ -941,7 +458,7 @@
     </dxf>
     <dxf>
       <font>
-        <b val="1"/>
+        <b/>
         <color theme="0"/>
       </font>
       <fill>
@@ -969,177 +486,47 @@
           <color theme="4"/>
         </bottom>
         <horizontal style="thin">
-          <color theme="4" tint="0.399914548173467"/>
+          <color theme="4" tint="0.39988402966399123"/>
         </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.799920651875362"/>
-          <bgColor theme="4" tint="0.799920651875362"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom style="thin">
-          <color theme="4" tint="0.399914548173467"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.799920651875362"/>
-          <bgColor theme="4" tint="0.799920651875362"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom style="thin">
-          <color theme="4" tint="0.399914548173467"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom style="thin">
-          <color theme="4" tint="0.399914548173467"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="1"/>
-        <color theme="1"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="1"/>
-        <color theme="1"/>
-      </font>
-      <border>
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="4"/>
-        </top>
-        <bottom style="thin">
-          <color theme="4"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.799920651875362"/>
-          <bgColor theme="4" tint="0.799920651875362"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.799920651875362"/>
-          <bgColor theme="4" tint="0.799920651875362"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="1"/>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.799920651875362"/>
-          <bgColor theme="4" tint="0.799920651875362"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="4" tint="0.399914548173467"/>
-        </top>
-        <bottom style="thin">
-          <color theme="4" tint="0.399914548173467"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="1"/>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.799920651875362"/>
-          <bgColor theme="4" tint="0.799920651875362"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom style="thin">
-          <color theme="4" tint="0.399914548173467"/>
-        </bottom>
       </border>
     </dxf>
   </dxfs>
   <tableStyles count="2" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
     <tableStyle name="TableStylePreset3_Accent1 1" pivot="0" count="7" xr9:uid="{8DF98079-8F9C-4D72-9D09-0689009BA55F}">
-      <tableStyleElement type="wholeTable" dxfId="6"/>
-      <tableStyleElement type="headerRow" dxfId="5"/>
-      <tableStyleElement type="totalRow" dxfId="4"/>
-      <tableStyleElement type="firstColumn" dxfId="3"/>
-      <tableStyleElement type="lastColumn" dxfId="2"/>
-      <tableStyleElement type="firstRowStripe" dxfId="1"/>
-      <tableStyleElement type="firstColumnStripe" dxfId="0"/>
+      <tableStyleElement type="wholeTable" dxfId="16"/>
+      <tableStyleElement type="headerRow" dxfId="15"/>
+      <tableStyleElement type="totalRow" dxfId="14"/>
+      <tableStyleElement type="firstColumn" dxfId="13"/>
+      <tableStyleElement type="lastColumn" dxfId="12"/>
+      <tableStyleElement type="firstRowStripe" dxfId="11"/>
+      <tableStyleElement type="firstColumnStripe" dxfId="10"/>
     </tableStyle>
     <tableStyle name="PivotStylePreset2_Accent1 1" table="0" count="10" xr9:uid="{F72BB982-617D-4370-9016-9D733286A706}">
-      <tableStyleElement type="headerRow" dxfId="16"/>
-      <tableStyleElement type="totalRow" dxfId="15"/>
-      <tableStyleElement type="firstRowStripe" dxfId="14"/>
-      <tableStyleElement type="firstColumnStripe" dxfId="13"/>
-      <tableStyleElement type="firstSubtotalRow" dxfId="12"/>
-      <tableStyleElement type="secondSubtotalRow" dxfId="11"/>
-      <tableStyleElement type="firstRowSubheading" dxfId="10"/>
-      <tableStyleElement type="secondRowSubheading" dxfId="9"/>
-      <tableStyleElement type="pageFieldLabels" dxfId="8"/>
-      <tableStyleElement type="pageFieldValues" dxfId="7"/>
+      <tableStyleElement type="headerRow" dxfId="9"/>
+      <tableStyleElement type="totalRow" dxfId="8"/>
+      <tableStyleElement type="firstRowStripe" dxfId="7"/>
+      <tableStyleElement type="firstColumnStripe" dxfId="6"/>
+      <tableStyleElement type="firstSubtotalRow" dxfId="5"/>
+      <tableStyleElement type="secondSubtotalRow" dxfId="4"/>
+      <tableStyleElement type="firstRowSubheading" dxfId="3"/>
+      <tableStyleElement type="secondRowSubheading" dxfId="2"/>
+      <tableStyleElement type="pageFieldLabels" dxfId="1"/>
+      <tableStyleElement type="pageFieldValues" dxfId="0"/>
     </tableStyle>
   </tableStyles>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Sheet1"/>
@@ -1355,19 +742,19 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N294"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="M16" sqref="M16"/>
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="16.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="2" max="2" width="25.25" style="3" customWidth="1"/>
     <col min="3" max="3" width="28.625" style="3" customWidth="1"/>
@@ -1380,7 +767,7 @@
     <col min="13" max="13" width="20.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="2" customFormat="1" spans="1:14">
+    <row r="1" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -1424,7 +811,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" s="2" customFormat="1" spans="1:14">
+    <row r="2" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A2" s="5" t="s">
         <v>5</v>
       </c>
@@ -1468,7 +855,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="3" s="2" customFormat="1" spans="1:14">
+    <row r="3" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
         <v>19</v>
       </c>
@@ -1512,14 +899,14 @@
         <v>32</v>
       </c>
     </row>
-    <row r="4" s="3" customFormat="1" spans="2:7">
+    <row r="4" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B4" s="3" t="s">
         <v>33</v>
       </c>
       <c r="E4" s="2"/>
       <c r="G4" s="2"/>
     </row>
-    <row r="5" s="3" customFormat="1" spans="1:14">
+    <row r="5" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A5" s="3">
         <v>1</v>
       </c>
@@ -1549,7 +936,7 @@
         <v>5000</v>
       </c>
       <c r="J5" s="2">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="K5" s="2" t="s">
         <v>36</v>
@@ -1564,7 +951,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="6" s="3" customFormat="1" spans="1:13">
+    <row r="6" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A6" s="3">
         <v>2</v>
       </c>
@@ -1606,7 +993,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="7" s="3" customFormat="1" spans="1:13">
+    <row r="7" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A7" s="3">
         <v>3</v>
       </c>
@@ -1648,7 +1035,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="8" s="3" customFormat="1" spans="1:13">
+    <row r="8" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A8" s="3">
         <v>4</v>
       </c>
@@ -1690,7 +1077,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="9" s="3" customFormat="1" spans="2:7">
+    <row r="9" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B9" s="8"/>
       <c r="C9" s="8" t="str">
         <f ca="1">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B9,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
@@ -1701,7 +1088,7 @@
       <c r="F9" s="8"/>
       <c r="G9" s="8"/>
     </row>
-    <row r="10" s="3" customFormat="1" spans="2:7">
+    <row r="10" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B10" s="8"/>
       <c r="C10" s="8" t="str">
         <f ca="1">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B10,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
@@ -1712,7 +1099,7 @@
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
     </row>
-    <row r="11" s="3" customFormat="1" spans="1:7">
+    <row r="11" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A11" s="10"/>
       <c r="B11" s="8"/>
       <c r="C11" s="8" t="str">
@@ -1724,7 +1111,7 @@
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
     </row>
-    <row r="12" s="3" customFormat="1" spans="1:7">
+    <row r="12" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A12" s="10"/>
       <c r="B12" s="8"/>
       <c r="C12" s="8" t="str">
@@ -1736,7 +1123,7 @@
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
     </row>
-    <row r="13" s="3" customFormat="1" spans="1:5">
+    <row r="13" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A13" s="10"/>
       <c r="B13" s="8"/>
       <c r="C13" s="8" t="str">
@@ -1746,7 +1133,7 @@
       <c r="D13" s="4"/>
       <c r="E13" s="2"/>
     </row>
-    <row r="14" s="3" customFormat="1" spans="1:5">
+    <row r="14" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A14" s="10"/>
       <c r="B14" s="8"/>
       <c r="C14" s="8" t="str">
@@ -1756,7 +1143,7 @@
       <c r="D14" s="4"/>
       <c r="E14" s="2"/>
     </row>
-    <row r="15" s="3" customFormat="1" spans="1:5">
+    <row r="15" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A15" s="10"/>
       <c r="B15" s="8"/>
       <c r="C15" s="8" t="str">
@@ -1766,7 +1153,7 @@
       <c r="D15" s="4"/>
       <c r="E15" s="2"/>
     </row>
-    <row r="16" s="3" customFormat="1" spans="1:5">
+    <row r="16" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A16" s="10"/>
       <c r="B16" s="8"/>
       <c r="C16" s="8" t="str">
@@ -1776,7 +1163,7 @@
       <c r="D16" s="4"/>
       <c r="E16" s="2"/>
     </row>
-    <row r="17" s="3" customFormat="1" spans="1:5">
+    <row r="17" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A17" s="10"/>
       <c r="B17" s="8"/>
       <c r="C17" s="8" t="str">
@@ -1786,7 +1173,7 @@
       <c r="D17" s="4"/>
       <c r="E17" s="2"/>
     </row>
-    <row r="18" s="3" customFormat="1" spans="1:5">
+    <row r="18" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A18" s="10"/>
       <c r="B18" s="8"/>
       <c r="C18" s="8" t="str">
@@ -1796,7 +1183,7 @@
       <c r="D18" s="4"/>
       <c r="E18" s="2"/>
     </row>
-    <row r="19" s="3" customFormat="1" spans="1:5">
+    <row r="19" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A19" s="10"/>
       <c r="B19" s="8"/>
       <c r="C19" s="8" t="str">
@@ -1806,7 +1193,7 @@
       <c r="D19" s="4"/>
       <c r="E19" s="2"/>
     </row>
-    <row r="20" s="3" customFormat="1" spans="1:5">
+    <row r="20" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A20" s="10"/>
       <c r="C20" s="8" t="str">
         <f ca="1">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B20,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
@@ -1815,7 +1202,7 @@
       <c r="D20" s="4"/>
       <c r="E20" s="2"/>
     </row>
-    <row r="21" s="3" customFormat="1" spans="1:5">
+    <row r="21" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A21" s="10"/>
       <c r="C21" s="8" t="str">
         <f ca="1">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B21,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
@@ -1824,7 +1211,7 @@
       <c r="D21" s="4"/>
       <c r="E21" s="2"/>
     </row>
-    <row r="22" s="3" customFormat="1" spans="1:5">
+    <row r="22" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A22" s="10"/>
       <c r="C22" s="8" t="str">
         <f ca="1">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B22,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
@@ -1833,7 +1220,7 @@
       <c r="D22" s="4"/>
       <c r="E22" s="2"/>
     </row>
-    <row r="23" s="3" customFormat="1" spans="1:5">
+    <row r="23" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A23" s="10"/>
       <c r="C23" s="8" t="str">
         <f ca="1">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B23,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
@@ -1842,7 +1229,7 @@
       <c r="D23" s="4"/>
       <c r="E23" s="2"/>
     </row>
-    <row r="24" s="3" customFormat="1" spans="1:5">
+    <row r="24" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A24" s="10"/>
       <c r="C24" s="8" t="str">
         <f ca="1">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B24,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
@@ -1851,7 +1238,7 @@
       <c r="D24" s="4"/>
       <c r="E24" s="2"/>
     </row>
-    <row r="25" s="3" customFormat="1" spans="1:5">
+    <row r="25" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A25" s="10"/>
       <c r="C25" s="8" t="str">
         <f ca="1">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B25,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
@@ -1860,7 +1247,7 @@
       <c r="D25" s="4"/>
       <c r="E25" s="2"/>
     </row>
-    <row r="26" s="3" customFormat="1" spans="1:5">
+    <row r="26" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A26" s="10"/>
       <c r="C26" s="8" t="str">
         <f ca="1">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B26,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
@@ -1869,7 +1256,7 @@
       <c r="D26" s="4"/>
       <c r="E26" s="2"/>
     </row>
-    <row r="27" s="3" customFormat="1" spans="1:5">
+    <row r="27" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A27" s="10"/>
       <c r="C27" s="8" t="str">
         <f ca="1">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B27,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
@@ -1878,7 +1265,7 @@
       <c r="D27" s="4"/>
       <c r="E27" s="2"/>
     </row>
-    <row r="28" s="3" customFormat="1" spans="1:5">
+    <row r="28" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A28" s="10"/>
       <c r="C28" s="8" t="str">
         <f ca="1">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B28,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
@@ -1887,7 +1274,7 @@
       <c r="D28" s="4"/>
       <c r="E28" s="2"/>
     </row>
-    <row r="29" s="3" customFormat="1" spans="1:5">
+    <row r="29" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A29" s="10"/>
       <c r="C29" s="8" t="str">
         <f ca="1">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B29,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
@@ -1896,7 +1283,7 @@
       <c r="D29" s="4"/>
       <c r="E29" s="2"/>
     </row>
-    <row r="30" s="3" customFormat="1" spans="1:5">
+    <row r="30" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A30" s="10"/>
       <c r="C30" s="8" t="str">
         <f ca="1">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B30,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
@@ -1905,7 +1292,7 @@
       <c r="D30" s="4"/>
       <c r="E30" s="2"/>
     </row>
-    <row r="31" s="3" customFormat="1" spans="1:5">
+    <row r="31" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A31" s="10"/>
       <c r="C31" s="8" t="str">
         <f ca="1">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B31,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
@@ -1914,7 +1301,7 @@
       <c r="D31" s="4"/>
       <c r="E31" s="2"/>
     </row>
-    <row r="32" s="3" customFormat="1" spans="1:5">
+    <row r="32" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A32" s="10"/>
       <c r="C32" s="8" t="str">
         <f ca="1">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B32,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
@@ -1923,7 +1310,7 @@
       <c r="D32" s="4"/>
       <c r="E32" s="2"/>
     </row>
-    <row r="33" s="3" customFormat="1" spans="1:5">
+    <row r="33" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A33" s="10"/>
       <c r="C33" s="8" t="str">
         <f ca="1">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B33,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
@@ -1932,7 +1319,7 @@
       <c r="D33" s="4"/>
       <c r="E33" s="2"/>
     </row>
-    <row r="34" s="3" customFormat="1" spans="1:5">
+    <row r="34" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A34" s="10"/>
       <c r="C34" s="8" t="str">
         <f ca="1">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B34,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
@@ -1941,7 +1328,7 @@
       <c r="D34" s="4"/>
       <c r="E34" s="2"/>
     </row>
-    <row r="35" s="3" customFormat="1" spans="1:5">
+    <row r="35" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A35" s="10"/>
       <c r="C35" s="8" t="str">
         <f ca="1">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B35,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
@@ -1950,7 +1337,7 @@
       <c r="D35" s="4"/>
       <c r="E35" s="2"/>
     </row>
-    <row r="36" s="3" customFormat="1" spans="1:5">
+    <row r="36" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A36" s="10"/>
       <c r="C36" s="8" t="str">
         <f ca="1">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B36,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
@@ -1959,7 +1346,7 @@
       <c r="D36" s="4"/>
       <c r="E36" s="2"/>
     </row>
-    <row r="37" s="3" customFormat="1" spans="3:5">
+    <row r="37" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="C37" s="8" t="str">
         <f ca="1">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B37,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
@@ -1967,1550 +1354,1551 @@
       <c r="D37" s="4"/>
       <c r="E37" s="2"/>
     </row>
-    <row r="38" spans="3:3">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.35">
       <c r="C38" s="8" t="str">
         <f ca="1">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B38,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
     </row>
-    <row r="39" spans="3:3">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.35">
       <c r="C39" s="8" t="str">
         <f ca="1">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B39,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
     </row>
-    <row r="40" spans="3:3">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.35">
       <c r="C40" s="8" t="str">
         <f ca="1">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B40,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
     </row>
-    <row r="41" spans="3:3">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.35">
       <c r="C41" s="3" t="str">
         <f ca="1">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B41,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
     </row>
-    <row r="42" spans="3:3">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.35">
       <c r="C42" s="3" t="str">
         <f ca="1">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B42,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
     </row>
-    <row r="43" spans="3:3">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.35">
       <c r="C43" s="3" t="str">
         <f ca="1">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B43,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
     </row>
-    <row r="44" spans="3:3">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.35">
       <c r="C44" s="3" t="str">
         <f ca="1">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B44,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
     </row>
-    <row r="45" spans="3:3">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.35">
       <c r="C45" s="3" t="str">
         <f ca="1">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B45,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
     </row>
-    <row r="46" spans="3:3">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.35">
       <c r="C46" s="3" t="str">
         <f ca="1">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B46,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
     </row>
-    <row r="47" spans="3:3">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.35">
       <c r="C47" s="3" t="str">
         <f ca="1">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B47,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
     </row>
-    <row r="48" spans="3:3">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.35">
       <c r="C48" s="3" t="str">
         <f ca="1">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B48,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
     </row>
-    <row r="49" spans="3:3">
+    <row r="49" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C49" s="3" t="str">
         <f ca="1">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B49,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
     </row>
-    <row r="50" spans="3:3">
+    <row r="50" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C50" s="3" t="str">
         <f ca="1">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B50,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
     </row>
-    <row r="51" spans="3:3">
+    <row r="51" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C51" s="3" t="str">
         <f ca="1">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B51,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
     </row>
-    <row r="52" spans="3:3">
+    <row r="52" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C52" s="3" t="str">
         <f ca="1">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B52,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
     </row>
-    <row r="53" spans="3:3">
+    <row r="53" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C53" s="3" t="str">
         <f ca="1">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B53,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
     </row>
-    <row r="54" spans="3:3">
+    <row r="54" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C54" s="3" t="str">
         <f ca="1">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B54,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
     </row>
-    <row r="55" spans="3:3">
+    <row r="55" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C55" s="3" t="str">
         <f ca="1">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B55,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
     </row>
-    <row r="56" spans="3:3">
+    <row r="56" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C56" s="3" t="str">
         <f ca="1">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B56,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
     </row>
-    <row r="57" spans="3:3">
+    <row r="57" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C57" s="3" t="str">
         <f ca="1">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B57,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
     </row>
-    <row r="58" spans="3:3">
+    <row r="58" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C58" s="3" t="str">
         <f ca="1">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B58,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
     </row>
-    <row r="59" spans="3:3">
+    <row r="59" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C59" s="3" t="str">
         <f ca="1">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B59,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
     </row>
-    <row r="60" spans="3:3">
+    <row r="60" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C60" s="3" t="str">
         <f ca="1">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B60,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
     </row>
-    <row r="61" spans="3:3">
+    <row r="61" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C61" s="3" t="str">
         <f ca="1">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B61,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
     </row>
-    <row r="62" spans="3:3">
+    <row r="62" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C62" s="3" t="str">
         <f ca="1">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B62,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
     </row>
-    <row r="63" spans="3:3">
+    <row r="63" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C63" s="3" t="str">
         <f ca="1">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B63,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
     </row>
-    <row r="64" spans="3:3">
+    <row r="64" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C64" s="3" t="str">
         <f ca="1">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B64,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
     </row>
-    <row r="65" spans="3:3">
+    <row r="65" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C65" s="3" t="str">
         <f ca="1">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B65,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
     </row>
-    <row r="66" spans="3:3">
+    <row r="66" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C66" s="3" t="str">
         <f ca="1">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B66,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
     </row>
-    <row r="67" spans="3:3">
+    <row r="67" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C67" s="3" t="str">
         <f ca="1">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B67,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
     </row>
-    <row r="68" spans="3:3">
+    <row r="68" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C68" s="3" t="str">
         <f ca="1">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B68,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
     </row>
-    <row r="69" spans="3:3">
+    <row r="69" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C69" s="3" t="str">
         <f ca="1">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B69,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
     </row>
-    <row r="70" spans="3:3">
+    <row r="70" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C70" s="3" t="str">
         <f ca="1">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B70,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
     </row>
-    <row r="71" spans="3:3">
+    <row r="71" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C71" s="3" t="str">
         <f ca="1">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B71,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
     </row>
-    <row r="72" spans="3:3">
+    <row r="72" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C72" s="3" t="str">
         <f ca="1">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B72,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
     </row>
-    <row r="73" spans="3:3">
+    <row r="73" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C73" s="3" t="str">
         <f ca="1">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B73,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
     </row>
-    <row r="74" spans="3:3">
+    <row r="74" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C74" s="3" t="str">
         <f ca="1">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B74,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
     </row>
-    <row r="75" spans="3:3">
+    <row r="75" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C75" s="3" t="str">
         <f ca="1">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B75,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
     </row>
-    <row r="76" spans="3:3">
+    <row r="76" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C76" s="3" t="str">
         <f ca="1">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B76,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
     </row>
-    <row r="77" spans="3:3">
+    <row r="77" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C77" s="3" t="str">
         <f ca="1">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B77,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
     </row>
-    <row r="78" spans="3:3">
+    <row r="78" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C78" s="3" t="str">
         <f ca="1">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B78,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
     </row>
-    <row r="79" spans="3:3">
+    <row r="79" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C79" s="3" t="str">
         <f ca="1">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B79,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
     </row>
-    <row r="80" spans="3:3">
+    <row r="80" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C80" s="3" t="str">
         <f ca="1">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B80,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
     </row>
-    <row r="81" spans="3:3">
+    <row r="81" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C81" s="3" t="str">
         <f ca="1">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B81,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
     </row>
-    <row r="82" spans="3:3">
+    <row r="82" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C82" s="3" t="str">
         <f ca="1">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B82,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
     </row>
-    <row r="83" spans="3:3">
+    <row r="83" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C83" s="3" t="str">
         <f ca="1">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B83,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
     </row>
-    <row r="84" spans="3:3">
+    <row r="84" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C84" s="3" t="str">
         <f ca="1">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B84,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
     </row>
-    <row r="85" spans="3:3">
+    <row r="85" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C85" s="3" t="str">
         <f ca="1">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B85,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
     </row>
-    <row r="86" spans="3:3">
+    <row r="86" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C86" s="3" t="str">
         <f ca="1">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B86,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
     </row>
-    <row r="87" spans="3:3">
+    <row r="87" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C87" s="3" t="str">
         <f ca="1">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B87,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
     </row>
-    <row r="88" spans="3:3">
+    <row r="88" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C88" s="3" t="str">
         <f ca="1">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B88,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
     </row>
-    <row r="89" spans="3:3">
+    <row r="89" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C89" s="3" t="str">
         <f ca="1">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B89,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
     </row>
-    <row r="90" spans="3:3">
+    <row r="90" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C90" s="3" t="str">
         <f ca="1">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B90,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
     </row>
-    <row r="91" spans="3:3">
+    <row r="91" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C91" s="3" t="str">
         <f ca="1">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B91,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
     </row>
-    <row r="92" spans="3:3">
+    <row r="92" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C92" s="3" t="str">
         <f ca="1">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B92,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
     </row>
-    <row r="93" spans="3:3">
+    <row r="93" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C93" s="3" t="str">
         <f ca="1">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B93,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
     </row>
-    <row r="94" spans="3:3">
+    <row r="94" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C94" s="3" t="str">
         <f ca="1">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B94,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
     </row>
-    <row r="95" spans="3:3">
+    <row r="95" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C95" s="3" t="str">
         <f ca="1">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B95,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
     </row>
-    <row r="96" spans="3:3">
+    <row r="96" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C96" s="3" t="str">
         <f ca="1">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B96,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
     </row>
-    <row r="97" spans="3:3">
+    <row r="97" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C97" s="3" t="str">
         <f ca="1">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B97,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
     </row>
-    <row r="98" spans="3:3">
+    <row r="98" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C98" s="3" t="str">
         <f ca="1">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B98,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
     </row>
-    <row r="99" spans="3:3">
+    <row r="99" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C99" s="3" t="str">
         <f ca="1">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B99,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
     </row>
-    <row r="100" spans="3:3">
+    <row r="100" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C100" s="3" t="str">
         <f ca="1">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B100,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
     </row>
-    <row r="101" spans="3:3">
+    <row r="101" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C101" s="3" t="str">
         <f ca="1">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B101,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
     </row>
-    <row r="102" spans="3:3">
+    <row r="102" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C102" s="3" t="str">
         <f ca="1">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B102,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
     </row>
-    <row r="103" spans="3:3">
+    <row r="103" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C103" s="3" t="str">
         <f ca="1">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B103,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
     </row>
-    <row r="104" spans="3:3">
+    <row r="104" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C104" s="3" t="str">
         <f ca="1">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B104,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
     </row>
-    <row r="105" spans="3:3">
+    <row r="105" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C105" s="3" t="str">
         <f ca="1">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B105,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
     </row>
-    <row r="106" spans="3:3">
+    <row r="106" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C106" s="3" t="str">
         <f ca="1">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B106,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
     </row>
-    <row r="107" spans="3:3">
+    <row r="107" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C107" s="3" t="str">
         <f ca="1">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B107,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
     </row>
-    <row r="108" spans="3:3">
+    <row r="108" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C108" s="3" t="str">
         <f ca="1">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B108,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
     </row>
-    <row r="109" spans="3:3">
+    <row r="109" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C109" s="3" t="str">
         <f ca="1">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B109,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
     </row>
-    <row r="110" spans="3:3">
+    <row r="110" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C110" s="3" t="str">
         <f ca="1">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B110,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
     </row>
-    <row r="111" spans="3:3">
+    <row r="111" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C111" s="3" t="str">
         <f ca="1">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B111,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
     </row>
-    <row r="112" spans="3:3">
+    <row r="112" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C112" s="3" t="str">
         <f ca="1">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B112,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
     </row>
-    <row r="113" spans="3:3">
+    <row r="113" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C113" s="3" t="str">
         <f ca="1">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B113,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
     </row>
-    <row r="114" spans="3:3">
+    <row r="114" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C114" s="3" t="str">
         <f ca="1">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B114,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
     </row>
-    <row r="115" spans="3:3">
+    <row r="115" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C115" s="3" t="str">
         <f ca="1">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B115,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
     </row>
-    <row r="116" spans="3:3">
+    <row r="116" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C116" s="3" t="str">
         <f ca="1">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B116,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
     </row>
-    <row r="117" spans="3:3">
+    <row r="117" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C117" s="3" t="str">
         <f ca="1">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B117,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
     </row>
-    <row r="118" spans="3:3">
+    <row r="118" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C118" s="3" t="str">
         <f ca="1">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B118,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
     </row>
-    <row r="119" spans="3:3">
+    <row r="119" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C119" s="3" t="str">
         <f ca="1">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B119,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
     </row>
-    <row r="120" spans="3:3">
+    <row r="120" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C120" s="3" t="str">
         <f ca="1">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B120,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
     </row>
-    <row r="121" spans="3:3">
+    <row r="121" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C121" s="3" t="str">
         <f ca="1">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B121,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
     </row>
-    <row r="122" spans="3:3">
+    <row r="122" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C122" s="3" t="str">
         <f ca="1">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B122,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
     </row>
-    <row r="123" spans="3:3">
+    <row r="123" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C123" s="3" t="str">
         <f ca="1">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B123,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
     </row>
-    <row r="124" spans="3:3">
+    <row r="124" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C124" s="3" t="str">
         <f ca="1">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B124,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
     </row>
-    <row r="125" spans="3:3">
+    <row r="125" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C125" s="3" t="str">
         <f ca="1">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B125,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
     </row>
-    <row r="126" spans="3:3">
+    <row r="126" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C126" s="3" t="str">
         <f ca="1">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B126,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
     </row>
-    <row r="127" spans="3:3">
+    <row r="127" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C127" s="3" t="str">
         <f ca="1">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B127,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
     </row>
-    <row r="128" spans="3:3">
+    <row r="128" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C128" s="3" t="str">
         <f ca="1">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B128,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
     </row>
-    <row r="129" spans="3:3">
+    <row r="129" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C129" s="3" t="str">
         <f ca="1">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B129,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
     </row>
-    <row r="130" spans="3:3">
+    <row r="130" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C130" s="3" t="str">
         <f ca="1">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B130,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
     </row>
-    <row r="131" spans="3:3">
+    <row r="131" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C131" s="3" t="str">
         <f ca="1">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B131,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
     </row>
-    <row r="132" spans="3:3">
+    <row r="132" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C132" s="3" t="str">
         <f ca="1">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B132,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
     </row>
-    <row r="133" spans="3:3">
+    <row r="133" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C133" s="3" t="str">
         <f ca="1">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B133,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
     </row>
-    <row r="134" spans="3:3">
+    <row r="134" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C134" s="3" t="str">
         <f ca="1">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B134,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
     </row>
-    <row r="135" spans="3:3">
+    <row r="135" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C135" s="3" t="str">
         <f ca="1">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B135,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
     </row>
-    <row r="136" spans="3:3">
+    <row r="136" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C136" s="3" t="str">
         <f ca="1">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B136,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
     </row>
-    <row r="137" spans="3:3">
+    <row r="137" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C137" s="3" t="str">
         <f ca="1">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B137,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
     </row>
-    <row r="138" spans="3:3">
+    <row r="138" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C138" s="3" t="str">
         <f ca="1">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B138,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
     </row>
-    <row r="139" spans="3:3">
+    <row r="139" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C139" s="3" t="str">
         <f ca="1">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B139,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
     </row>
-    <row r="140" spans="3:3">
+    <row r="140" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C140" s="3" t="str">
         <f ca="1">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B140,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
     </row>
-    <row r="141" spans="3:3">
+    <row r="141" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C141" s="3" t="str">
         <f ca="1">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B141,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
     </row>
-    <row r="142" spans="3:3">
+    <row r="142" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C142" s="3" t="str">
         <f ca="1">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B142,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
     </row>
-    <row r="143" spans="3:3">
+    <row r="143" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C143" s="3" t="str">
         <f ca="1">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B143,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
     </row>
-    <row r="144" spans="3:3">
+    <row r="144" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C144" s="3" t="str">
         <f ca="1">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B144,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
     </row>
-    <row r="145" spans="3:3">
+    <row r="145" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C145" s="3" t="str">
         <f ca="1">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B145,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
     </row>
-    <row r="146" spans="3:3">
+    <row r="146" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C146" s="3" t="str">
         <f ca="1">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B146,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
     </row>
-    <row r="147" spans="3:3">
+    <row r="147" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C147" s="3" t="str">
         <f ca="1">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B147,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
     </row>
-    <row r="148" spans="3:3">
+    <row r="148" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C148" s="3" t="str">
         <f ca="1">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B148,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
     </row>
-    <row r="149" spans="3:3">
+    <row r="149" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C149" s="3" t="str">
         <f ca="1">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B149,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
     </row>
-    <row r="150" spans="3:3">
+    <row r="150" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C150" s="3" t="str">
         <f ca="1">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B150,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
     </row>
-    <row r="151" spans="3:3">
+    <row r="151" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C151" s="3" t="str">
         <f ca="1">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B151,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
     </row>
-    <row r="152" spans="3:3">
+    <row r="152" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C152" s="3" t="str">
         <f ca="1">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B152,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
     </row>
-    <row r="153" spans="3:3">
+    <row r="153" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C153" s="3" t="str">
         <f ca="1">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B153,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
     </row>
-    <row r="154" spans="3:3">
+    <row r="154" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C154" s="3" t="str">
         <f ca="1">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B154,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
     </row>
-    <row r="155" spans="3:3">
+    <row r="155" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C155" s="3" t="str">
         <f ca="1">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B155,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
     </row>
-    <row r="156" spans="3:3">
+    <row r="156" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C156" s="3" t="str">
         <f ca="1">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B156,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
     </row>
-    <row r="157" spans="3:3">
+    <row r="157" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C157" s="3" t="str">
         <f ca="1">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B157,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
     </row>
-    <row r="158" spans="3:3">
+    <row r="158" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C158" s="3" t="str">
         <f ca="1">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B158,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
     </row>
-    <row r="159" spans="3:3">
+    <row r="159" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C159" s="3" t="str">
         <f ca="1">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B159,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
     </row>
-    <row r="160" spans="3:3">
+    <row r="160" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C160" s="3" t="str">
         <f ca="1">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B160,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
     </row>
-    <row r="161" spans="3:3">
+    <row r="161" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C161" s="3" t="str">
         <f ca="1">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B161,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
     </row>
-    <row r="162" spans="3:3">
+    <row r="162" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C162" s="3" t="str">
         <f ca="1">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B162,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
     </row>
-    <row r="163" spans="3:3">
+    <row r="163" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C163" s="3" t="str">
         <f ca="1">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B163,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
     </row>
-    <row r="164" spans="3:3">
+    <row r="164" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C164" s="3" t="str">
         <f ca="1">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B164,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
     </row>
-    <row r="165" spans="3:3">
+    <row r="165" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C165" s="3" t="str">
         <f ca="1">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B165,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
     </row>
-    <row r="166" spans="3:3">
+    <row r="166" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C166" s="3" t="str">
         <f ca="1">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B166,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
     </row>
-    <row r="167" spans="3:3">
+    <row r="167" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C167" s="3" t="str">
         <f ca="1">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B167,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
     </row>
-    <row r="168" spans="3:3">
+    <row r="168" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C168" s="3" t="str">
         <f ca="1">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B168,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
     </row>
-    <row r="169" spans="3:3">
+    <row r="169" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C169" s="3" t="str">
         <f ca="1">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B169,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
     </row>
-    <row r="170" spans="3:3">
+    <row r="170" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C170" s="3" t="str">
         <f ca="1">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B170,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
     </row>
-    <row r="171" spans="3:3">
+    <row r="171" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C171" s="3" t="str">
         <f ca="1">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B171,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
     </row>
-    <row r="172" spans="3:3">
+    <row r="172" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C172" s="3" t="str">
         <f ca="1">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B172,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
     </row>
-    <row r="173" spans="3:3">
+    <row r="173" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C173" s="3" t="str">
         <f ca="1">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B173,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
     </row>
-    <row r="174" spans="3:3">
+    <row r="174" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C174" s="3" t="str">
         <f ca="1">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B174,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
     </row>
-    <row r="175" spans="3:3">
+    <row r="175" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C175" s="3" t="str">
         <f ca="1">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B175,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
     </row>
-    <row r="176" spans="3:3">
+    <row r="176" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C176" s="3" t="str">
         <f ca="1">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B176,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
     </row>
-    <row r="177" spans="3:3">
+    <row r="177" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C177" s="3" t="str">
         <f ca="1">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B177,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
     </row>
-    <row r="178" spans="3:3">
+    <row r="178" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C178" s="3" t="str">
         <f ca="1">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B178,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
     </row>
-    <row r="179" spans="3:3">
+    <row r="179" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C179" s="3" t="str">
         <f ca="1">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B179,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
     </row>
-    <row r="180" spans="3:3">
+    <row r="180" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C180" s="3" t="str">
         <f ca="1">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B180,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
     </row>
-    <row r="181" spans="3:3">
+    <row r="181" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C181" s="3" t="str">
         <f ca="1">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B181,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
     </row>
-    <row r="182" spans="3:3">
+    <row r="182" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C182" s="3" t="str">
         <f ca="1">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B182,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
     </row>
-    <row r="183" spans="3:3">
+    <row r="183" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C183" s="3" t="str">
         <f ca="1">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B183,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
     </row>
-    <row r="184" spans="3:3">
+    <row r="184" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C184" s="3" t="str">
         <f ca="1">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B184,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
     </row>
-    <row r="185" spans="3:3">
+    <row r="185" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C185" s="3" t="str">
         <f ca="1">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B185,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
     </row>
-    <row r="186" spans="3:3">
+    <row r="186" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C186" s="3" t="str">
         <f ca="1">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B186,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
     </row>
-    <row r="187" spans="3:3">
+    <row r="187" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C187" s="3" t="str">
         <f ca="1">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B187,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
     </row>
-    <row r="188" spans="3:3">
+    <row r="188" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C188" s="3" t="str">
         <f ca="1">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B188,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
     </row>
-    <row r="189" spans="3:3">
+    <row r="189" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C189" s="3" t="str">
         <f ca="1">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B189,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
     </row>
-    <row r="190" spans="3:3">
+    <row r="190" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C190" s="3" t="str">
         <f ca="1">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B190,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
     </row>
-    <row r="191" spans="3:3">
+    <row r="191" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C191" s="3" t="str">
         <f ca="1">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B191,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
     </row>
-    <row r="192" spans="3:3">
+    <row r="192" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C192" s="3" t="str">
         <f ca="1">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B192,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
     </row>
-    <row r="193" spans="3:3">
+    <row r="193" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C193" s="3" t="str">
         <f ca="1">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B193,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
     </row>
-    <row r="194" spans="3:3">
+    <row r="194" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C194" s="3" t="str">
         <f ca="1">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B194,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
     </row>
-    <row r="195" spans="3:3">
+    <row r="195" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C195" s="3" t="str">
         <f ca="1">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B195,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
     </row>
-    <row r="196" spans="3:3">
+    <row r="196" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C196" s="3" t="str">
         <f ca="1">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B196,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
     </row>
-    <row r="197" spans="3:3">
+    <row r="197" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C197" s="3" t="str">
         <f ca="1">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B197,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
     </row>
-    <row r="198" spans="3:3">
+    <row r="198" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C198" s="3" t="str">
         <f ca="1">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B198,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
     </row>
-    <row r="199" spans="3:3">
+    <row r="199" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C199" s="3" t="str">
         <f ca="1">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B199,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
     </row>
-    <row r="200" spans="3:3">
+    <row r="200" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C200" s="3" t="str">
         <f ca="1">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B200,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
     </row>
-    <row r="201" spans="3:3">
+    <row r="201" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C201" s="3" t="str">
         <f ca="1">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B201,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
     </row>
-    <row r="202" spans="3:3">
+    <row r="202" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C202" s="3" t="str">
         <f ca="1">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B202,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
     </row>
-    <row r="203" spans="3:3">
+    <row r="203" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C203" s="3" t="str">
         <f ca="1">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B203,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
     </row>
-    <row r="204" spans="3:3">
+    <row r="204" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C204" s="3" t="str">
         <f ca="1">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B204,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
     </row>
-    <row r="205" spans="3:3">
+    <row r="205" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C205" s="3" t="str">
         <f ca="1">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B205,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
     </row>
-    <row r="206" spans="3:3">
+    <row r="206" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C206" s="3" t="str">
         <f ca="1">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B206,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
     </row>
-    <row r="207" spans="3:3">
+    <row r="207" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C207" s="3" t="str">
         <f ca="1">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B207,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
     </row>
-    <row r="208" spans="3:3">
+    <row r="208" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C208" s="3" t="str">
         <f ca="1">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B208,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
     </row>
-    <row r="209" spans="3:3">
+    <row r="209" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C209" s="3" t="str">
         <f ca="1">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B209,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
     </row>
-    <row r="210" spans="3:3">
+    <row r="210" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C210" s="3" t="str">
         <f ca="1">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B210,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
     </row>
-    <row r="211" spans="3:3">
+    <row r="211" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C211" s="3" t="str">
         <f ca="1">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B211,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
     </row>
-    <row r="212" spans="3:3">
+    <row r="212" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C212" s="3" t="str">
         <f ca="1">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B212,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
     </row>
-    <row r="213" spans="3:3">
+    <row r="213" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C213" s="3" t="str">
         <f ca="1">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B213,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
     </row>
-    <row r="214" spans="3:3">
+    <row r="214" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C214" s="3" t="str">
         <f ca="1">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B214,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
     </row>
-    <row r="215" spans="3:3">
+    <row r="215" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C215" s="3" t="str">
         <f ca="1">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B215,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
     </row>
-    <row r="216" spans="3:3">
+    <row r="216" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C216" s="3" t="str">
         <f ca="1">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B216,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
     </row>
-    <row r="217" spans="3:3">
+    <row r="217" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C217" s="3" t="str">
         <f ca="1">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B217,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
     </row>
-    <row r="218" spans="3:3">
+    <row r="218" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C218" s="3" t="str">
         <f ca="1">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B218,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
     </row>
-    <row r="219" spans="3:3">
+    <row r="219" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C219" s="3" t="str">
         <f ca="1">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B219,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
     </row>
-    <row r="220" spans="3:3">
+    <row r="220" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C220" s="3" t="str">
         <f ca="1">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B220,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
     </row>
-    <row r="221" spans="3:3">
+    <row r="221" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C221" s="3" t="str">
         <f ca="1">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B221,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
     </row>
-    <row r="222" spans="3:3">
+    <row r="222" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C222" s="3" t="str">
         <f ca="1">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B222,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
     </row>
-    <row r="223" spans="3:3">
+    <row r="223" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C223" s="3" t="str">
         <f ca="1">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B223,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
     </row>
-    <row r="224" spans="3:3">
+    <row r="224" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C224" s="3" t="str">
         <f ca="1">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B224,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
     </row>
-    <row r="225" spans="3:3">
+    <row r="225" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C225" s="3" t="str">
         <f ca="1">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B225,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
     </row>
-    <row r="226" spans="3:3">
+    <row r="226" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C226" s="3" t="str">
         <f ca="1">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B226,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
     </row>
-    <row r="227" spans="3:3">
+    <row r="227" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C227" s="3" t="str">
         <f ca="1">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B227,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
     </row>
-    <row r="228" spans="3:3">
+    <row r="228" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C228" s="3" t="str">
         <f ca="1">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B228,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
     </row>
-    <row r="229" spans="3:3">
+    <row r="229" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C229" s="3" t="str">
         <f ca="1">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B229,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
     </row>
-    <row r="230" spans="3:3">
+    <row r="230" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C230" s="3" t="str">
         <f ca="1">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B230,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
     </row>
-    <row r="231" spans="3:3">
+    <row r="231" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C231" s="3" t="str">
         <f ca="1">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B231,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
     </row>
-    <row r="232" spans="3:3">
+    <row r="232" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C232" s="3" t="str">
         <f ca="1">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B232,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
     </row>
-    <row r="233" spans="3:3">
+    <row r="233" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C233" s="3" t="str">
         <f ca="1">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B233,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
     </row>
-    <row r="234" spans="3:3">
+    <row r="234" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C234" s="3" t="str">
         <f ca="1">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B234,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
     </row>
-    <row r="235" spans="3:3">
+    <row r="235" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C235" s="3" t="str">
         <f ca="1">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B235,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
     </row>
-    <row r="236" spans="3:3">
+    <row r="236" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C236" s="3" t="str">
         <f ca="1">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B236,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
     </row>
-    <row r="237" spans="3:3">
+    <row r="237" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C237" s="3" t="str">
         <f ca="1">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B237,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
     </row>
-    <row r="238" spans="3:3">
+    <row r="238" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C238" s="3" t="str">
         <f ca="1">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B238,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
     </row>
-    <row r="239" spans="3:3">
+    <row r="239" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C239" s="3" t="str">
         <f ca="1">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B239,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
     </row>
-    <row r="240" spans="3:3">
+    <row r="240" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C240" s="3" t="str">
         <f ca="1">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B240,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
     </row>
-    <row r="241" spans="3:3">
+    <row r="241" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C241" s="3" t="str">
         <f ca="1">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B241,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
     </row>
-    <row r="242" spans="3:3">
+    <row r="242" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C242" s="3" t="str">
         <f ca="1">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B242,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
     </row>
-    <row r="243" spans="3:3">
+    <row r="243" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C243" s="3" t="str">
         <f ca="1">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B243,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
     </row>
-    <row r="244" spans="3:3">
+    <row r="244" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C244" s="3" t="str">
         <f ca="1">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B244,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
     </row>
-    <row r="245" spans="3:3">
+    <row r="245" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C245" s="3" t="str">
         <f ca="1">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B245,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
     </row>
-    <row r="246" spans="3:3">
+    <row r="246" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C246" s="3" t="str">
         <f ca="1">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B246,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
     </row>
-    <row r="247" spans="3:3">
+    <row r="247" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C247" s="3" t="str">
         <f ca="1">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B247,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
     </row>
-    <row r="248" spans="3:3">
+    <row r="248" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C248" s="3" t="str">
         <f ca="1">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B248,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
     </row>
-    <row r="249" spans="3:3">
+    <row r="249" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C249" s="3" t="str">
         <f ca="1">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B249,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
     </row>
-    <row r="250" spans="3:3">
+    <row r="250" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C250" s="3" t="str">
         <f ca="1">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B250,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
     </row>
-    <row r="251" spans="3:3">
+    <row r="251" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C251" s="3" t="str">
         <f ca="1">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B251,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
     </row>
-    <row r="252" spans="3:3">
+    <row r="252" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C252" s="3" t="str">
         <f ca="1">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B252,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
     </row>
-    <row r="253" spans="3:3">
+    <row r="253" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C253" s="3" t="str">
         <f ca="1">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B253,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
     </row>
-    <row r="254" spans="3:3">
+    <row r="254" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C254" s="3" t="str">
         <f ca="1">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B254,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
     </row>
-    <row r="255" spans="3:3">
+    <row r="255" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C255" s="3" t="str">
         <f ca="1">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B255,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
     </row>
-    <row r="256" spans="3:3">
+    <row r="256" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C256" s="3" t="str">
         <f ca="1">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B256,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
     </row>
-    <row r="257" spans="3:3">
+    <row r="257" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C257" s="3" t="str">
         <f ca="1">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B257,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
     </row>
-    <row r="258" spans="3:3">
+    <row r="258" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C258" s="3" t="str">
         <f ca="1">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B258,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
     </row>
-    <row r="259" spans="3:3">
+    <row r="259" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C259" s="3" t="str">
         <f ca="1">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B259,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
     </row>
-    <row r="260" spans="3:3">
+    <row r="260" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C260" s="3" t="str">
         <f ca="1">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B260,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
     </row>
-    <row r="261" spans="3:3">
+    <row r="261" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C261" s="3" t="str">
         <f ca="1">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B261,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
     </row>
-    <row r="262" spans="3:3">
+    <row r="262" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C262" s="3" t="str">
         <f ca="1">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B262,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
     </row>
-    <row r="263" spans="3:3">
+    <row r="263" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C263" s="3" t="str">
         <f ca="1">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B263,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
     </row>
-    <row r="264" spans="3:3">
+    <row r="264" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C264" s="3" t="str">
         <f ca="1">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B264,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
     </row>
-    <row r="265" spans="3:3">
+    <row r="265" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C265" s="3" t="str">
         <f ca="1">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B265,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
     </row>
-    <row r="266" spans="3:3">
+    <row r="266" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C266" s="3" t="str">
         <f ca="1">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B266,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
     </row>
-    <row r="267" spans="3:3">
+    <row r="267" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C267" s="3" t="str">
         <f ca="1">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B267,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
     </row>
-    <row r="268" spans="3:3">
+    <row r="268" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C268" s="3" t="str">
         <f ca="1">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B268,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
     </row>
-    <row r="269" spans="3:3">
+    <row r="269" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C269" s="3" t="str">
         <f ca="1">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B269,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
     </row>
-    <row r="270" spans="3:3">
+    <row r="270" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C270" s="3" t="str">
         <f ca="1">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B270,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
     </row>
-    <row r="271" spans="3:3">
+    <row r="271" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C271" s="3" t="str">
         <f ca="1">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B271,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
     </row>
-    <row r="272" spans="3:3">
+    <row r="272" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C272" s="3" t="str">
         <f ca="1">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B272,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
     </row>
-    <row r="273" spans="3:3">
+    <row r="273" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C273" s="3" t="str">
         <f ca="1">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B273,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
     </row>
-    <row r="274" spans="3:3">
+    <row r="274" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C274" s="3" t="str">
         <f ca="1">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B274,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
     </row>
-    <row r="275" spans="3:3">
+    <row r="275" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C275" s="3" t="str">
         <f ca="1">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B275,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
     </row>
-    <row r="276" spans="3:3">
+    <row r="276" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C276" s="3" t="str">
         <f ca="1">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B276,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
     </row>
-    <row r="277" spans="3:3">
+    <row r="277" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C277" s="3" t="str">
         <f ca="1">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B277,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
     </row>
-    <row r="278" spans="3:3">
+    <row r="278" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C278" s="3" t="str">
         <f ca="1">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B278,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
     </row>
-    <row r="279" spans="3:3">
+    <row r="279" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C279" s="3" t="str">
         <f ca="1">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B279,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
     </row>
-    <row r="280" spans="3:3">
+    <row r="280" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C280" s="3" t="str">
         <f ca="1">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B280,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
     </row>
-    <row r="281" spans="3:3">
+    <row r="281" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C281" s="3" t="str">
         <f ca="1">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B281,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
     </row>
-    <row r="282" spans="3:3">
+    <row r="282" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C282" s="3" t="str">
         <f ca="1">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B282,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
     </row>
-    <row r="283" spans="3:3">
+    <row r="283" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C283" s="3" t="str">
         <f ca="1">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B283,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
     </row>
-    <row r="284" spans="3:3">
+    <row r="284" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C284" s="3" t="str">
         <f ca="1">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B284,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
     </row>
-    <row r="285" spans="3:3">
+    <row r="285" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C285" s="3" t="str">
         <f ca="1">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B285,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
     </row>
-    <row r="286" spans="3:3">
+    <row r="286" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C286" s="3" t="str">
         <f ca="1">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B286,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
     </row>
-    <row r="287" spans="3:3">
+    <row r="287" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C287" s="3" t="str">
         <f ca="1">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B287,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
     </row>
-    <row r="288" spans="3:3">
+    <row r="288" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C288" s="3" t="str">
         <f ca="1">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B288,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
     </row>
-    <row r="289" spans="3:3">
+    <row r="289" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C289" s="3" t="str">
         <f ca="1">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B289,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
     </row>
-    <row r="290" spans="3:3">
+    <row r="290" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C290" s="3" t="str">
         <f ca="1">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B290,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
     </row>
-    <row r="291" spans="3:3">
+    <row r="291" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C291" s="3" t="str">
         <f ca="1">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B291,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
     </row>
-    <row r="292" spans="3:3">
+    <row r="292" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C292" s="3" t="str">
         <f ca="1">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B292,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
     </row>
-    <row r="293" spans="3:3">
+    <row r="293" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C293" s="3" t="str">
         <f ca="1">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B293,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
     </row>
-    <row r="294" spans="3:3">
+    <row r="294" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C294" s="3" t="str">
         <f ca="1">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B294,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7875" right="0.7875" top="1.025" bottom="1.025" header="0.7875" footer="0.7875"/>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.0249999999999999" bottom="1.0249999999999999" header="0.78749999999999998" footer="0.78749999999999998"/>
   <pageSetup paperSize="9" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;"Arial,标准"&amp;A</oddHeader>
@@ -3520,20 +2908,17 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:B1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="23.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" spans="1:2">
+    <row r="1" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>51</v>
       </c>
@@ -3542,8 +2927,8 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.700787401574803" right="0.700787401574803" top="0.751968503937008" bottom="0.751968503937008" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="600" verticalDpi="600"/>
-  <headerFooter/>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.70078740157480301" right="0.70078740157480301" top="0.75196850393700798" bottom="0.75196850393700798" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>
 </file>
--- a/dragon-verse/Excels/AnimalEcology_动物生态表.xlsx
+++ b/dragon-verse/Excels/AnimalEcology_动物生态表.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\P12GPark\Project\Edit\DragonVerse\dragon-verse\Excels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49EE33E5-E293-4328-8308-520FE68A0DC7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2F962BB-8654-4024-87AE-AAB66B7EBBB3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -163,9 +163,6 @@
     <t>30|34|40</t>
   </si>
   <si>
-    <t>100|300|500</t>
-  </si>
-  <si>
     <t>3|4|5</t>
   </si>
   <si>
@@ -194,13 +191,17 @@
   </si>
   <si>
     <t>MaxLanItemCount</t>
+  </si>
+  <si>
+    <t>100|200|400</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color theme="1"/>
@@ -221,6 +222,13 @@
     </font>
     <font>
       <sz val="9"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
       <name val="微软雅黑"/>
       <family val="2"/>
       <charset val="134"/>
@@ -246,7 +254,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -275,6 +283,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -750,8 +761,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N294"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="16.5" x14ac:dyDescent="0.35"/>
@@ -980,17 +991,17 @@
       <c r="I6" s="2">
         <v>5000</v>
       </c>
-      <c r="J6" s="2" t="s">
+      <c r="J6" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="K6" s="2" t="s">
         <v>41</v>
-      </c>
-      <c r="K6" s="2" t="s">
-        <v>42</v>
       </c>
       <c r="L6" s="3">
         <v>159750</v>
       </c>
       <c r="M6" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="7" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.35">
@@ -998,14 +1009,14 @@
         <v>3</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C7" s="8" t="str">
         <f ca="1">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B7,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
       <c r="D7" s="4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E7" s="2">
         <v>0</v>
@@ -1022,17 +1033,17 @@
       <c r="I7" s="2">
         <v>5000</v>
       </c>
-      <c r="J7" s="2" t="s">
-        <v>41</v>
+      <c r="J7" s="11" t="s">
+        <v>51</v>
       </c>
       <c r="K7" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="L7" s="3">
         <v>159842</v>
       </c>
       <c r="M7" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="8" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.35">
@@ -1040,14 +1051,14 @@
         <v>4</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C8" s="8" t="str">
         <f ca="1">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B8,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
       <c r="D8" s="4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E8" s="2">
         <v>0</v>
@@ -1064,17 +1075,17 @@
       <c r="I8" s="2">
         <v>5000</v>
       </c>
-      <c r="J8" s="2" t="s">
-        <v>41</v>
+      <c r="J8" s="11" t="s">
+        <v>51</v>
       </c>
       <c r="K8" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="L8" s="3">
         <v>160045</v>
       </c>
       <c r="M8" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="9" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.35">
@@ -2920,7 +2931,7 @@
   <sheetData>
     <row r="1" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B1" s="1">
         <v>1000</v>
